--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16630" windowHeight="3200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="163">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -1103,22 +1103,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「アドレス帳から連絡先を追加」した宛先の場合、連絡先の表示名が表示される</t>
-    <rPh sb="17" eb="19">
-      <t>アテサキ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カレンダーからの会議開催通知を送信する際、宛先確認画面が表示され、メールが送信できる</t>
     <rPh sb="19" eb="20">
       <t>サイ</t>
@@ -1151,22 +1135,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Toに連絡先の「表示名」が表示される</t>
-    <rPh sb="3" eb="6">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1232,6 +1200,22 @@
     </rPh>
     <rPh sb="192" eb="194">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アドレス帳から連絡先を追加」した宛先の場合、宛先が正しいフォーマットで表示される</t>
+    <rPh sb="17" eb="19">
+      <t>アテサキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>アテサキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2074,6 +2058,9 @@
     <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2099,9 +2086,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2134,6 +2118,63 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2142,63 +2183,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
@@ -2690,13 +2674,13 @@
       <selection activeCell="AC4" sqref="AC4:AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="32" width="4.08984375" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="4.08984375" style="1"/>
+    <col min="1" max="32" width="4.125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="4.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
@@ -2737,7 +2721,7 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
-    <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2776,7 +2760,7 @@
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
     </row>
-    <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2818,7 +2802,7 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>43097</v>
       </c>
@@ -2860,7 +2844,7 @@
       <c r="AE4" s="11"/>
       <c r="AF4" s="12"/>
     </row>
-    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>43111</v>
       </c>
@@ -2902,7 +2886,7 @@
       <c r="AE5" s="11"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2936,7 +2920,7 @@
       <c r="AE6" s="11"/>
       <c r="AF6" s="12"/>
     </row>
-    <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2970,7 +2954,7 @@
       <c r="AE7" s="11"/>
       <c r="AF7" s="12"/>
     </row>
-    <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -3004,7 +2988,7 @@
       <c r="AE8" s="11"/>
       <c r="AF8" s="12"/>
     </row>
-    <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3038,7 +3022,7 @@
       <c r="AE9" s="11"/>
       <c r="AF9" s="12"/>
     </row>
-    <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3072,7 +3056,7 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="12"/>
     </row>
-    <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -3106,7 +3090,7 @@
       <c r="AE11" s="11"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -3140,7 +3124,7 @@
       <c r="AE12" s="11"/>
       <c r="AF12" s="12"/>
     </row>
-    <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3174,7 +3158,7 @@
       <c r="AE13" s="11"/>
       <c r="AF13" s="12"/>
     </row>
-    <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -3208,7 +3192,7 @@
       <c r="AE14" s="11"/>
       <c r="AF14" s="12"/>
     </row>
-    <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -3242,7 +3226,7 @@
       <c r="AE15" s="11"/>
       <c r="AF15" s="12"/>
     </row>
-    <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -3276,7 +3260,7 @@
       <c r="AE16" s="11"/>
       <c r="AF16" s="12"/>
     </row>
-    <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3310,7 +3294,7 @@
       <c r="AE17" s="11"/>
       <c r="AF17" s="12"/>
     </row>
-    <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3344,7 +3328,7 @@
       <c r="AE18" s="11"/>
       <c r="AF18" s="12"/>
     </row>
-    <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3378,7 +3362,7 @@
       <c r="AE19" s="11"/>
       <c r="AF19" s="12"/>
     </row>
-    <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3412,7 +3396,7 @@
       <c r="AE20" s="11"/>
       <c r="AF20" s="12"/>
     </row>
-    <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -3446,7 +3430,7 @@
       <c r="AE21" s="11"/>
       <c r="AF21" s="12"/>
     </row>
-    <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -3480,7 +3464,7 @@
       <c r="AE22" s="11"/>
       <c r="AF22" s="12"/>
     </row>
-    <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3617,29 +3601,29 @@
   <dimension ref="A1:BE49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49:Z49"/>
+      <selection activeCell="Q42" sqref="Q42:Z42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="3.6328125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="28.36328125" style="2" customWidth="1"/>
-    <col min="17" max="25" width="3.6328125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.90625" style="2" customWidth="1"/>
-    <col min="27" max="37" width="3.6328125" style="2" customWidth="1"/>
-    <col min="38" max="39" width="3.90625" style="2" customWidth="1"/>
-    <col min="40" max="41" width="3.6328125" style="2" customWidth="1"/>
-    <col min="42" max="42" width="14.08984375" style="2" customWidth="1"/>
-    <col min="43" max="44" width="3.90625" style="2" customWidth="1"/>
-    <col min="45" max="46" width="3.6328125" style="2" customWidth="1"/>
-    <col min="47" max="47" width="10.6328125" style="2" customWidth="1"/>
-    <col min="48" max="49" width="3.90625" style="2" customWidth="1"/>
-    <col min="50" max="52" width="3.6328125" style="2" customWidth="1"/>
-    <col min="53" max="54" width="3.90625" style="2" customWidth="1"/>
-    <col min="55" max="16384" width="3.6328125" style="2"/>
+    <col min="1" max="15" width="3.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="28.375" style="2" customWidth="1"/>
+    <col min="17" max="25" width="3.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.875" style="2" customWidth="1"/>
+    <col min="27" max="37" width="3.625" style="2" customWidth="1"/>
+    <col min="38" max="39" width="3.875" style="2" customWidth="1"/>
+    <col min="40" max="41" width="3.625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="14.125" style="2" customWidth="1"/>
+    <col min="43" max="44" width="3.875" style="2" customWidth="1"/>
+    <col min="45" max="46" width="3.625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
+    <col min="48" max="49" width="3.875" style="2" customWidth="1"/>
+    <col min="50" max="52" width="3.625" style="2" customWidth="1"/>
+    <col min="53" max="54" width="3.875" style="2" customWidth="1"/>
+    <col min="55" max="16384" width="3.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>11</v>
       </c>
@@ -3687,34 +3671,34 @@
       <c r="AO1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="57" t="s">
+      <c r="AP1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57" t="s">
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="46" t="s">
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="57" t="s">
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A2" s="69" t="s">
         <v>14</v>
       </c>
@@ -3787,7 +3771,7 @@
       <c r="BD2" s="58"/>
       <c r="BE2" s="58"/>
     </row>
-    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
       <c r="C3" s="74"/>
@@ -3856,7 +3840,7 @@
       <c r="BD3" s="58"/>
       <c r="BE3" s="58"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A4" s="72"/>
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
@@ -3917,7 +3901,7 @@
       <c r="BD4" s="58"/>
       <c r="BE4" s="58"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A5" s="75"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -3978,178 +3962,178 @@
       <c r="BD5" s="58"/>
       <c r="BE5" s="58"/>
     </row>
-    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="43" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="43" t="s">
+      <c r="J8" s="50"/>
+      <c r="K8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="43" t="s">
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="43" t="s">
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="57" t="s">
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57" t="s">
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57" t="s">
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57" t="s">
+      <c r="AW8" s="54"/>
+      <c r="AX8" s="54"/>
+      <c r="AY8" s="54"/>
+      <c r="AZ8" s="54"/>
+      <c r="BA8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="54"/>
+      <c r="BD8" s="54"/>
+      <c r="BE8" s="54"/>
     </row>
-    <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="46" t="s">
+    <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="49" t="s">
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="51"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="48"/>
       <c r="AL9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AM9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="57" t="s">
+      <c r="AN9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
       <c r="AQ9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="57" t="s">
+      <c r="AS9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
       <c r="AV9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX9" s="57" t="s">
+      <c r="AX9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="57"/>
+      <c r="AY9" s="54"/>
+      <c r="AZ9" s="54"/>
       <c r="BA9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC9" s="57" t="s">
+      <c r="BC9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="BD9" s="57"/>
-      <c r="BE9" s="57"/>
+      <c r="BD9" s="54"/>
+      <c r="BE9" s="54"/>
     </row>
-    <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="26" t="s">
         <v>52</v>
       </c>
@@ -4158,43 +4142,43 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="36" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="21" t="s">
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="24"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4" t="s">
         <v>109</v>
@@ -4208,25 +4192,25 @@
       <c r="AR10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
       <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="24"/>
-      <c r="BE10" s="24"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
     </row>
-    <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="26" t="s">
         <v>119</v>
       </c>
@@ -4235,18 +4219,18 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="21" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
       <c r="Q11" s="33" t="s">
         <v>143</v>
       </c>
@@ -4259,21 +4243,21 @@
       <c r="X11" s="34"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="35"/>
-      <c r="AA11" s="21" t="s">
+      <c r="AA11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="21" t="s">
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="24"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="29"/>
@@ -4297,58 +4281,58 @@
       <c r="BD11" s="30"/>
       <c r="BE11" s="31"/>
     </row>
-    <row r="12" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="16" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="21" t="s">
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="21" t="s">
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="21" t="s">
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="24"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="29"/>
@@ -4372,11 +4356,11 @@
       <c r="BD12" s="30"/>
       <c r="BE12" s="31"/>
     </row>
-    <row r="13" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="26" t="s">
         <v>93</v>
       </c>
@@ -4385,45 +4369,45 @@
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="21" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="21" t="s">
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="21" t="s">
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="21" t="s">
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="24"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="29"/>
@@ -4447,11 +4431,11 @@
       <c r="BD13" s="30"/>
       <c r="BE13" s="31"/>
     </row>
-    <row r="14" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="26" t="s">
         <v>94</v>
       </c>
@@ -4460,45 +4444,45 @@
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="21" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="21" t="s">
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="21" t="s">
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="21" t="s">
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="24"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="29"/>
@@ -4522,11 +4506,11 @@
       <c r="BD14" s="30"/>
       <c r="BE14" s="31"/>
     </row>
-    <row r="15" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="26" t="s">
         <v>95</v>
       </c>
@@ -4535,45 +4519,45 @@
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="21" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="21" t="s">
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="21" t="s">
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="21" t="s">
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="24"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
       <c r="AN15" s="29"/>
@@ -4597,213 +4581,213 @@
       <c r="BD15" s="30"/>
       <c r="BE15" s="31"/>
     </row>
-    <row r="16" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="16" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="21" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="21" t="s">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="21" t="s">
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="21" t="s">
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="24"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
-      <c r="AU16" s="24"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
-      <c r="AX16" s="24"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="24"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
-      <c r="BC16" s="24"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="24"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
     </row>
-    <row r="17" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="16" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="21" t="s">
+      <c r="J17" s="18"/>
+      <c r="K17" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="21" t="s">
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="21" t="s">
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="21" t="s">
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="24"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="24"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
     </row>
-    <row r="18" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="16" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="21" t="s">
+      <c r="J18" s="18"/>
+      <c r="K18" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="21" t="s">
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="21" t="s">
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="21" t="s">
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="24"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4" t="s">
         <v>117</v>
@@ -4813,752 +4797,752 @@
       <c r="AU18" s="25"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
     </row>
-    <row r="19" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="16" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="21" t="s">
+      <c r="J19" s="18"/>
+      <c r="K19" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="21" t="s">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="21" t="s">
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="22" t="s">
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="24"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="16"/>
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="24"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16"/>
       <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="16"/>
+      <c r="BE19" s="16"/>
     </row>
-    <row r="20" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="16" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="21" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="21" t="s">
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="21" t="s">
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="24"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="24"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
       <c r="AQ20" s="4"/>
       <c r="AR20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS20" s="24"/>
-      <c r="AT20" s="24"/>
-      <c r="AU20" s="24"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
-      <c r="AX20" s="24"/>
-      <c r="AY20" s="24"/>
-      <c r="AZ20" s="24"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
       <c r="BA20" s="4"/>
       <c r="BB20" s="4"/>
-      <c r="BC20" s="24"/>
-      <c r="BD20" s="24"/>
-      <c r="BE20" s="24"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
     </row>
-    <row r="21" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="16" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="21" t="s">
+      <c r="J21" s="18"/>
+      <c r="K21" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="21" t="s">
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="21" t="s">
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="24"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="16"/>
       <c r="AQ21" s="4"/>
       <c r="AR21" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="24"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="16"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
+      <c r="AX21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
       <c r="BA21" s="4"/>
       <c r="BB21" s="4"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="16"/>
     </row>
-    <row r="22" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="16" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="21" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="21" t="s">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="21" t="s">
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="24"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
       <c r="AQ22" s="4"/>
       <c r="AR22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="24"/>
-      <c r="AU22" s="24"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
-      <c r="AX22" s="24"/>
-      <c r="AY22" s="24"/>
-      <c r="AZ22" s="24"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
       <c r="BA22" s="4"/>
       <c r="BB22" s="4"/>
-      <c r="BC22" s="24"/>
-      <c r="BD22" s="24"/>
-      <c r="BE22" s="24"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="16"/>
+      <c r="BE22" s="16"/>
     </row>
-    <row r="23" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="16" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="21" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="21" t="s">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="21" t="s">
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="24"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
       <c r="AQ23" s="4"/>
       <c r="AR23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS23" s="24"/>
-      <c r="AT23" s="24"/>
-      <c r="AU23" s="24"/>
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
-      <c r="AX23" s="24"/>
-      <c r="AY23" s="24"/>
-      <c r="AZ23" s="24"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="16"/>
       <c r="BA23" s="4"/>
       <c r="BB23" s="4"/>
-      <c r="BC23" s="24"/>
-      <c r="BD23" s="24"/>
-      <c r="BE23" s="24"/>
+      <c r="BC23" s="16"/>
+      <c r="BD23" s="16"/>
+      <c r="BE23" s="16"/>
     </row>
-    <row r="24" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="16" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="21" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="21" t="s">
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="21" t="s">
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="24"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS24" s="24"/>
-      <c r="AT24" s="24"/>
-      <c r="AU24" s="24"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
-      <c r="AX24" s="24"/>
-      <c r="AY24" s="24"/>
-      <c r="AZ24" s="24"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4"/>
-      <c r="BC24" s="24"/>
-      <c r="BD24" s="24"/>
-      <c r="BE24" s="24"/>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="16"/>
+      <c r="BE24" s="16"/>
     </row>
-    <row r="25" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="16" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="21" t="s">
+      <c r="J25" s="18"/>
+      <c r="K25" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="21" t="s">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="21" t="s">
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="24"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="24"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="16"/>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS25" s="24"/>
-      <c r="AT25" s="24"/>
-      <c r="AU25" s="24"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
-      <c r="AX25" s="24"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="24"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
       <c r="BA25" s="4"/>
       <c r="BB25" s="4"/>
-      <c r="BC25" s="24"/>
-      <c r="BD25" s="24"/>
-      <c r="BE25" s="24"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="16"/>
     </row>
-    <row r="26" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="16" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="21" t="s">
+      <c r="J26" s="18"/>
+      <c r="K26" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="21" t="s">
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="21" t="s">
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="24"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
-      <c r="AN26" s="24"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="24"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="24"/>
-      <c r="AU26" s="24"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
-      <c r="AX26" s="24"/>
-      <c r="AY26" s="24"/>
-      <c r="AZ26" s="24"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
       <c r="BA26" s="4"/>
       <c r="BB26" s="4"/>
-      <c r="BC26" s="24"/>
-      <c r="BD26" s="24"/>
-      <c r="BE26" s="24"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
     </row>
-    <row r="27" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="16" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="21" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="21" t="s">
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="21" t="s">
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="24"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="24"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="24"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="16"/>
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS27" s="24"/>
-      <c r="AT27" s="24"/>
-      <c r="AU27" s="24"/>
+      <c r="AS27" s="16"/>
+      <c r="AT27" s="16"/>
+      <c r="AU27" s="16"/>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
-      <c r="AX27" s="24"/>
-      <c r="AY27" s="24"/>
-      <c r="AZ27" s="24"/>
+      <c r="AX27" s="16"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="16"/>
       <c r="BA27" s="4"/>
       <c r="BB27" s="4"/>
-      <c r="BC27" s="24"/>
-      <c r="BD27" s="24"/>
-      <c r="BE27" s="24"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="16"/>
+      <c r="BE27" s="16"/>
     </row>
-    <row r="28" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="16" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="21" t="s">
+      <c r="J28" s="18"/>
+      <c r="K28" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="21" t="s">
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="21" t="s">
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="24"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
+      <c r="AN28" s="16"/>
+      <c r="AO28" s="16"/>
+      <c r="AP28" s="16"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="24"/>
-      <c r="AU28" s="24"/>
+      <c r="AS28" s="16"/>
+      <c r="AT28" s="16"/>
+      <c r="AU28" s="16"/>
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
-      <c r="AX28" s="24"/>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
+      <c r="AX28" s="16"/>
+      <c r="AY28" s="16"/>
+      <c r="AZ28" s="16"/>
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="24"/>
+      <c r="BC28" s="16"/>
+      <c r="BD28" s="16"/>
+      <c r="BE28" s="16"/>
     </row>
-    <row r="29" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="26" t="s">
         <v>53</v>
       </c>
@@ -5567,43 +5551,43 @@
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="21" t="s">
+      <c r="J29" s="18"/>
+      <c r="K29" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="36" t="s">
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="21" t="s">
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="24"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4" t="s">
         <v>109</v>
@@ -5631,11 +5615,11 @@
       <c r="BD29" s="30"/>
       <c r="BE29" s="31"/>
     </row>
-    <row r="30" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="26" t="s">
         <v>120</v>
       </c>
@@ -5644,18 +5628,18 @@
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="21" t="s">
+      <c r="J30" s="18"/>
+      <c r="K30" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
       <c r="Q30" s="33" t="s">
         <v>143</v>
       </c>
@@ -5668,21 +5652,21 @@
       <c r="X30" s="34"/>
       <c r="Y30" s="34"/>
       <c r="Z30" s="35"/>
-      <c r="AA30" s="21" t="s">
+      <c r="AA30" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="23"/>
-      <c r="AG30" s="21" t="s">
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AH30" s="22"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="24"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
       <c r="AN30" s="29"/>
@@ -5712,58 +5696,58 @@
       <c r="BD30" s="30"/>
       <c r="BE30" s="31"/>
     </row>
-    <row r="31" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="16" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="21" t="s">
+      <c r="J31" s="18"/>
+      <c r="K31" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="21" t="s">
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="21" t="s">
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="21" t="s">
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="24"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
       <c r="AN31" s="29"/>
@@ -5787,11 +5771,11 @@
       <c r="BD31" s="30"/>
       <c r="BE31" s="31"/>
     </row>
-    <row r="32" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="17"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="26" t="s">
         <v>93</v>
       </c>
@@ -5800,45 +5784,45 @@
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="21" t="s">
+      <c r="J32" s="18"/>
+      <c r="K32" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="21" t="s">
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="21" t="s">
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="23"/>
-      <c r="AG32" s="21" t="s">
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="24"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
       <c r="AN32" s="29"/>
@@ -5862,11 +5846,11 @@
       <c r="BD32" s="30"/>
       <c r="BE32" s="31"/>
     </row>
-    <row r="33" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="26" t="s">
         <v>94</v>
       </c>
@@ -5875,45 +5859,45 @@
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="21" t="s">
+      <c r="J33" s="18"/>
+      <c r="K33" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="21" t="s">
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="21" t="s">
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="23"/>
-      <c r="AG33" s="21" t="s">
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="24"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
       <c r="AN33" s="29"/>
@@ -5937,11 +5921,11 @@
       <c r="BD33" s="30"/>
       <c r="BE33" s="31"/>
     </row>
-    <row r="34" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="26" t="s">
         <v>95</v>
       </c>
@@ -5950,45 +5934,45 @@
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="21" t="s">
+      <c r="J34" s="18"/>
+      <c r="K34" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="21" t="s">
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="21" t="s">
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="23"/>
-      <c r="AG34" s="21" t="s">
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="24"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4"/>
       <c r="AN34" s="29"/>
@@ -6012,213 +5996,213 @@
       <c r="BD34" s="30"/>
       <c r="BE34" s="31"/>
     </row>
-    <row r="35" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="16" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="21" t="s">
+      <c r="J35" s="18"/>
+      <c r="K35" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="21" t="s">
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="21" t="s">
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="21" t="s">
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="24"/>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
-      <c r="AN35" s="24"/>
-      <c r="AO35" s="24"/>
-      <c r="AP35" s="24"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS35" s="24"/>
-      <c r="AT35" s="24"/>
-      <c r="AU35" s="24"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
       <c r="AV35" s="4"/>
       <c r="AW35" s="4"/>
-      <c r="AX35" s="24"/>
-      <c r="AY35" s="24"/>
-      <c r="AZ35" s="24"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
       <c r="BA35" s="4"/>
       <c r="BB35" s="4"/>
-      <c r="BC35" s="24"/>
-      <c r="BD35" s="24"/>
-      <c r="BE35" s="24"/>
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="16"/>
+      <c r="BE35" s="16"/>
     </row>
-    <row r="36" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="16" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="21" t="s">
+      <c r="J36" s="18"/>
+      <c r="K36" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="21" t="s">
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="21" t="s">
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="21" t="s">
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="24"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="16"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS36" s="24"/>
-      <c r="AT36" s="24"/>
-      <c r="AU36" s="24"/>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="16"/>
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
-      <c r="AX36" s="24"/>
-      <c r="AY36" s="24"/>
-      <c r="AZ36" s="24"/>
+      <c r="AX36" s="16"/>
+      <c r="AY36" s="16"/>
+      <c r="AZ36" s="16"/>
       <c r="BA36" s="4"/>
       <c r="BB36" s="4"/>
-      <c r="BC36" s="24"/>
-      <c r="BD36" s="24"/>
-      <c r="BE36" s="24"/>
+      <c r="BC36" s="16"/>
+      <c r="BD36" s="16"/>
+      <c r="BE36" s="16"/>
     </row>
-    <row r="37" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="16" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="21" t="s">
+      <c r="J37" s="18"/>
+      <c r="K37" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="21" t="s">
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="21" t="s">
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="21" t="s">
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="24"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="16"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4" t="s">
         <v>117</v>
@@ -6228,892 +6212,892 @@
       <c r="AU37" s="25"/>
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
-      <c r="AX37" s="24"/>
-      <c r="AY37" s="24"/>
-      <c r="AZ37" s="24"/>
+      <c r="AX37" s="16"/>
+      <c r="AY37" s="16"/>
+      <c r="AZ37" s="16"/>
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
-      <c r="BC37" s="24"/>
-      <c r="BD37" s="24"/>
-      <c r="BE37" s="24"/>
+      <c r="BC37" s="16"/>
+      <c r="BD37" s="16"/>
+      <c r="BE37" s="16"/>
     </row>
-    <row r="38" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="16" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="21" t="s">
+      <c r="J38" s="18"/>
+      <c r="K38" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="21" t="s">
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="21" t="s">
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="22" t="s">
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="24"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
-      <c r="AN38" s="24"/>
-      <c r="AO38" s="24"/>
-      <c r="AP38" s="24"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="16"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS38" s="24"/>
-      <c r="AT38" s="24"/>
-      <c r="AU38" s="24"/>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
-      <c r="AX38" s="24"/>
-      <c r="AY38" s="24"/>
-      <c r="AZ38" s="24"/>
+      <c r="AX38" s="16"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
-      <c r="BC38" s="24"/>
-      <c r="BD38" s="24"/>
-      <c r="BE38" s="24"/>
+      <c r="BC38" s="16"/>
+      <c r="BD38" s="16"/>
+      <c r="BE38" s="16"/>
     </row>
-    <row r="39" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="16" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="21" t="s">
+      <c r="J39" s="18"/>
+      <c r="K39" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="21" t="s">
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="21" t="s">
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="23"/>
-      <c r="AG39" s="22"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="24"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS39" s="24"/>
-      <c r="AT39" s="24"/>
-      <c r="AU39" s="24"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+      <c r="AU39" s="16"/>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
-      <c r="AX39" s="24"/>
-      <c r="AY39" s="24"/>
-      <c r="AZ39" s="24"/>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
-      <c r="BC39" s="24"/>
-      <c r="BD39" s="24"/>
-      <c r="BE39" s="24"/>
+      <c r="BC39" s="16"/>
+      <c r="BD39" s="16"/>
+      <c r="BE39" s="16"/>
     </row>
-    <row r="40" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="16" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="21" t="s">
+      <c r="J40" s="18"/>
+      <c r="K40" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="21" t="s">
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="21" t="s">
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="24"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
+      <c r="AN40" s="16"/>
+      <c r="AO40" s="16"/>
+      <c r="AP40" s="16"/>
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
-      <c r="AU40" s="24"/>
+      <c r="AS40" s="16"/>
+      <c r="AT40" s="16"/>
+      <c r="AU40" s="16"/>
       <c r="AV40" s="4"/>
       <c r="AW40" s="4"/>
-      <c r="AX40" s="24"/>
-      <c r="AY40" s="24"/>
-      <c r="AZ40" s="24"/>
+      <c r="AX40" s="16"/>
+      <c r="AY40" s="16"/>
+      <c r="AZ40" s="16"/>
       <c r="BA40" s="4"/>
       <c r="BB40" s="4"/>
-      <c r="BC40" s="24"/>
-      <c r="BD40" s="24"/>
-      <c r="BE40" s="24"/>
+      <c r="BC40" s="16"/>
+      <c r="BD40" s="16"/>
+      <c r="BE40" s="16"/>
     </row>
-    <row r="41" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="16" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="21" t="s">
+      <c r="J41" s="18"/>
+      <c r="K41" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="21" t="s">
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="21" t="s">
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="23"/>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="24"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="24"/>
-      <c r="AP41" s="24"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="16"/>
+      <c r="AP41" s="16"/>
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS41" s="24"/>
-      <c r="AT41" s="24"/>
-      <c r="AU41" s="24"/>
+      <c r="AS41" s="16"/>
+      <c r="AT41" s="16"/>
+      <c r="AU41" s="16"/>
       <c r="AV41" s="4"/>
       <c r="AW41" s="4"/>
-      <c r="AX41" s="24"/>
-      <c r="AY41" s="24"/>
-      <c r="AZ41" s="24"/>
+      <c r="AX41" s="16"/>
+      <c r="AY41" s="16"/>
+      <c r="AZ41" s="16"/>
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
-      <c r="BC41" s="24"/>
-      <c r="BD41" s="24"/>
-      <c r="BE41" s="24"/>
+      <c r="BC41" s="16"/>
+      <c r="BD41" s="16"/>
+      <c r="BE41" s="16"/>
     </row>
-    <row r="42" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="16" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="21" t="s">
+      <c r="J42" s="18"/>
+      <c r="K42" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="21" t="s">
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="21" t="s">
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="23"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="24"/>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="24"/>
-      <c r="AP42" s="24"/>
+      <c r="AN42" s="16"/>
+      <c r="AO42" s="16"/>
+      <c r="AP42" s="16"/>
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS42" s="24"/>
-      <c r="AT42" s="24"/>
-      <c r="AU42" s="24"/>
+      <c r="AS42" s="16"/>
+      <c r="AT42" s="16"/>
+      <c r="AU42" s="16"/>
       <c r="AV42" s="4"/>
       <c r="AW42" s="4"/>
-      <c r="AX42" s="24"/>
-      <c r="AY42" s="24"/>
-      <c r="AZ42" s="24"/>
+      <c r="AX42" s="16"/>
+      <c r="AY42" s="16"/>
+      <c r="AZ42" s="16"/>
       <c r="BA42" s="4"/>
       <c r="BB42" s="4"/>
-      <c r="BC42" s="24"/>
-      <c r="BD42" s="24"/>
-      <c r="BE42" s="24"/>
+      <c r="BC42" s="16"/>
+      <c r="BD42" s="16"/>
+      <c r="BE42" s="16"/>
     </row>
-    <row r="43" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="16" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="21" t="s">
+      <c r="J43" s="18"/>
+      <c r="K43" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="21" t="s">
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="21" t="s">
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="23"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="24"/>
       <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
-      <c r="AN43" s="24"/>
-      <c r="AO43" s="24"/>
-      <c r="AP43" s="24"/>
+      <c r="AN43" s="16"/>
+      <c r="AO43" s="16"/>
+      <c r="AP43" s="16"/>
       <c r="AQ43" s="4"/>
       <c r="AR43" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS43" s="24"/>
-      <c r="AT43" s="24"/>
-      <c r="AU43" s="24"/>
+      <c r="AS43" s="16"/>
+      <c r="AT43" s="16"/>
+      <c r="AU43" s="16"/>
       <c r="AV43" s="4"/>
       <c r="AW43" s="4"/>
-      <c r="AX43" s="24"/>
-      <c r="AY43" s="24"/>
-      <c r="AZ43" s="24"/>
+      <c r="AX43" s="16"/>
+      <c r="AY43" s="16"/>
+      <c r="AZ43" s="16"/>
       <c r="BA43" s="4"/>
       <c r="BB43" s="4"/>
-      <c r="BC43" s="24"/>
-      <c r="BD43" s="24"/>
-      <c r="BE43" s="24"/>
+      <c r="BC43" s="16"/>
+      <c r="BD43" s="16"/>
+      <c r="BE43" s="16"/>
     </row>
-    <row r="44" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="16" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="21" t="s">
+      <c r="J44" s="18"/>
+      <c r="K44" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="21" t="s">
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="21" t="s">
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="23"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="24"/>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4"/>
-      <c r="AN44" s="24"/>
-      <c r="AO44" s="24"/>
-      <c r="AP44" s="24"/>
+      <c r="AN44" s="16"/>
+      <c r="AO44" s="16"/>
+      <c r="AP44" s="16"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS44" s="24"/>
-      <c r="AT44" s="24"/>
-      <c r="AU44" s="24"/>
+      <c r="AS44" s="16"/>
+      <c r="AT44" s="16"/>
+      <c r="AU44" s="16"/>
       <c r="AV44" s="4"/>
       <c r="AW44" s="4"/>
-      <c r="AX44" s="24"/>
-      <c r="AY44" s="24"/>
-      <c r="AZ44" s="24"/>
+      <c r="AX44" s="16"/>
+      <c r="AY44" s="16"/>
+      <c r="AZ44" s="16"/>
       <c r="BA44" s="4"/>
       <c r="BB44" s="4"/>
-      <c r="BC44" s="24"/>
-      <c r="BD44" s="24"/>
-      <c r="BE44" s="24"/>
+      <c r="BC44" s="16"/>
+      <c r="BD44" s="16"/>
+      <c r="BE44" s="16"/>
     </row>
-    <row r="45" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="16" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J45" s="17"/>
-      <c r="K45" s="21" t="s">
+      <c r="J45" s="18"/>
+      <c r="K45" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="21" t="s">
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="21" t="s">
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="23"/>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="23"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="24"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
-      <c r="AN45" s="24"/>
-      <c r="AO45" s="24"/>
-      <c r="AP45" s="24"/>
+      <c r="AN45" s="16"/>
+      <c r="AO45" s="16"/>
+      <c r="AP45" s="16"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS45" s="24"/>
-      <c r="AT45" s="24"/>
-      <c r="AU45" s="24"/>
+      <c r="AS45" s="16"/>
+      <c r="AT45" s="16"/>
+      <c r="AU45" s="16"/>
       <c r="AV45" s="4"/>
       <c r="AW45" s="4"/>
-      <c r="AX45" s="24"/>
-      <c r="AY45" s="24"/>
-      <c r="AZ45" s="24"/>
+      <c r="AX45" s="16"/>
+      <c r="AY45" s="16"/>
+      <c r="AZ45" s="16"/>
       <c r="BA45" s="4"/>
       <c r="BB45" s="4"/>
-      <c r="BC45" s="24"/>
-      <c r="BD45" s="24"/>
-      <c r="BE45" s="24"/>
+      <c r="BC45" s="16"/>
+      <c r="BD45" s="16"/>
+      <c r="BE45" s="16"/>
     </row>
-    <row r="46" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="16" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="21" t="s">
+      <c r="J46" s="18"/>
+      <c r="K46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="21" t="s">
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="21" t="s">
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="23"/>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="22"/>
-      <c r="AI46" s="22"/>
-      <c r="AJ46" s="22"/>
-      <c r="AK46" s="23"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="24"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
+      <c r="AN46" s="16"/>
+      <c r="AO46" s="16"/>
+      <c r="AP46" s="16"/>
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS46" s="24"/>
-      <c r="AT46" s="24"/>
-      <c r="AU46" s="24"/>
+      <c r="AS46" s="16"/>
+      <c r="AT46" s="16"/>
+      <c r="AU46" s="16"/>
       <c r="AV46" s="4"/>
       <c r="AW46" s="4"/>
-      <c r="AX46" s="24"/>
-      <c r="AY46" s="24"/>
-      <c r="AZ46" s="24"/>
+      <c r="AX46" s="16"/>
+      <c r="AY46" s="16"/>
+      <c r="AZ46" s="16"/>
       <c r="BA46" s="4"/>
       <c r="BB46" s="4"/>
-      <c r="BC46" s="24"/>
-      <c r="BD46" s="24"/>
-      <c r="BE46" s="24"/>
+      <c r="BC46" s="16"/>
+      <c r="BD46" s="16"/>
+      <c r="BE46" s="16"/>
     </row>
-    <row r="47" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="16" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="21" t="s">
+      <c r="J47" s="18"/>
+      <c r="K47" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="21" t="s">
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="21" t="s">
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="23"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="24"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
+      <c r="AN47" s="16"/>
+      <c r="AO47" s="16"/>
+      <c r="AP47" s="16"/>
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AS47" s="24"/>
-      <c r="AT47" s="24"/>
-      <c r="AU47" s="24"/>
+      <c r="AS47" s="16"/>
+      <c r="AT47" s="16"/>
+      <c r="AU47" s="16"/>
       <c r="AV47" s="4"/>
       <c r="AW47" s="4"/>
-      <c r="AX47" s="24"/>
-      <c r="AY47" s="24"/>
-      <c r="AZ47" s="24"/>
+      <c r="AX47" s="16"/>
+      <c r="AY47" s="16"/>
+      <c r="AZ47" s="16"/>
       <c r="BA47" s="4"/>
       <c r="BB47" s="4"/>
-      <c r="BC47" s="24"/>
-      <c r="BD47" s="24"/>
-      <c r="BE47" s="24"/>
+      <c r="BC47" s="16"/>
+      <c r="BD47" s="16"/>
+      <c r="BE47" s="16"/>
     </row>
-    <row r="48" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="16" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="21" t="s">
+      <c r="J48" s="18"/>
+      <c r="K48" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="23"/>
-      <c r="AG48" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23"/>
+      <c r="AJ48" s="23"/>
+      <c r="AK48" s="24"/>
       <c r="AL48" s="4"/>
       <c r="AM48" s="4"/>
-      <c r="AN48" s="24"/>
-      <c r="AO48" s="24"/>
-      <c r="AP48" s="24"/>
+      <c r="AN48" s="16"/>
+      <c r="AO48" s="16"/>
+      <c r="AP48" s="16"/>
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
-      <c r="AS48" s="24"/>
-      <c r="AT48" s="24"/>
-      <c r="AU48" s="24"/>
+      <c r="AS48" s="16"/>
+      <c r="AT48" s="16"/>
+      <c r="AU48" s="16"/>
       <c r="AV48" s="4"/>
       <c r="AW48" s="4"/>
-      <c r="AX48" s="24"/>
-      <c r="AY48" s="24"/>
-      <c r="AZ48" s="24"/>
+      <c r="AX48" s="16"/>
+      <c r="AY48" s="16"/>
+      <c r="AZ48" s="16"/>
       <c r="BA48" s="4"/>
       <c r="BB48" s="4"/>
-      <c r="BC48" s="24"/>
-      <c r="BD48" s="24"/>
-      <c r="BE48" s="24"/>
+      <c r="BC48" s="16"/>
+      <c r="BD48" s="16"/>
+      <c r="BE48" s="16"/>
     </row>
-    <row r="49" spans="1:57" ht="108.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="23"/>
-      <c r="AG49" s="21" t="s">
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="23"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="24"/>
       <c r="AL49" s="4"/>
       <c r="AM49" s="4"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="16"/>
+      <c r="AP49" s="16"/>
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
-      <c r="AS49" s="24"/>
-      <c r="AT49" s="24"/>
-      <c r="AU49" s="24"/>
+      <c r="AS49" s="16"/>
+      <c r="AT49" s="16"/>
+      <c r="AU49" s="16"/>
       <c r="AV49" s="4"/>
       <c r="AW49" s="4"/>
-      <c r="AX49" s="24"/>
-      <c r="AY49" s="24"/>
-      <c r="AZ49" s="24"/>
+      <c r="AX49" s="16"/>
+      <c r="AY49" s="16"/>
+      <c r="AZ49" s="16"/>
       <c r="BA49" s="4"/>
       <c r="BB49" s="4"/>
-      <c r="BC49" s="24"/>
-      <c r="BD49" s="24"/>
-      <c r="BE49" s="24"/>
+      <c r="BC49" s="16"/>
+      <c r="BD49" s="16"/>
+      <c r="BE49" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="486">
@@ -7134,6 +7118,13 @@
     <mergeCell ref="AG34:AK34"/>
     <mergeCell ref="AN34:AP34"/>
     <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="AA32:AF32"/>
+    <mergeCell ref="K33:P33"/>
     <mergeCell ref="BC39:BE39"/>
     <mergeCell ref="AN9:AP9"/>
     <mergeCell ref="I8:J9"/>
@@ -7209,7 +7200,16 @@
     <mergeCell ref="AX19:AZ19"/>
     <mergeCell ref="AL8:AP8"/>
     <mergeCell ref="AG30:AK30"/>
-    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="AA39:AF39"/>
+    <mergeCell ref="AG39:AK39"/>
+    <mergeCell ref="AA38:AF38"/>
+    <mergeCell ref="AA35:AF35"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="AA36:AF36"/>
+    <mergeCell ref="AG36:AK36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I39:J39"/>
     <mergeCell ref="AG38:AK38"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="I38:J38"/>
@@ -7221,19 +7221,6 @@
     <mergeCell ref="K35:P35"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="AA39:AF39"/>
-    <mergeCell ref="AG39:AK39"/>
-    <mergeCell ref="AA38:AF38"/>
-    <mergeCell ref="AA35:AF35"/>
-    <mergeCell ref="Q35:Z35"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="AA36:AF36"/>
-    <mergeCell ref="AG36:AK36"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="C36:H36"/>
     <mergeCell ref="AA33:AF33"/>
     <mergeCell ref="BC10:BE10"/>
     <mergeCell ref="AG29:AK29"/>
@@ -7250,13 +7237,15 @@
     <mergeCell ref="AN31:AP31"/>
     <mergeCell ref="AG31:AK31"/>
     <mergeCell ref="AA31:AF31"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BC33:BE33"/>
     <mergeCell ref="AA30:AF30"/>
     <mergeCell ref="AN30:AP30"/>
-    <mergeCell ref="AA32:AF32"/>
     <mergeCell ref="AX10:AZ10"/>
     <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BC12:BE12"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="AA8:AK8"/>
     <mergeCell ref="AA9:AF9"/>
@@ -7290,8 +7279,6 @@
     <mergeCell ref="C41:H41"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="K41:P41"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K33:P33"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="Q32:Z32"/>
@@ -7302,6 +7289,8 @@
     <mergeCell ref="K36:P36"/>
     <mergeCell ref="Q36:Z36"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="Q39:Z39"/>
     <mergeCell ref="AS41:AU41"/>
     <mergeCell ref="AX41:AZ41"/>
     <mergeCell ref="BC41:BE41"/>
@@ -7390,7 +7379,6 @@
     <mergeCell ref="AS11:AU11"/>
     <mergeCell ref="AX11:AZ11"/>
     <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="BC28:BE28"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:H27"/>
@@ -7415,10 +7403,6 @@
     <mergeCell ref="AA23:AF23"/>
     <mergeCell ref="AG23:AK23"/>
     <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="BC12:BE12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>

--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="158">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -934,18 +934,6 @@
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>YunaNakanishi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.0.0.0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.0.0.2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1133,6 +1121,82 @@
     </rPh>
     <rPh sb="114" eb="116">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト実施</t>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>連絡先の表示名のみ表示される</t>
+    <rPh sb="0" eb="3">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.0.0.4を発行したが、発行後のバージョンが1.0.0.2だった</t>
+    <rPh sb="9" eb="11">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.0.0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中西 悠菜</t>
+    <rPh sb="0" eb="2">
+      <t>ナカニシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中西 悠菜</t>
+    <rPh sb="0" eb="2">
+      <t>ナカニシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1945,6 +2009,18 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1963,22 +2039,37 @@
     <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1987,30 +2078,6 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2020,24 +2087,102 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2047,21 +2192,9 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2127,75 +2260,6 @@
     </xf>
     <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2587,8 +2651,8 @@
   </sheetPr>
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4:AF4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2598,40 +2662,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -2639,38 +2703,38 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -2678,750 +2742,819 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="12" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="14"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="A4" s="13">
         <v>43097</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="6" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="A5" s="13">
         <v>43111</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="6" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="8"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="8"/>
+      <c r="A6" s="13">
+        <v>43115</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="12"/>
     </row>
     <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="8"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="12"/>
     </row>
     <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="8"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="8"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="8"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="8"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="8"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="8"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="8"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="8"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="8"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="8"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="8"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="8"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="12"/>
     </row>
     <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="8"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="8"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="8"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="8"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="G3:AB3"/>
-    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:AB23"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:AB21"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:AB19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -3430,78 +3563,11 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:AB4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:AB19"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:AB21"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:AB23"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="G3:AB3"/>
+    <mergeCell ref="A1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3517,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30:Z30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2:BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3541,550 +3607,560 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="64" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="31" t="s">
+      <c r="AP1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="68" t="s">
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="69"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="31" t="s">
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="55" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="41" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="63">
+        <v>42750</v>
+      </c>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD2" s="58"/>
+      <c r="BE2" s="58"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="41" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="88"/>
+      <c r="AP3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="58"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="41" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="67"/>
-      <c r="BD4" s="67"/>
-      <c r="BE4" s="67"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="67"/>
+      <c r="AS4" s="67"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="61"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="58"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="66"/>
-      <c r="AP5" s="41" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="67"/>
-      <c r="BD5" s="67"/>
-      <c r="BE5" s="67"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="60"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58"/>
     </row>
     <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="32" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="32" t="s">
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="32" t="s">
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="31" t="s">
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31" t="s">
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="31" t="s">
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="31"/>
-      <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="31" t="s">
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="31"/>
-      <c r="BC8" s="31"/>
-      <c r="BD8" s="31"/>
-      <c r="BE8" s="31"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
     </row>
     <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="68" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="78" t="s">
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="80"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="51"/>
       <c r="AL9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AM9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="31" t="s">
+      <c r="AN9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
       <c r="AQ9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="31" t="s">
+      <c r="AS9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
       <c r="AV9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX9" s="31" t="s">
+      <c r="AX9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="57"/>
       <c r="BA9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC9" s="31" t="s">
+      <c r="BC9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
+      <c r="BD9" s="57"/>
+      <c r="BE9" s="57"/>
     </row>
     <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="23" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="87" t="s">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="16"/>
@@ -4102,424 +4178,438 @@
       <c r="BE10" s="16"/>
     </row>
     <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="23" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="83" t="s">
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="25" t="s">
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="25" t="s">
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="27"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="24"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="30"/>
+      <c r="AM11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN11" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="28"/>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="30"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="31"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="30"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="31"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
-      <c r="BC11" s="28"/>
-      <c r="BD11" s="29"/>
-      <c r="BE11" s="30"/>
+      <c r="BC11" s="29"/>
+      <c r="BD11" s="30"/>
+      <c r="BE11" s="31"/>
     </row>
     <row r="12" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="25" t="s">
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="25" t="s">
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="25" t="s">
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="27"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="24"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="30"/>
+      <c r="AM12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="31"/>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="30"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="31"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="30"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="30"/>
+      <c r="AZ12" s="31"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="28"/>
-      <c r="BD12" s="29"/>
-      <c r="BE12" s="30"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="31"/>
     </row>
     <row r="13" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="23" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="25" t="s">
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="25" t="s">
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="25" t="s">
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="27"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="24"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="30"/>
+      <c r="AM13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="31"/>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="30"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="31"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="30"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="31"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
-      <c r="BC13" s="28"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="30"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="31"/>
     </row>
     <row r="14" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="23" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="25" t="s">
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="25" t="s">
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="25" t="s">
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="27"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="24"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="30"/>
+      <c r="AM14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="31"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="18"/>
-      <c r="AU14" s="19"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="28"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="29"/>
-      <c r="AZ14" s="30"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="31"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="29"/>
-      <c r="BE14" s="30"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="31"/>
     </row>
     <row r="15" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="23" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="25" t="s">
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="25" t="s">
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="25" t="s">
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="27"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="24"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="29"/>
-      <c r="AP15" s="30"/>
+      <c r="AM15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="31"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="29"/>
-      <c r="AU15" s="30"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="30"/>
+      <c r="AU15" s="31"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="29"/>
-      <c r="AZ15" s="30"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="30"/>
+      <c r="AZ15" s="31"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="29"/>
-      <c r="BE15" s="30"/>
+      <c r="BC15" s="29"/>
+      <c r="BD15" s="30"/>
+      <c r="BE15" s="31"/>
     </row>
     <row r="16" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="25" t="s">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="25" t="s">
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="25" t="s">
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="27"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="24"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
+      <c r="AM16" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN16" s="16"/>
       <c r="AO16" s="16"/>
       <c r="AP16" s="16"/>
@@ -4540,59 +4630,61 @@
       <c r="BE16" s="16"/>
     </row>
     <row r="17" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25" t="s">
+      <c r="J17" s="18"/>
+      <c r="K17" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="25" t="s">
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="25" t="s">
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="25" t="s">
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="27"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="24"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
+      <c r="AM17" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN17" s="16"/>
       <c r="AO17" s="16"/>
       <c r="AP17" s="16"/>
@@ -4613,67 +4705,69 @@
       <c r="BE17" s="16"/>
     </row>
     <row r="18" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25" t="s">
+      <c r="J18" s="18"/>
+      <c r="K18" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="25" t="s">
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="25" t="s">
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="25" t="s">
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="27"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="24"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
+      <c r="AM18" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN18" s="16"/>
       <c r="AO18" s="16"/>
       <c r="AP18" s="16"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="16"/>
@@ -4686,59 +4780,61 @@
       <c r="BE18" s="16"/>
     </row>
     <row r="19" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25" t="s">
+      <c r="J19" s="18"/>
+      <c r="K19" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="25" t="s">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="25" t="s">
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="26" t="s">
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="27"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="24"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
+      <c r="AM19" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN19" s="16"/>
       <c r="AO19" s="16"/>
       <c r="AP19" s="16"/>
@@ -4759,57 +4855,59 @@
       <c r="BE19" s="16"/>
     </row>
     <row r="20" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="25" t="s">
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="25" t="s">
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="27"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="24"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
+      <c r="AM20" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN20" s="16"/>
       <c r="AO20" s="16"/>
       <c r="AP20" s="16"/>
@@ -4830,57 +4928,59 @@
       <c r="BE20" s="16"/>
     </row>
     <row r="21" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25" t="s">
+      <c r="J21" s="18"/>
+      <c r="K21" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="25" t="s">
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="25" t="s">
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="27"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="24"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
+      <c r="AM21" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN21" s="16"/>
       <c r="AO21" s="16"/>
       <c r="AP21" s="16"/>
@@ -4901,57 +5001,59 @@
       <c r="BE21" s="16"/>
     </row>
     <row r="22" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="25" t="s">
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="25" t="s">
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="27"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="24"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
+      <c r="AM22" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN22" s="16"/>
       <c r="AO22" s="16"/>
       <c r="AP22" s="16"/>
@@ -4972,57 +5074,59 @@
       <c r="BE22" s="16"/>
     </row>
     <row r="23" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="25" t="s">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="25" t="s">
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="27"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="24"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
+      <c r="AM23" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN23" s="16"/>
       <c r="AO23" s="16"/>
       <c r="AP23" s="16"/>
@@ -5043,57 +5147,59 @@
       <c r="BE23" s="16"/>
     </row>
     <row r="24" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="25" t="s">
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="25" t="s">
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="27"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="24"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
+      <c r="AM24" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN24" s="16"/>
       <c r="AO24" s="16"/>
       <c r="AP24" s="16"/>
@@ -5114,57 +5220,59 @@
       <c r="BE24" s="16"/>
     </row>
     <row r="25" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25" t="s">
+      <c r="J25" s="18"/>
+      <c r="K25" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="25" t="s">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="25" t="s">
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="27"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="24"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
+      <c r="AM25" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN25" s="16"/>
       <c r="AO25" s="16"/>
       <c r="AP25" s="16"/>
@@ -5185,57 +5293,59 @@
       <c r="BE25" s="16"/>
     </row>
     <row r="26" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25" t="s">
+      <c r="J26" s="18"/>
+      <c r="K26" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="25" t="s">
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="25" t="s">
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="27"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="24"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
+      <c r="AM26" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN26" s="16"/>
       <c r="AO26" s="16"/>
       <c r="AP26" s="16"/>
@@ -5256,57 +5366,59 @@
       <c r="BE26" s="16"/>
     </row>
     <row r="27" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="25" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="25" t="s">
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="25" t="s">
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="27"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="24"/>
       <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
+      <c r="AM27" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN27" s="16"/>
       <c r="AO27" s="16"/>
       <c r="AP27" s="16"/>
@@ -5327,57 +5439,59 @@
       <c r="BE27" s="16"/>
     </row>
     <row r="28" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25" t="s">
+      <c r="J28" s="18"/>
+      <c r="K28" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="25" t="s">
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="25" t="s">
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="27"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="24"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
+      <c r="AM28" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN28" s="16"/>
       <c r="AO28" s="16"/>
       <c r="AP28" s="16"/>
@@ -5398,495 +5512,511 @@
       <c r="BE28" s="16"/>
     </row>
     <row r="29" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="23" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25" t="s">
+      <c r="J29" s="18"/>
+      <c r="K29" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="87" t="s">
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="18"/>
-      <c r="AP29" s="19"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="28"/>
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
-      <c r="AS29" s="17"/>
-      <c r="AT29" s="18"/>
-      <c r="AU29" s="19"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="28"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
-      <c r="AX29" s="17"/>
-      <c r="AY29" s="18"/>
-      <c r="AZ29" s="19"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="28"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
-      <c r="BC29" s="28"/>
-      <c r="BD29" s="29"/>
-      <c r="BE29" s="30"/>
+      <c r="BC29" s="29"/>
+      <c r="BD29" s="30"/>
+      <c r="BE29" s="31"/>
     </row>
     <row r="30" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="23" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25" t="s">
+      <c r="J30" s="18"/>
+      <c r="K30" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="83" t="s">
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="25" t="s">
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="25" t="s">
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="27"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="24"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="29"/>
-      <c r="AP30" s="30"/>
+      <c r="AM30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN30" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="28"/>
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="18"/>
-      <c r="AU30" s="19"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="28"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
-      <c r="AX30" s="17"/>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="19"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="28"/>
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
-      <c r="BC30" s="28"/>
-      <c r="BD30" s="29"/>
-      <c r="BE30" s="30"/>
+      <c r="BC30" s="29"/>
+      <c r="BD30" s="30"/>
+      <c r="BE30" s="31"/>
     </row>
     <row r="31" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="25" t="s">
+      <c r="J31" s="18"/>
+      <c r="K31" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="25" t="s">
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="25" t="s">
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="25" t="s">
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="27"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="24"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="29"/>
-      <c r="AP31" s="30"/>
+      <c r="AM31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="31"/>
       <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="29"/>
-      <c r="AU31" s="30"/>
+      <c r="AS31" s="29"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="31"/>
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
-      <c r="AX31" s="28"/>
-      <c r="AY31" s="29"/>
-      <c r="AZ31" s="30"/>
+      <c r="AX31" s="29"/>
+      <c r="AY31" s="30"/>
+      <c r="AZ31" s="31"/>
       <c r="BA31" s="4"/>
       <c r="BB31" s="4"/>
-      <c r="BC31" s="28"/>
-      <c r="BD31" s="29"/>
-      <c r="BE31" s="30"/>
+      <c r="BC31" s="29"/>
+      <c r="BD31" s="30"/>
+      <c r="BE31" s="31"/>
     </row>
     <row r="32" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="23" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="25" t="s">
+      <c r="J32" s="18"/>
+      <c r="K32" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="25" t="s">
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="25" t="s">
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="25" t="s">
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="27"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="24"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="30"/>
+      <c r="AM32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="31"/>
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="29"/>
-      <c r="AU32" s="30"/>
+      <c r="AS32" s="29"/>
+      <c r="AT32" s="30"/>
+      <c r="AU32" s="31"/>
       <c r="AV32" s="4"/>
       <c r="AW32" s="4"/>
-      <c r="AX32" s="28"/>
-      <c r="AY32" s="29"/>
-      <c r="AZ32" s="30"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="30"/>
+      <c r="AZ32" s="31"/>
       <c r="BA32" s="4"/>
       <c r="BB32" s="4"/>
-      <c r="BC32" s="28"/>
-      <c r="BD32" s="29"/>
-      <c r="BE32" s="30"/>
+      <c r="BC32" s="29"/>
+      <c r="BD32" s="30"/>
+      <c r="BE32" s="31"/>
     </row>
     <row r="33" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="23" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="24"/>
-      <c r="K33" s="25" t="s">
+      <c r="J33" s="18"/>
+      <c r="K33" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="25" t="s">
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="25" t="s">
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="25" t="s">
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="27"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="24"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="29"/>
-      <c r="AP33" s="30"/>
+      <c r="AM33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="30"/>
+      <c r="AP33" s="31"/>
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
-      <c r="AS33" s="28"/>
-      <c r="AT33" s="29"/>
-      <c r="AU33" s="30"/>
+      <c r="AS33" s="29"/>
+      <c r="AT33" s="30"/>
+      <c r="AU33" s="31"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="4"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="29"/>
-      <c r="AZ33" s="30"/>
+      <c r="AX33" s="29"/>
+      <c r="AY33" s="30"/>
+      <c r="AZ33" s="31"/>
       <c r="BA33" s="4"/>
       <c r="BB33" s="4"/>
-      <c r="BC33" s="28"/>
-      <c r="BD33" s="29"/>
-      <c r="BE33" s="30"/>
+      <c r="BC33" s="29"/>
+      <c r="BD33" s="30"/>
+      <c r="BE33" s="31"/>
     </row>
     <row r="34" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="23" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="25" t="s">
+      <c r="J34" s="18"/>
+      <c r="K34" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="25" t="s">
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="25" t="s">
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="25" t="s">
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="27"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="24"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="29"/>
-      <c r="AP34" s="30"/>
+      <c r="AM34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="31"/>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
-      <c r="AS34" s="28"/>
-      <c r="AT34" s="29"/>
-      <c r="AU34" s="30"/>
+      <c r="AS34" s="29"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="31"/>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="29"/>
-      <c r="AZ34" s="30"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="30"/>
+      <c r="AZ34" s="31"/>
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
-      <c r="BC34" s="28"/>
-      <c r="BD34" s="29"/>
-      <c r="BE34" s="30"/>
+      <c r="BC34" s="29"/>
+      <c r="BD34" s="30"/>
+      <c r="BE34" s="31"/>
     </row>
     <row r="35" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="25" t="s">
+      <c r="J35" s="18"/>
+      <c r="K35" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="25" t="s">
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="25" t="s">
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="25" t="s">
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="27"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="24"/>
       <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
+      <c r="AM35" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN35" s="16"/>
       <c r="AO35" s="16"/>
       <c r="AP35" s="16"/>
@@ -5907,59 +6037,61 @@
       <c r="BE35" s="16"/>
     </row>
     <row r="36" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="25" t="s">
+      <c r="J36" s="18"/>
+      <c r="K36" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="25" t="s">
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="25" t="s">
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="25" t="s">
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="27"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="24"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
+      <c r="AM36" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN36" s="16"/>
       <c r="AO36" s="16"/>
       <c r="AP36" s="16"/>
@@ -5980,67 +6112,69 @@
       <c r="BE36" s="16"/>
     </row>
     <row r="37" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="25" t="s">
+      <c r="J37" s="18"/>
+      <c r="K37" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="25" t="s">
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="25" t="s">
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="25" t="s">
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="27"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="24"/>
       <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
+      <c r="AM37" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN37" s="16"/>
       <c r="AO37" s="16"/>
       <c r="AP37" s="16"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
-      <c r="AS37" s="71"/>
-      <c r="AT37" s="71"/>
-      <c r="AU37" s="71"/>
+      <c r="AS37" s="25"/>
+      <c r="AT37" s="25"/>
+      <c r="AU37" s="25"/>
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
       <c r="AX37" s="16"/>
@@ -6053,59 +6187,61 @@
       <c r="BE37" s="16"/>
     </row>
     <row r="38" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="25" t="s">
+      <c r="J38" s="18"/>
+      <c r="K38" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="25" t="s">
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="25" t="s">
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="26" t="s">
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="27"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="24"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
+      <c r="AM38" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN38" s="16"/>
       <c r="AO38" s="16"/>
       <c r="AP38" s="16"/>
@@ -6126,57 +6262,59 @@
       <c r="BE38" s="16"/>
     </row>
     <row r="39" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25" t="s">
+      <c r="J39" s="18"/>
+      <c r="K39" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="25" t="s">
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="25" t="s">
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="27"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="24"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
+      <c r="AM39" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN39" s="16"/>
       <c r="AO39" s="16"/>
       <c r="AP39" s="16"/>
@@ -6197,57 +6335,59 @@
       <c r="BE39" s="16"/>
     </row>
     <row r="40" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="25" t="s">
+      <c r="J40" s="18"/>
+      <c r="K40" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="25" t="s">
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="25" t="s">
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="27"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="24"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
+      <c r="AM40" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN40" s="16"/>
       <c r="AO40" s="16"/>
       <c r="AP40" s="16"/>
@@ -6268,57 +6408,59 @@
       <c r="BE40" s="16"/>
     </row>
     <row r="41" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="25" t="s">
+      <c r="J41" s="18"/>
+      <c r="K41" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="25" t="s">
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="25" t="s">
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="27"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="24"/>
       <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
+      <c r="AM41" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN41" s="16"/>
       <c r="AO41" s="16"/>
       <c r="AP41" s="16"/>
@@ -6339,57 +6481,59 @@
       <c r="BE41" s="16"/>
     </row>
     <row r="42" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="25" t="s">
+      <c r="J42" s="18"/>
+      <c r="K42" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="25" t="s">
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="25" t="s">
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="27"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="23"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="24"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
+      <c r="AM42" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN42" s="16"/>
       <c r="AO42" s="16"/>
       <c r="AP42" s="16"/>
@@ -6410,57 +6554,59 @@
       <c r="BE42" s="16"/>
     </row>
     <row r="43" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="24"/>
-      <c r="K43" s="25" t="s">
+      <c r="J43" s="18"/>
+      <c r="K43" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="25" t="s">
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="25" t="s">
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="27"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="23"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="24"/>
       <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
+      <c r="AM43" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN43" s="16"/>
       <c r="AO43" s="16"/>
       <c r="AP43" s="16"/>
@@ -6481,57 +6627,59 @@
       <c r="BE43" s="16"/>
     </row>
     <row r="44" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="25" t="s">
+      <c r="J44" s="18"/>
+      <c r="K44" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="25" t="s">
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="25" t="s">
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="27"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="24"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
+      <c r="AM44" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN44" s="16"/>
       <c r="AO44" s="16"/>
       <c r="AP44" s="16"/>
@@ -6552,57 +6700,59 @@
       <c r="BE44" s="16"/>
     </row>
     <row r="45" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J45" s="24"/>
-      <c r="K45" s="25" t="s">
+      <c r="J45" s="18"/>
+      <c r="K45" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="25" t="s">
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="25" t="s">
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="27"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="27"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="24"/>
       <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
+      <c r="AM45" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN45" s="16"/>
       <c r="AO45" s="16"/>
       <c r="AP45" s="16"/>
@@ -6623,57 +6773,59 @@
       <c r="BE45" s="16"/>
     </row>
     <row r="46" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="20" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="24"/>
-      <c r="K46" s="25" t="s">
+      <c r="J46" s="18"/>
+      <c r="K46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="25" t="s">
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="25" t="s">
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="27"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="24"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
+      <c r="AM46" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN46" s="16"/>
       <c r="AO46" s="16"/>
       <c r="AP46" s="16"/>
@@ -6694,57 +6846,59 @@
       <c r="BE46" s="16"/>
     </row>
     <row r="47" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J47" s="24"/>
-      <c r="K47" s="25" t="s">
+      <c r="J47" s="18"/>
+      <c r="K47" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="25" t="s">
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="25" t="s">
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="27"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="24"/>
       <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
+      <c r="AM47" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN47" s="16"/>
       <c r="AO47" s="16"/>
       <c r="AP47" s="16"/>
@@ -6765,60 +6919,64 @@
       <c r="BE47" s="16"/>
     </row>
     <row r="48" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="20" t="s">
+      <c r="A48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23"/>
+      <c r="AJ48" s="23"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J48" s="24"/>
-      <c r="K48" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="27"/>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
-      <c r="AN48" s="16"/>
+      <c r="AN48" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="AO48" s="16"/>
       <c r="AP48" s="16"/>
       <c r="AQ48" s="4"/>
@@ -6838,59 +6996,61 @@
       <c r="BE48" s="16"/>
     </row>
     <row r="49" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23" t="s">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="25" t="s">
+      <c r="J49" s="18"/>
+      <c r="K49" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="25" t="s">
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="27"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="24"/>
       <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
+      <c r="AM49" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AN49" s="16"/>
       <c r="AO49" s="16"/>
       <c r="AP49" s="16"/>
@@ -6912,28 +7072,446 @@
     </row>
   </sheetData>
   <mergeCells count="486">
-    <mergeCell ref="AX48:AZ48"/>
-    <mergeCell ref="BC48:BE48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:P49"/>
-    <mergeCell ref="Q49:Z49"/>
-    <mergeCell ref="AA49:AF49"/>
-    <mergeCell ref="AG49:AK49"/>
-    <mergeCell ref="AN49:AP49"/>
-    <mergeCell ref="AS49:AU49"/>
-    <mergeCell ref="AX49:AZ49"/>
-    <mergeCell ref="BC49:BE49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:P48"/>
-    <mergeCell ref="Q48:Z48"/>
-    <mergeCell ref="AA48:AF48"/>
-    <mergeCell ref="AG48:AK48"/>
-    <mergeCell ref="AN48:AP48"/>
-    <mergeCell ref="AS48:AU48"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="BC37:BE37"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="AA37:AF37"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="BC36:BE36"/>
+    <mergeCell ref="Q34:Z34"/>
+    <mergeCell ref="AA34:AF34"/>
+    <mergeCell ref="AG34:AK34"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="AA32:AF32"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="BC39:BE39"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="AS39:AU39"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BC32:BE32"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="BC34:BE34"/>
+    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="BC35:BE35"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AG33:AK33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AS35:AU35"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="D1:AN1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:AN5"/>
+    <mergeCell ref="AO1:AO5"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AS38:AU38"/>
+    <mergeCell ref="AG35:AK35"/>
+    <mergeCell ref="AN35:AP35"/>
+    <mergeCell ref="AG32:AK32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG30:AK30"/>
+    <mergeCell ref="AA39:AF39"/>
+    <mergeCell ref="AG39:AK39"/>
+    <mergeCell ref="AA38:AF38"/>
+    <mergeCell ref="AA35:AF35"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="AA36:AF36"/>
+    <mergeCell ref="AG36:AK36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="AG38:AK38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="AA33:AF33"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="AG29:AK29"/>
+    <mergeCell ref="AN29:AP29"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="BC31:BE31"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AS30:AU30"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AN31:AP31"/>
+    <mergeCell ref="AG31:AK31"/>
+    <mergeCell ref="AA31:AF31"/>
+    <mergeCell ref="AA30:AF30"/>
+    <mergeCell ref="AN30:AP30"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="AA8:AK8"/>
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="AA29:AF29"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="Q8:Z9"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="Q31:Z31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="Q29:Z29"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="BC41:BE41"/>
+    <mergeCell ref="AG40:AK40"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="AS40:AU40"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="BC40:BE40"/>
+    <mergeCell ref="Q41:Z41"/>
+    <mergeCell ref="AA40:AF40"/>
+    <mergeCell ref="AA41:AF41"/>
+    <mergeCell ref="AG41:AK41"/>
+    <mergeCell ref="AN41:AP41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="Q42:Z42"/>
+    <mergeCell ref="BC42:BE42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="AS42:AU42"/>
+    <mergeCell ref="AX42:AZ42"/>
+    <mergeCell ref="AA42:AF42"/>
+    <mergeCell ref="AG42:AK42"/>
+    <mergeCell ref="AN42:AP42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="Q43:Z43"/>
+    <mergeCell ref="BC44:BE44"/>
+    <mergeCell ref="AG43:AK43"/>
+    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="AS43:AU43"/>
+    <mergeCell ref="AX43:AZ43"/>
+    <mergeCell ref="BC43:BE43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:P44"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="AX44:AZ44"/>
+    <mergeCell ref="AA43:AF43"/>
+    <mergeCell ref="AA44:AF44"/>
+    <mergeCell ref="AG44:AK44"/>
+    <mergeCell ref="AN44:AP44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:P45"/>
+    <mergeCell ref="Q45:Z45"/>
+    <mergeCell ref="AG45:AK45"/>
+    <mergeCell ref="AN45:AP45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="Q44:Z44"/>
+    <mergeCell ref="AA45:AF45"/>
+    <mergeCell ref="BC46:BE46"/>
+    <mergeCell ref="AG47:AK47"/>
+    <mergeCell ref="AN47:AP47"/>
+    <mergeCell ref="AS47:AU47"/>
+    <mergeCell ref="AX47:AZ47"/>
+    <mergeCell ref="BC47:BE47"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BC45:BE45"/>
+    <mergeCell ref="AS46:AU46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="AA46:AF46"/>
+    <mergeCell ref="AG46:AK46"/>
+    <mergeCell ref="AN46:AP46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:P47"/>
+    <mergeCell ref="Q47:Z47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:P46"/>
+    <mergeCell ref="Q46:Z46"/>
+    <mergeCell ref="AA47:AF47"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="AA11:AF11"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="Q27:Z27"/>
+    <mergeCell ref="AA27:AF27"/>
+    <mergeCell ref="AG27:AK27"/>
+    <mergeCell ref="AN27:AP27"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="AA13:AF13"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AN13:AP13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="Q28:Z28"/>
+    <mergeCell ref="AA28:AF28"/>
+    <mergeCell ref="AG28:AK28"/>
+    <mergeCell ref="AN28:AP28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BC16:BE16"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="BC20:BE20"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="AA24:AF24"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="AA26:AF26"/>
+    <mergeCell ref="AG26:AK26"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="BC26:BE26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="AA25:AF25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AN25:AP25"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="AA15:AF15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="K17:P17"/>
     <mergeCell ref="Q17:Z17"/>
@@ -6958,453 +7536,35 @@
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="Q12:Z12"/>
     <mergeCell ref="AA12:AF12"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="AA15:AF15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="AA16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:Z22"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="BC25:BE25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:Z26"/>
-    <mergeCell ref="AA26:AF26"/>
-    <mergeCell ref="AG26:AK26"/>
-    <mergeCell ref="AN26:AP26"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="BC26:BE26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:Z25"/>
-    <mergeCell ref="AA25:AF25"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="AN25:AP25"/>
-    <mergeCell ref="AS25:AU25"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="AA24:AF24"/>
-    <mergeCell ref="AG24:AK24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="BC20:BE20"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="BC27:BE27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="Q28:Z28"/>
-    <mergeCell ref="AA28:AF28"/>
-    <mergeCell ref="AG28:AK28"/>
-    <mergeCell ref="AN28:AP28"/>
-    <mergeCell ref="AS28:AU28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="Q27:Z27"/>
-    <mergeCell ref="AA27:AF27"/>
-    <mergeCell ref="AG27:AK27"/>
-    <mergeCell ref="AN27:AP27"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AN13:AP13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:Z23"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="AA11:AF11"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="AA46:AF46"/>
-    <mergeCell ref="AG46:AK46"/>
-    <mergeCell ref="AN46:AP46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:P47"/>
-    <mergeCell ref="Q47:Z47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:P46"/>
-    <mergeCell ref="Q46:Z46"/>
-    <mergeCell ref="AA47:AF47"/>
-    <mergeCell ref="BC46:BE46"/>
-    <mergeCell ref="AG47:AK47"/>
-    <mergeCell ref="AN47:AP47"/>
-    <mergeCell ref="AS47:AU47"/>
-    <mergeCell ref="AX47:AZ47"/>
-    <mergeCell ref="BC47:BE47"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BC45:BE45"/>
-    <mergeCell ref="AS46:AU46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:P45"/>
-    <mergeCell ref="Q45:Z45"/>
-    <mergeCell ref="AG45:AK45"/>
-    <mergeCell ref="AN45:AP45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="Q44:Z44"/>
-    <mergeCell ref="AA45:AF45"/>
-    <mergeCell ref="BC44:BE44"/>
-    <mergeCell ref="AG43:AK43"/>
-    <mergeCell ref="AN43:AP43"/>
-    <mergeCell ref="AS43:AU43"/>
-    <mergeCell ref="AX43:AZ43"/>
-    <mergeCell ref="BC43:BE43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:P44"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="AX44:AZ44"/>
-    <mergeCell ref="AA43:AF43"/>
-    <mergeCell ref="AA44:AF44"/>
-    <mergeCell ref="AG44:AK44"/>
-    <mergeCell ref="AN44:AP44"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K43:P43"/>
-    <mergeCell ref="Q42:Z42"/>
-    <mergeCell ref="BC42:BE42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="AS42:AU42"/>
-    <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="AA42:AF42"/>
-    <mergeCell ref="AG42:AK42"/>
-    <mergeCell ref="AN42:AP42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="Q43:Z43"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="AX41:AZ41"/>
-    <mergeCell ref="BC41:BE41"/>
-    <mergeCell ref="AG40:AK40"/>
-    <mergeCell ref="AN40:AP40"/>
-    <mergeCell ref="AS40:AU40"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="BC40:BE40"/>
-    <mergeCell ref="Q41:Z41"/>
-    <mergeCell ref="AA40:AF40"/>
-    <mergeCell ref="AA41:AF41"/>
-    <mergeCell ref="AG41:AK41"/>
-    <mergeCell ref="AN41:AP41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:P41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="Q31:Z31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="Q29:Z29"/>
-    <mergeCell ref="Q30:Z30"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="BC28:BE28"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="AA8:AK8"/>
-    <mergeCell ref="AA9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="AA29:AF29"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="Q8:Z9"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="AA33:AF33"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="AG29:AK29"/>
-    <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="AS29:AU29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BC29:BE29"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="BC31:BE31"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AS30:AU30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AN31:AP31"/>
-    <mergeCell ref="AG31:AK31"/>
-    <mergeCell ref="AA31:AF31"/>
-    <mergeCell ref="AA30:AF30"/>
-    <mergeCell ref="AN30:AP30"/>
-    <mergeCell ref="AA39:AF39"/>
-    <mergeCell ref="AG39:AK39"/>
-    <mergeCell ref="AA38:AF38"/>
-    <mergeCell ref="AA35:AF35"/>
-    <mergeCell ref="Q35:Z35"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="AA36:AF36"/>
-    <mergeCell ref="AG36:AK36"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="AG38:AK38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AS38:AU38"/>
-    <mergeCell ref="AG35:AK35"/>
-    <mergeCell ref="AN35:AP35"/>
-    <mergeCell ref="AG32:AK32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="AS27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG30:AK30"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="D1:AN1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="D2:AN5"/>
-    <mergeCell ref="AO1:AO5"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="BC39:BE39"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AN39:AP39"/>
-    <mergeCell ref="AS39:AU39"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BC32:BE32"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="BC34:BE34"/>
-    <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="BC35:BE35"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AG33:AK33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="BC37:BE37"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="AA37:AF37"/>
-    <mergeCell ref="AN37:AP37"/>
-    <mergeCell ref="BC36:BE36"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="AA34:AF34"/>
-    <mergeCell ref="AG34:AK34"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AS34:AU34"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BC33:BE33"/>
-    <mergeCell ref="AA32:AF32"/>
-    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="AX48:AZ48"/>
+    <mergeCell ref="BC48:BE48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:P49"/>
+    <mergeCell ref="Q49:Z49"/>
+    <mergeCell ref="AA49:AF49"/>
+    <mergeCell ref="AG49:AK49"/>
+    <mergeCell ref="AN49:AP49"/>
+    <mergeCell ref="AS49:AU49"/>
+    <mergeCell ref="AX49:AZ49"/>
+    <mergeCell ref="BC49:BE49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:P48"/>
+    <mergeCell ref="Q48:Z48"/>
+    <mergeCell ref="AA48:AF48"/>
+    <mergeCell ref="AG48:AK48"/>
+    <mergeCell ref="AN48:AP48"/>
+    <mergeCell ref="AS48:AU48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J49">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ10:AR49 AV10:AW49 AL10:AM49 BA10:BB49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ10:AR49 AV10:AW49 BA10:BB49 AL10:AM49">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7418,12 +7578,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7606,15 +7763,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7639,10 +7800,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="157">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -1164,10 +1164,6 @@
     <rPh sb="17" eb="18">
       <t>ゴ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.0.0.1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2009,6 +2005,24 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2021,42 +2035,33 @@
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2066,200 +2071,191 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2651,7 +2647,7 @@
   </sheetPr>
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
@@ -2662,40 +2658,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -2703,38 +2699,38 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -2742,747 +2738,824 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="6" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="8"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="14"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
+      <c r="A4" s="9">
         <v>43097</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="12"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>43111</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="12"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="A6" s="9">
         <v>43115</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="12"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
     </row>
     <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
     </row>
     <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="12"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
     </row>
     <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="12"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
     </row>
     <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="12"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="12"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="G3:AB3"/>
+    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:AB4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:AB19"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:AB21"/>
     <mergeCell ref="AC23:AF23"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:F22"/>
@@ -3491,83 +3564,6 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:AB23"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:AB21"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:AB19"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:AB4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="G3:AB3"/>
-    <mergeCell ref="A1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3583,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2:BB2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3607,562 +3603,568 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="87" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="57" t="s">
+      <c r="AP1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57" t="s">
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57" t="s">
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="46" t="s">
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="57" t="s">
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="67" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="62" t="s">
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="40">
+        <v>42750</v>
+      </c>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="63">
-        <v>42750</v>
-      </c>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="59" t="s">
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="58"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="67" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="40">
+        <v>42750</v>
+      </c>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="83"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="67" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="67"/>
+      <c r="BD4" s="67"/>
+      <c r="BE4" s="67"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="67" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="63"/>
-      <c r="AY5" s="63"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="60"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="67"/>
     </row>
     <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="43" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="43" t="s">
+      <c r="J8" s="33"/>
+      <c r="K8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="43" t="s">
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="43" t="s">
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="57" t="s">
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57" t="s">
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57" t="s">
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57" t="s">
+      <c r="AW8" s="31"/>
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="31"/>
+      <c r="AZ8" s="31"/>
+      <c r="BA8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
+      <c r="BB8" s="31"/>
+      <c r="BC8" s="31"/>
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="31"/>
     </row>
     <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="46" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="49" t="s">
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="51"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="80"/>
       <c r="AL9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AM9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="57" t="s">
+      <c r="AN9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
       <c r="AQ9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="57" t="s">
+      <c r="AS9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
       <c r="AV9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX9" s="57" t="s">
+      <c r="AX9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="57"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
       <c r="BA9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC9" s="57" t="s">
+      <c r="BC9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="BD9" s="57"/>
-      <c r="BE9" s="57"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
     </row>
     <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="17" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="22" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="36" t="s">
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="22" t="s">
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="24"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="27"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
       <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
+      <c r="AR10" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS10" s="16"/>
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
@@ -4178,434 +4180,444 @@
       <c r="BE10" s="16"/>
     </row>
     <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="17" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="22" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="33" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="22" t="s">
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="22" t="s">
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="24"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="27"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AN11" s="26" t="s">
+      <c r="AN11" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="28"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="19"/>
       <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="31"/>
+      <c r="AR11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="30"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="31"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="30"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="30"/>
-      <c r="BE11" s="31"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="29"/>
+      <c r="BE11" s="30"/>
     </row>
     <row r="12" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="17" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="22" t="s">
+      <c r="J12" s="24"/>
+      <c r="K12" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="22" t="s">
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="22" t="s">
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="22" t="s">
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="24"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="27"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="31"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="30"/>
       <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="30"/>
-      <c r="AU12" s="31"/>
+      <c r="AR12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="30"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="30"/>
-      <c r="AZ12" s="31"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="30"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="30"/>
-      <c r="BE12" s="31"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="29"/>
+      <c r="BE12" s="30"/>
     </row>
     <row r="13" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="17" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="22" t="s">
+      <c r="J13" s="24"/>
+      <c r="K13" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="22" t="s">
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="22" t="s">
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="22" t="s">
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="24"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="27"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="31"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="30"/>
       <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="31"/>
+      <c r="AR13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="30"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="30"/>
-      <c r="AZ13" s="31"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="30"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="30"/>
-      <c r="BE13" s="31"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="30"/>
     </row>
     <row r="14" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="17" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="22" t="s">
+      <c r="J14" s="24"/>
+      <c r="K14" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="22" t="s">
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="22" t="s">
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="22" t="s">
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="24"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="27"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="31"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="30"/>
       <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="28"/>
+      <c r="AR14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS14" s="89"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="19"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
-      <c r="AX14" s="29"/>
-      <c r="AY14" s="30"/>
-      <c r="AZ14" s="31"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="30"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
-      <c r="BC14" s="29"/>
-      <c r="BD14" s="30"/>
-      <c r="BE14" s="31"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="30"/>
     </row>
     <row r="15" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="17" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="22" t="s">
+      <c r="J15" s="24"/>
+      <c r="K15" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="22" t="s">
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="22" t="s">
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="22" t="s">
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="24"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="27"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="31"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="30"/>
       <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="29"/>
-      <c r="AT15" s="30"/>
-      <c r="AU15" s="31"/>
+      <c r="AR15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="30"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
-      <c r="AX15" s="29"/>
-      <c r="AY15" s="30"/>
-      <c r="AZ15" s="31"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="30"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
-      <c r="BC15" s="29"/>
-      <c r="BD15" s="30"/>
-      <c r="BE15" s="31"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="29"/>
+      <c r="BE15" s="30"/>
     </row>
     <row r="16" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="17" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="22" t="s">
+      <c r="J16" s="24"/>
+      <c r="K16" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="22" t="s">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="22" t="s">
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="22" t="s">
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="24"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="27"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4" t="s">
         <v>151</v>
@@ -4614,7 +4626,9 @@
       <c r="AO16" s="16"/>
       <c r="AP16" s="16"/>
       <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
+      <c r="AR16" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS16" s="16"/>
       <c r="AT16" s="16"/>
       <c r="AU16" s="16"/>
@@ -4630,57 +4644,57 @@
       <c r="BE16" s="16"/>
     </row>
     <row r="17" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="17" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="22" t="s">
+      <c r="J17" s="24"/>
+      <c r="K17" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="22" t="s">
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="22" t="s">
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="22" t="s">
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="24"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="27"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4" t="s">
         <v>151</v>
@@ -4689,7 +4703,9 @@
       <c r="AO17" s="16"/>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
+      <c r="AR17" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS17" s="16"/>
       <c r="AT17" s="16"/>
       <c r="AU17" s="16"/>
@@ -4705,57 +4721,57 @@
       <c r="BE17" s="16"/>
     </row>
     <row r="18" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="17" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="22" t="s">
+      <c r="J18" s="24"/>
+      <c r="K18" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="22" t="s">
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="22" t="s">
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="22" t="s">
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="24"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="27"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4" t="s">
         <v>151</v>
@@ -4764,10 +4780,12 @@
       <c r="AO18" s="16"/>
       <c r="AP18" s="16"/>
       <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="25"/>
-      <c r="AU18" s="25"/>
+      <c r="AR18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="16"/>
@@ -4780,57 +4798,57 @@
       <c r="BE18" s="16"/>
     </row>
     <row r="19" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="17" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="22" t="s">
+      <c r="J19" s="24"/>
+      <c r="K19" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="22" t="s">
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="22" t="s">
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="23" t="s">
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="24"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="27"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4" t="s">
         <v>151</v>
@@ -4839,7 +4857,9 @@
       <c r="AO19" s="16"/>
       <c r="AP19" s="16"/>
       <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
+      <c r="AR19" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS19" s="16"/>
       <c r="AT19" s="16"/>
       <c r="AU19" s="16"/>
@@ -4855,55 +4875,55 @@
       <c r="BE19" s="16"/>
     </row>
     <row r="20" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="17" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="22" t="s">
+      <c r="J20" s="24"/>
+      <c r="K20" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="22" t="s">
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="22" t="s">
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="24"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="27"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4" t="s">
         <v>151</v>
@@ -4912,7 +4932,9 @@
       <c r="AO20" s="16"/>
       <c r="AP20" s="16"/>
       <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
+      <c r="AR20" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS20" s="16"/>
       <c r="AT20" s="16"/>
       <c r="AU20" s="16"/>
@@ -4928,55 +4950,55 @@
       <c r="BE20" s="16"/>
     </row>
     <row r="21" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="17" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="22" t="s">
+      <c r="J21" s="24"/>
+      <c r="K21" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="22" t="s">
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="22" t="s">
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="24"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="27"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4" t="s">
         <v>151</v>
@@ -4985,7 +5007,9 @@
       <c r="AO21" s="16"/>
       <c r="AP21" s="16"/>
       <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
+      <c r="AR21" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS21" s="16"/>
       <c r="AT21" s="16"/>
       <c r="AU21" s="16"/>
@@ -5001,55 +5025,55 @@
       <c r="BE21" s="16"/>
     </row>
     <row r="22" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="17" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="22" t="s">
+      <c r="J22" s="24"/>
+      <c r="K22" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="22" t="s">
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="22" t="s">
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="24"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="27"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4" t="s">
         <v>151</v>
@@ -5058,7 +5082,9 @@
       <c r="AO22" s="16"/>
       <c r="AP22" s="16"/>
       <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
+      <c r="AR22" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS22" s="16"/>
       <c r="AT22" s="16"/>
       <c r="AU22" s="16"/>
@@ -5074,55 +5100,55 @@
       <c r="BE22" s="16"/>
     </row>
     <row r="23" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="17" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="22" t="s">
+      <c r="J23" s="24"/>
+      <c r="K23" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="22" t="s">
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="22" t="s">
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="24"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="27"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4" t="s">
         <v>151</v>
@@ -5131,7 +5157,9 @@
       <c r="AO23" s="16"/>
       <c r="AP23" s="16"/>
       <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
+      <c r="AR23" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS23" s="16"/>
       <c r="AT23" s="16"/>
       <c r="AU23" s="16"/>
@@ -5147,55 +5175,55 @@
       <c r="BE23" s="16"/>
     </row>
     <row r="24" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="17" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="22" t="s">
+      <c r="J24" s="24"/>
+      <c r="K24" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="22" t="s">
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="22" t="s">
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="24"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="27"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4" t="s">
         <v>151</v>
@@ -5204,7 +5232,9 @@
       <c r="AO24" s="16"/>
       <c r="AP24" s="16"/>
       <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
+      <c r="AR24" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS24" s="16"/>
       <c r="AT24" s="16"/>
       <c r="AU24" s="16"/>
@@ -5220,55 +5250,55 @@
       <c r="BE24" s="16"/>
     </row>
     <row r="25" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="17" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="22" t="s">
+      <c r="J25" s="24"/>
+      <c r="K25" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="22" t="s">
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="22" t="s">
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="24"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="27"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4" t="s">
         <v>151</v>
@@ -5277,7 +5307,9 @@
       <c r="AO25" s="16"/>
       <c r="AP25" s="16"/>
       <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
+      <c r="AR25" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS25" s="16"/>
       <c r="AT25" s="16"/>
       <c r="AU25" s="16"/>
@@ -5293,55 +5325,55 @@
       <c r="BE25" s="16"/>
     </row>
     <row r="26" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="17" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="22" t="s">
+      <c r="J26" s="24"/>
+      <c r="K26" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="22" t="s">
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="22" t="s">
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="23"/>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="24"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="27"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4" t="s">
         <v>151</v>
@@ -5350,7 +5382,9 @@
       <c r="AO26" s="16"/>
       <c r="AP26" s="16"/>
       <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
+      <c r="AR26" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS26" s="16"/>
       <c r="AT26" s="16"/>
       <c r="AU26" s="16"/>
@@ -5366,55 +5400,55 @@
       <c r="BE26" s="16"/>
     </row>
     <row r="27" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="17" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="22" t="s">
+      <c r="J27" s="24"/>
+      <c r="K27" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="22" t="s">
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="22" t="s">
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-      <c r="AE27" s="23"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="23"/>
-      <c r="AK27" s="24"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="27"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4" t="s">
         <v>151</v>
@@ -5423,7 +5457,9 @@
       <c r="AO27" s="16"/>
       <c r="AP27" s="16"/>
       <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
+      <c r="AR27" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS27" s="16"/>
       <c r="AT27" s="16"/>
       <c r="AU27" s="16"/>
@@ -5439,55 +5475,55 @@
       <c r="BE27" s="16"/>
     </row>
     <row r="28" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="17" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="22" t="s">
+      <c r="J28" s="24"/>
+      <c r="K28" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="22" t="s">
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="22" t="s">
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="24"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="27"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4" t="s">
         <v>151</v>
@@ -5496,7 +5532,9 @@
       <c r="AO28" s="16"/>
       <c r="AP28" s="16"/>
       <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
+      <c r="AR28" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS28" s="16"/>
       <c r="AT28" s="16"/>
       <c r="AU28" s="16"/>
@@ -5512,507 +5550,519 @@
       <c r="BE28" s="16"/>
     </row>
     <row r="29" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="17" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="22" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="36" t="s">
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="22" t="s">
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="24"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="27"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="27"/>
-      <c r="AP29" s="28"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="19"/>
       <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="27"/>
-      <c r="AU29" s="28"/>
+      <c r="AR29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS29" s="17"/>
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="19"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="27"/>
-      <c r="AZ29" s="28"/>
+      <c r="AX29" s="17"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="19"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
-      <c r="BC29" s="29"/>
-      <c r="BD29" s="30"/>
-      <c r="BE29" s="31"/>
+      <c r="BC29" s="28"/>
+      <c r="BD29" s="29"/>
+      <c r="BE29" s="30"/>
     </row>
     <row r="30" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="17" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="22" t="s">
+      <c r="J30" s="24"/>
+      <c r="K30" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="33" t="s">
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="22" t="s">
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="22" t="s">
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
-      <c r="AJ30" s="23"/>
-      <c r="AK30" s="24"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="27"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AN30" s="26" t="s">
+      <c r="AN30" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="28"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="19"/>
       <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="26"/>
-      <c r="AT30" s="27"/>
-      <c r="AU30" s="28"/>
+      <c r="AR30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS30" s="17"/>
+      <c r="AT30" s="18"/>
+      <c r="AU30" s="19"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
-      <c r="AX30" s="26"/>
-      <c r="AY30" s="27"/>
-      <c r="AZ30" s="28"/>
+      <c r="AX30" s="17"/>
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="19"/>
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
-      <c r="BC30" s="29"/>
-      <c r="BD30" s="30"/>
-      <c r="BE30" s="31"/>
+      <c r="BC30" s="28"/>
+      <c r="BD30" s="29"/>
+      <c r="BE30" s="30"/>
     </row>
     <row r="31" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="17" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="22" t="s">
+      <c r="J31" s="24"/>
+      <c r="K31" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="22" t="s">
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="22" t="s">
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="22" t="s">
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="23"/>
-      <c r="AJ31" s="23"/>
-      <c r="AK31" s="24"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="27"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="31"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="30"/>
       <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
-      <c r="AS31" s="29"/>
-      <c r="AT31" s="30"/>
-      <c r="AU31" s="31"/>
+      <c r="AR31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS31" s="28"/>
+      <c r="AT31" s="29"/>
+      <c r="AU31" s="30"/>
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
-      <c r="AX31" s="29"/>
-      <c r="AY31" s="30"/>
-      <c r="AZ31" s="31"/>
+      <c r="AX31" s="28"/>
+      <c r="AY31" s="29"/>
+      <c r="AZ31" s="30"/>
       <c r="BA31" s="4"/>
       <c r="BB31" s="4"/>
-      <c r="BC31" s="29"/>
-      <c r="BD31" s="30"/>
-      <c r="BE31" s="31"/>
+      <c r="BC31" s="28"/>
+      <c r="BD31" s="29"/>
+      <c r="BE31" s="30"/>
     </row>
     <row r="32" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="17" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="22" t="s">
+      <c r="J32" s="24"/>
+      <c r="K32" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="22" t="s">
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="22" t="s">
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="22" t="s">
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AH32" s="23"/>
-      <c r="AI32" s="23"/>
-      <c r="AJ32" s="23"/>
-      <c r="AK32" s="24"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="27"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="31"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="30"/>
       <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
-      <c r="AS32" s="29"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="31"/>
+      <c r="AR32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS32" s="28"/>
+      <c r="AT32" s="29"/>
+      <c r="AU32" s="30"/>
       <c r="AV32" s="4"/>
       <c r="AW32" s="4"/>
-      <c r="AX32" s="29"/>
-      <c r="AY32" s="30"/>
-      <c r="AZ32" s="31"/>
+      <c r="AX32" s="28"/>
+      <c r="AY32" s="29"/>
+      <c r="AZ32" s="30"/>
       <c r="BA32" s="4"/>
       <c r="BB32" s="4"/>
-      <c r="BC32" s="29"/>
-      <c r="BD32" s="30"/>
-      <c r="BE32" s="31"/>
+      <c r="BC32" s="28"/>
+      <c r="BD32" s="29"/>
+      <c r="BE32" s="30"/>
     </row>
     <row r="33" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="17" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="22" t="s">
+      <c r="J33" s="24"/>
+      <c r="K33" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="22" t="s">
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="22" t="s">
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="22" t="s">
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AH33" s="23"/>
-      <c r="AI33" s="23"/>
-      <c r="AJ33" s="23"/>
-      <c r="AK33" s="24"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="27"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN33" s="29"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="31"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="30"/>
       <c r="AQ33" s="4"/>
-      <c r="AR33" s="4"/>
-      <c r="AS33" s="29"/>
-      <c r="AT33" s="30"/>
-      <c r="AU33" s="31"/>
+      <c r="AR33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="29"/>
+      <c r="AU33" s="30"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="4"/>
-      <c r="AX33" s="29"/>
-      <c r="AY33" s="30"/>
-      <c r="AZ33" s="31"/>
+      <c r="AX33" s="28"/>
+      <c r="AY33" s="29"/>
+      <c r="AZ33" s="30"/>
       <c r="BA33" s="4"/>
       <c r="BB33" s="4"/>
-      <c r="BC33" s="29"/>
-      <c r="BD33" s="30"/>
-      <c r="BE33" s="31"/>
+      <c r="BC33" s="28"/>
+      <c r="BD33" s="29"/>
+      <c r="BE33" s="30"/>
     </row>
     <row r="34" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="17" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="22" t="s">
+      <c r="J34" s="24"/>
+      <c r="K34" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="22" t="s">
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="22" t="s">
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="22" t="s">
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="24"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="27"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AN34" s="29"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="31"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="30"/>
       <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
-      <c r="AS34" s="29"/>
-      <c r="AT34" s="30"/>
-      <c r="AU34" s="31"/>
+      <c r="AR34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS34" s="28"/>
+      <c r="AT34" s="29"/>
+      <c r="AU34" s="30"/>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
-      <c r="AX34" s="29"/>
-      <c r="AY34" s="30"/>
-      <c r="AZ34" s="31"/>
+      <c r="AX34" s="28"/>
+      <c r="AY34" s="29"/>
+      <c r="AZ34" s="30"/>
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
-      <c r="BC34" s="29"/>
-      <c r="BD34" s="30"/>
-      <c r="BE34" s="31"/>
+      <c r="BC34" s="28"/>
+      <c r="BD34" s="29"/>
+      <c r="BE34" s="30"/>
     </row>
     <row r="35" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="17" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="22" t="s">
+      <c r="J35" s="24"/>
+      <c r="K35" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="22" t="s">
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="22" t="s">
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="22" t="s">
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="24"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="27"/>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4" t="s">
         <v>151</v>
@@ -6021,7 +6071,9 @@
       <c r="AO35" s="16"/>
       <c r="AP35" s="16"/>
       <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
+      <c r="AR35" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS35" s="16"/>
       <c r="AT35" s="16"/>
       <c r="AU35" s="16"/>
@@ -6037,57 +6089,57 @@
       <c r="BE35" s="16"/>
     </row>
     <row r="36" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="17" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="22" t="s">
+      <c r="J36" s="24"/>
+      <c r="K36" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="22" t="s">
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="22" t="s">
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="22" t="s">
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="23"/>
-      <c r="AK36" s="24"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="27"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4" t="s">
         <v>151</v>
@@ -6096,7 +6148,9 @@
       <c r="AO36" s="16"/>
       <c r="AP36" s="16"/>
       <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
+      <c r="AR36" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS36" s="16"/>
       <c r="AT36" s="16"/>
       <c r="AU36" s="16"/>
@@ -6112,57 +6166,57 @@
       <c r="BE36" s="16"/>
     </row>
     <row r="37" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="17" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="22" t="s">
+      <c r="J37" s="24"/>
+      <c r="K37" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="22" t="s">
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="22" t="s">
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="22" t="s">
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="24"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="27"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4" t="s">
         <v>151</v>
@@ -6171,10 +6225,12 @@
       <c r="AO37" s="16"/>
       <c r="AP37" s="16"/>
       <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="25"/>
-      <c r="AT37" s="25"/>
-      <c r="AU37" s="25"/>
+      <c r="AR37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS37" s="71"/>
+      <c r="AT37" s="71"/>
+      <c r="AU37" s="71"/>
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
       <c r="AX37" s="16"/>
@@ -6187,57 +6243,57 @@
       <c r="BE37" s="16"/>
     </row>
     <row r="38" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="17" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="22" t="s">
+      <c r="J38" s="24"/>
+      <c r="K38" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="22" t="s">
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="22" t="s">
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="23"/>
-      <c r="AD38" s="23"/>
-      <c r="AE38" s="23"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="23" t="s">
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AH38" s="23"/>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="23"/>
-      <c r="AK38" s="24"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="27"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4" t="s">
         <v>151</v>
@@ -6246,7 +6302,9 @@
       <c r="AO38" s="16"/>
       <c r="AP38" s="16"/>
       <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
+      <c r="AR38" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS38" s="16"/>
       <c r="AT38" s="16"/>
       <c r="AU38" s="16"/>
@@ -6262,55 +6320,55 @@
       <c r="BE38" s="16"/>
     </row>
     <row r="39" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="17" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="22" t="s">
+      <c r="J39" s="24"/>
+      <c r="K39" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="22" t="s">
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="22" t="s">
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AB39" s="23"/>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="23"/>
-      <c r="AE39" s="23"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="23"/>
-      <c r="AH39" s="23"/>
-      <c r="AI39" s="23"/>
-      <c r="AJ39" s="23"/>
-      <c r="AK39" s="24"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="27"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4" t="s">
         <v>151</v>
@@ -6319,7 +6377,9 @@
       <c r="AO39" s="16"/>
       <c r="AP39" s="16"/>
       <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
+      <c r="AR39" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS39" s="16"/>
       <c r="AT39" s="16"/>
       <c r="AU39" s="16"/>
@@ -6335,55 +6395,55 @@
       <c r="BE39" s="16"/>
     </row>
     <row r="40" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="17" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="22" t="s">
+      <c r="J40" s="24"/>
+      <c r="K40" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="22" t="s">
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="22" t="s">
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="23"/>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="24"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="27"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4" t="s">
         <v>151</v>
@@ -6392,7 +6452,9 @@
       <c r="AO40" s="16"/>
       <c r="AP40" s="16"/>
       <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
+      <c r="AR40" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS40" s="16"/>
       <c r="AT40" s="16"/>
       <c r="AU40" s="16"/>
@@ -6408,55 +6470,55 @@
       <c r="BE40" s="16"/>
     </row>
     <row r="41" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="17" t="s">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="22" t="s">
+      <c r="J41" s="24"/>
+      <c r="K41" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="22" t="s">
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="22" t="s">
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AB41" s="23"/>
-      <c r="AC41" s="23"/>
-      <c r="AD41" s="23"/>
-      <c r="AE41" s="23"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="23"/>
-      <c r="AH41" s="23"/>
-      <c r="AI41" s="23"/>
-      <c r="AJ41" s="23"/>
-      <c r="AK41" s="24"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="27"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4" t="s">
         <v>151</v>
@@ -6465,7 +6527,9 @@
       <c r="AO41" s="16"/>
       <c r="AP41" s="16"/>
       <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
+      <c r="AR41" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS41" s="16"/>
       <c r="AT41" s="16"/>
       <c r="AU41" s="16"/>
@@ -6481,55 +6545,55 @@
       <c r="BE41" s="16"/>
     </row>
     <row r="42" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="17" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="22" t="s">
+      <c r="J42" s="24"/>
+      <c r="K42" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="22" t="s">
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="22" t="s">
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="23"/>
-      <c r="AD42" s="23"/>
-      <c r="AE42" s="23"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="23"/>
-      <c r="AH42" s="23"/>
-      <c r="AI42" s="23"/>
-      <c r="AJ42" s="23"/>
-      <c r="AK42" s="24"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="27"/>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4" t="s">
         <v>151</v>
@@ -6538,7 +6602,9 @@
       <c r="AO42" s="16"/>
       <c r="AP42" s="16"/>
       <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
+      <c r="AR42" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS42" s="16"/>
       <c r="AT42" s="16"/>
       <c r="AU42" s="16"/>
@@ -6554,55 +6620,55 @@
       <c r="BE42" s="16"/>
     </row>
     <row r="43" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="17" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="18"/>
-      <c r="K43" s="22" t="s">
+      <c r="J43" s="24"/>
+      <c r="K43" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="22" t="s">
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="22" t="s">
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="23"/>
-      <c r="AE43" s="23"/>
-      <c r="AF43" s="24"/>
-      <c r="AG43" s="23"/>
-      <c r="AH43" s="23"/>
-      <c r="AI43" s="23"/>
-      <c r="AJ43" s="23"/>
-      <c r="AK43" s="24"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="27"/>
       <c r="AL43" s="4"/>
       <c r="AM43" s="4" t="s">
         <v>151</v>
@@ -6611,7 +6677,9 @@
       <c r="AO43" s="16"/>
       <c r="AP43" s="16"/>
       <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
+      <c r="AR43" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS43" s="16"/>
       <c r="AT43" s="16"/>
       <c r="AU43" s="16"/>
@@ -6627,55 +6695,55 @@
       <c r="BE43" s="16"/>
     </row>
     <row r="44" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="17" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="22" t="s">
+      <c r="J44" s="24"/>
+      <c r="K44" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="22" t="s">
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="22" t="s">
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="23"/>
-      <c r="AD44" s="23"/>
-      <c r="AE44" s="23"/>
-      <c r="AF44" s="24"/>
-      <c r="AG44" s="23"/>
-      <c r="AH44" s="23"/>
-      <c r="AI44" s="23"/>
-      <c r="AJ44" s="23"/>
-      <c r="AK44" s="24"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="27"/>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4" t="s">
         <v>151</v>
@@ -6684,7 +6752,9 @@
       <c r="AO44" s="16"/>
       <c r="AP44" s="16"/>
       <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
+      <c r="AR44" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
       <c r="AU44" s="16"/>
@@ -6700,55 +6770,55 @@
       <c r="BE44" s="16"/>
     </row>
     <row r="45" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="17" t="s">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="22" t="s">
+      <c r="J45" s="24"/>
+      <c r="K45" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="22" t="s">
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="22" t="s">
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="23"/>
-      <c r="AD45" s="23"/>
-      <c r="AE45" s="23"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="23"/>
-      <c r="AH45" s="23"/>
-      <c r="AI45" s="23"/>
-      <c r="AJ45" s="23"/>
-      <c r="AK45" s="24"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="27"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4" t="s">
         <v>151</v>
@@ -6757,7 +6827,9 @@
       <c r="AO45" s="16"/>
       <c r="AP45" s="16"/>
       <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
+      <c r="AR45" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS45" s="16"/>
       <c r="AT45" s="16"/>
       <c r="AU45" s="16"/>
@@ -6773,55 +6845,55 @@
       <c r="BE45" s="16"/>
     </row>
     <row r="46" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="17" t="s">
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="22" t="s">
+      <c r="J46" s="24"/>
+      <c r="K46" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="22" t="s">
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="22" t="s">
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="23"/>
-      <c r="AD46" s="23"/>
-      <c r="AE46" s="23"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="23"/>
-      <c r="AH46" s="23"/>
-      <c r="AI46" s="23"/>
-      <c r="AJ46" s="23"/>
-      <c r="AK46" s="24"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+      <c r="AJ46" s="26"/>
+      <c r="AK46" s="27"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4" t="s">
         <v>151</v>
@@ -6830,7 +6902,9 @@
       <c r="AO46" s="16"/>
       <c r="AP46" s="16"/>
       <c r="AQ46" s="4"/>
-      <c r="AR46" s="4"/>
+      <c r="AR46" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS46" s="16"/>
       <c r="AT46" s="16"/>
       <c r="AU46" s="16"/>
@@ -6846,55 +6920,55 @@
       <c r="BE46" s="16"/>
     </row>
     <row r="47" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="17" t="s">
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="22" t="s">
+      <c r="J47" s="24"/>
+      <c r="K47" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="22" t="s">
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="22" t="s">
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="23"/>
-      <c r="AH47" s="23"/>
-      <c r="AI47" s="23"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="24"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="27"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4" t="s">
         <v>151</v>
@@ -6903,7 +6977,9 @@
       <c r="AO47" s="16"/>
       <c r="AP47" s="16"/>
       <c r="AQ47" s="4"/>
-      <c r="AR47" s="4"/>
+      <c r="AR47" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS47" s="16"/>
       <c r="AT47" s="16"/>
       <c r="AU47" s="16"/>
@@ -6919,57 +6995,57 @@
       <c r="BE47" s="16"/>
     </row>
     <row r="48" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="17" t="s">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="22" t="s">
+      <c r="J48" s="24"/>
+      <c r="K48" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="22" t="s">
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="22" t="s">
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="23"/>
-      <c r="AD48" s="23"/>
-      <c r="AE48" s="23"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="22" t="s">
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AH48" s="23"/>
-      <c r="AI48" s="23"/>
-      <c r="AJ48" s="23"/>
-      <c r="AK48" s="24"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="26"/>
+      <c r="AK48" s="27"/>
       <c r="AL48" s="4"/>
       <c r="AM48" s="4" t="s">
         <v>150</v>
@@ -6980,7 +7056,9 @@
       <c r="AO48" s="16"/>
       <c r="AP48" s="16"/>
       <c r="AQ48" s="4"/>
-      <c r="AR48" s="4"/>
+      <c r="AR48" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS48" s="16"/>
       <c r="AT48" s="16"/>
       <c r="AU48" s="16"/>
@@ -6996,57 +7074,57 @@
       <c r="BE48" s="16"/>
     </row>
     <row r="49" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="17" t="s">
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="22" t="s">
+      <c r="J49" s="24"/>
+      <c r="K49" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="22" t="s">
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="22" t="s">
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="23"/>
-      <c r="AD49" s="23"/>
-      <c r="AE49" s="23"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="22" t="s">
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="26"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="AH49" s="23"/>
-      <c r="AI49" s="23"/>
-      <c r="AJ49" s="23"/>
-      <c r="AK49" s="24"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="26"/>
+      <c r="AK49" s="27"/>
       <c r="AL49" s="4"/>
       <c r="AM49" s="4" t="s">
         <v>151</v>
@@ -7055,7 +7133,9 @@
       <c r="AO49" s="16"/>
       <c r="AP49" s="16"/>
       <c r="AQ49" s="4"/>
-      <c r="AR49" s="4"/>
+      <c r="AR49" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="AS49" s="16"/>
       <c r="AT49" s="16"/>
       <c r="AU49" s="16"/>
@@ -7072,6 +7152,468 @@
     </row>
   </sheetData>
   <mergeCells count="486">
+    <mergeCell ref="AX48:AZ48"/>
+    <mergeCell ref="BC48:BE48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:P49"/>
+    <mergeCell ref="Q49:Z49"/>
+    <mergeCell ref="AA49:AF49"/>
+    <mergeCell ref="AG49:AK49"/>
+    <mergeCell ref="AN49:AP49"/>
+    <mergeCell ref="AS49:AU49"/>
+    <mergeCell ref="AX49:AZ49"/>
+    <mergeCell ref="BC49:BE49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:P48"/>
+    <mergeCell ref="Q48:Z48"/>
+    <mergeCell ref="AA48:AF48"/>
+    <mergeCell ref="AG48:AK48"/>
+    <mergeCell ref="AN48:AP48"/>
+    <mergeCell ref="AS48:AU48"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="AA17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AS18:AU18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="AA12:AF12"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="AA15:AF15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="AA26:AF26"/>
+    <mergeCell ref="AG26:AK26"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="BC26:BE26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="AA25:AF25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AN25:AP25"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="AA24:AF24"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BC16:BE16"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="BC20:BE20"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="Q28:Z28"/>
+    <mergeCell ref="AA28:AF28"/>
+    <mergeCell ref="AG28:AK28"/>
+    <mergeCell ref="AN28:AP28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AN13:AP13"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="AA46:AF46"/>
+    <mergeCell ref="AG46:AK46"/>
+    <mergeCell ref="AN46:AP46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:P47"/>
+    <mergeCell ref="Q47:Z47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:P46"/>
+    <mergeCell ref="Q46:Z46"/>
+    <mergeCell ref="AA47:AF47"/>
+    <mergeCell ref="BC46:BE46"/>
+    <mergeCell ref="AG47:AK47"/>
+    <mergeCell ref="AN47:AP47"/>
+    <mergeCell ref="AS47:AU47"/>
+    <mergeCell ref="AX47:AZ47"/>
+    <mergeCell ref="BC47:BE47"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BC45:BE45"/>
+    <mergeCell ref="AS46:AU46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:P45"/>
+    <mergeCell ref="Q45:Z45"/>
+    <mergeCell ref="AG45:AK45"/>
+    <mergeCell ref="AN45:AP45"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="Q44:Z44"/>
+    <mergeCell ref="AA45:AF45"/>
+    <mergeCell ref="BC44:BE44"/>
+    <mergeCell ref="AG43:AK43"/>
+    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="AS43:AU43"/>
+    <mergeCell ref="AX43:AZ43"/>
+    <mergeCell ref="BC43:BE43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:P44"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="AX44:AZ44"/>
+    <mergeCell ref="AA43:AF43"/>
+    <mergeCell ref="AA44:AF44"/>
+    <mergeCell ref="AG44:AK44"/>
+    <mergeCell ref="AN44:AP44"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="Q42:Z42"/>
+    <mergeCell ref="BC42:BE42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="AS42:AU42"/>
+    <mergeCell ref="AX42:AZ42"/>
+    <mergeCell ref="AA42:AF42"/>
+    <mergeCell ref="AG42:AK42"/>
+    <mergeCell ref="AN42:AP42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="Q43:Z43"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="BC41:BE41"/>
+    <mergeCell ref="AG40:AK40"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="AS40:AU40"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="BC40:BE40"/>
+    <mergeCell ref="Q41:Z41"/>
+    <mergeCell ref="AA40:AF40"/>
+    <mergeCell ref="AA41:AF41"/>
+    <mergeCell ref="AG41:AK41"/>
+    <mergeCell ref="AN41:AP41"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="Q31:Z31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="Q29:Z29"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="AA8:AK8"/>
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="AA29:AF29"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="Q8:Z9"/>
+    <mergeCell ref="AA11:AF11"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="Q27:Z27"/>
+    <mergeCell ref="AA27:AF27"/>
+    <mergeCell ref="AG27:AK27"/>
+    <mergeCell ref="AN27:AP27"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="AA13:AF13"/>
+    <mergeCell ref="AA33:AF33"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="AG29:AK29"/>
+    <mergeCell ref="AN29:AP29"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="BC31:BE31"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AS30:AU30"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="AN31:AP31"/>
+    <mergeCell ref="AG31:AK31"/>
+    <mergeCell ref="AA31:AF31"/>
+    <mergeCell ref="AA30:AF30"/>
+    <mergeCell ref="AN30:AP30"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AA39:AF39"/>
+    <mergeCell ref="AG39:AK39"/>
+    <mergeCell ref="AA38:AF38"/>
+    <mergeCell ref="AA35:AF35"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="AA36:AF36"/>
+    <mergeCell ref="AG36:AK36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="AG38:AK38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AS38:AU38"/>
+    <mergeCell ref="AG35:AK35"/>
+    <mergeCell ref="AN35:AP35"/>
+    <mergeCell ref="AG32:AK32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG30:AK30"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="D1:AN1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:AN5"/>
+    <mergeCell ref="AO1:AO5"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="BC39:BE39"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="AS39:AU39"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BC32:BE32"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="BC34:BE34"/>
+    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="BC35:BE35"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AG33:AK33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AS35:AU35"/>
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AS36:AU36"/>
     <mergeCell ref="AX35:AZ35"/>
@@ -7096,475 +7638,13 @@
     <mergeCell ref="BC33:BE33"/>
     <mergeCell ref="AA32:AF32"/>
     <mergeCell ref="K33:P33"/>
-    <mergeCell ref="BC39:BE39"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AN39:AP39"/>
-    <mergeCell ref="AS39:AU39"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BC32:BE32"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="BC34:BE34"/>
-    <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="BC35:BE35"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AG33:AK33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="D1:AN1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="D2:AN5"/>
-    <mergeCell ref="AO1:AO5"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AS38:AU38"/>
-    <mergeCell ref="AG35:AK35"/>
-    <mergeCell ref="AN35:AP35"/>
-    <mergeCell ref="AG32:AK32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="AS27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG30:AK30"/>
-    <mergeCell ref="AA39:AF39"/>
-    <mergeCell ref="AG39:AK39"/>
-    <mergeCell ref="AA38:AF38"/>
-    <mergeCell ref="AA35:AF35"/>
-    <mergeCell ref="Q35:Z35"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="AA36:AF36"/>
-    <mergeCell ref="AG36:AK36"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="AG38:AK38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="AA33:AF33"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="AG29:AK29"/>
-    <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="AS29:AU29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BC29:BE29"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="BC31:BE31"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AS30:AU30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="AN31:AP31"/>
-    <mergeCell ref="AG31:AK31"/>
-    <mergeCell ref="AA31:AF31"/>
-    <mergeCell ref="AA30:AF30"/>
-    <mergeCell ref="AN30:AP30"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="BC28:BE28"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="AA8:AK8"/>
-    <mergeCell ref="AA9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="AA29:AF29"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="Q8:Z9"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="Q31:Z31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="Q29:Z29"/>
-    <mergeCell ref="Q30:Z30"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:P41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="AX41:AZ41"/>
-    <mergeCell ref="BC41:BE41"/>
-    <mergeCell ref="AG40:AK40"/>
-    <mergeCell ref="AN40:AP40"/>
-    <mergeCell ref="AS40:AU40"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="BC40:BE40"/>
-    <mergeCell ref="Q41:Z41"/>
-    <mergeCell ref="AA40:AF40"/>
-    <mergeCell ref="AA41:AF41"/>
-    <mergeCell ref="AG41:AK41"/>
-    <mergeCell ref="AN41:AP41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K43:P43"/>
-    <mergeCell ref="Q42:Z42"/>
-    <mergeCell ref="BC42:BE42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="AS42:AU42"/>
-    <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="AA42:AF42"/>
-    <mergeCell ref="AG42:AK42"/>
-    <mergeCell ref="AN42:AP42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="Q43:Z43"/>
-    <mergeCell ref="BC44:BE44"/>
-    <mergeCell ref="AG43:AK43"/>
-    <mergeCell ref="AN43:AP43"/>
-    <mergeCell ref="AS43:AU43"/>
-    <mergeCell ref="AX43:AZ43"/>
-    <mergeCell ref="BC43:BE43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:P44"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="AX44:AZ44"/>
-    <mergeCell ref="AA43:AF43"/>
-    <mergeCell ref="AA44:AF44"/>
-    <mergeCell ref="AG44:AK44"/>
-    <mergeCell ref="AN44:AP44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:P45"/>
-    <mergeCell ref="Q45:Z45"/>
-    <mergeCell ref="AG45:AK45"/>
-    <mergeCell ref="AN45:AP45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="Q44:Z44"/>
-    <mergeCell ref="AA45:AF45"/>
-    <mergeCell ref="BC46:BE46"/>
-    <mergeCell ref="AG47:AK47"/>
-    <mergeCell ref="AN47:AP47"/>
-    <mergeCell ref="AS47:AU47"/>
-    <mergeCell ref="AX47:AZ47"/>
-    <mergeCell ref="BC47:BE47"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BC45:BE45"/>
-    <mergeCell ref="AS46:AU46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="AA46:AF46"/>
-    <mergeCell ref="AG46:AK46"/>
-    <mergeCell ref="AN46:AP46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:P47"/>
-    <mergeCell ref="Q47:Z47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:P46"/>
-    <mergeCell ref="Q46:Z46"/>
-    <mergeCell ref="AA47:AF47"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="AA11:AF11"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="Q27:Z27"/>
-    <mergeCell ref="AA27:AF27"/>
-    <mergeCell ref="AG27:AK27"/>
-    <mergeCell ref="AN27:AP27"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AN13:AP13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:Z23"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="BC27:BE27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="Q28:Z28"/>
-    <mergeCell ref="AA28:AF28"/>
-    <mergeCell ref="AG28:AK28"/>
-    <mergeCell ref="AN28:AP28"/>
-    <mergeCell ref="AS28:AU28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="BC20:BE20"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="AA24:AF24"/>
-    <mergeCell ref="AG24:AK24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="BC25:BE25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:Z26"/>
-    <mergeCell ref="AA26:AF26"/>
-    <mergeCell ref="AG26:AK26"/>
-    <mergeCell ref="AN26:AP26"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="BC26:BE26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:Z25"/>
-    <mergeCell ref="AA25:AF25"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="AN25:AP25"/>
-    <mergeCell ref="AS25:AU25"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:Z22"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="AA15:AF15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="AA16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="AA17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="AA12:AF12"/>
-    <mergeCell ref="AX48:AZ48"/>
-    <mergeCell ref="BC48:BE48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:P49"/>
-    <mergeCell ref="Q49:Z49"/>
-    <mergeCell ref="AA49:AF49"/>
-    <mergeCell ref="AG49:AK49"/>
-    <mergeCell ref="AN49:AP49"/>
-    <mergeCell ref="AS49:AU49"/>
-    <mergeCell ref="AX49:AZ49"/>
-    <mergeCell ref="BC49:BE49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:P48"/>
-    <mergeCell ref="Q48:Z48"/>
-    <mergeCell ref="AA48:AF48"/>
-    <mergeCell ref="AG48:AK48"/>
-    <mergeCell ref="AN48:AP48"/>
-    <mergeCell ref="AS48:AU48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J49">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ10:AR49 AV10:AW49 BA10:BB49 AL10:AM49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL10:AM49 AV10:AW49 BA10:BB49 AQ10:AR49">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7578,9 +7658,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7763,19 +7846,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7800,9 +7879,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -16,11 +16,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">テスト一覧!#REF!</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="164">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -1212,6 +1213,29 @@
   </si>
   <si>
     <t>正常系</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中西悠菜</t>
+    <rPh sb="0" eb="2">
+      <t>ナカニシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>22, 25-44</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3606,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AX30" sqref="AX30:AZ30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN11" sqref="AN11:AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3758,14 +3782,20 @@
       <c r="AS2" s="70"/>
       <c r="AT2" s="65"/>
       <c r="AU2" s="65"/>
-      <c r="AV2" s="66"/>
+      <c r="AV2" s="66">
+        <v>42752</v>
+      </c>
       <c r="AW2" s="66"/>
       <c r="AX2" s="66"/>
       <c r="AY2" s="66"/>
-      <c r="AZ2" s="62"/>
+      <c r="AZ2" s="62" t="s">
+        <v>160</v>
+      </c>
       <c r="BA2" s="63"/>
       <c r="BB2" s="64"/>
-      <c r="BC2" s="61"/>
+      <c r="BC2" s="61" t="s">
+        <v>163</v>
+      </c>
       <c r="BD2" s="61"/>
       <c r="BE2" s="61"/>
     </row>
@@ -4170,15 +4200,17 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="26"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
+      <c r="AM10" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN10" s="28"/>
       <c r="AO10" s="28"/>
       <c r="AP10" s="28"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="27"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
       <c r="AX10" s="27"/>
@@ -4243,7 +4275,9 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="26"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
+      <c r="AM11" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN11" s="32"/>
       <c r="AO11" s="33"/>
       <c r="AP11" s="34"/>
@@ -4316,7 +4350,9 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="26"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
+      <c r="AM12" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN12" s="32"/>
       <c r="AO12" s="33"/>
       <c r="AP12" s="34"/>
@@ -4389,7 +4425,9 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="26"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
+      <c r="AM13" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN13" s="32"/>
       <c r="AO13" s="33"/>
       <c r="AP13" s="34"/>
@@ -4462,7 +4500,9 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="26"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
+      <c r="AM14" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN14" s="32"/>
       <c r="AO14" s="33"/>
       <c r="AP14" s="34"/>
@@ -4535,7 +4575,9 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="26"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
+      <c r="AM15" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN15" s="32"/>
       <c r="AO15" s="33"/>
       <c r="AP15" s="34"/>
@@ -4608,7 +4650,9 @@
       <c r="AJ16" s="25"/>
       <c r="AK16" s="26"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
+      <c r="AM16" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN16" s="27"/>
       <c r="AO16" s="27"/>
       <c r="AP16" s="27"/>
@@ -4681,7 +4725,9 @@
       <c r="AJ17" s="25"/>
       <c r="AK17" s="26"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
+      <c r="AM17" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN17" s="27"/>
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
@@ -4754,7 +4800,9 @@
       <c r="AJ18" s="25"/>
       <c r="AK18" s="26"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
+      <c r="AM18" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN18" s="27"/>
       <c r="AO18" s="27"/>
       <c r="AP18" s="27"/>
@@ -4827,7 +4875,9 @@
       <c r="AJ19" s="25"/>
       <c r="AK19" s="26"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
+      <c r="AM19" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN19" s="27"/>
       <c r="AO19" s="27"/>
       <c r="AP19" s="27"/>
@@ -4898,7 +4948,9 @@
       <c r="AJ20" s="25"/>
       <c r="AK20" s="26"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
+      <c r="AM20" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN20" s="27"/>
       <c r="AO20" s="27"/>
       <c r="AP20" s="27"/>
@@ -4969,7 +5021,9 @@
       <c r="AJ21" s="25"/>
       <c r="AK21" s="26"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
+      <c r="AM21" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN21" s="27"/>
       <c r="AO21" s="27"/>
       <c r="AP21" s="27"/>
@@ -5040,7 +5094,9 @@
       <c r="AJ22" s="25"/>
       <c r="AK22" s="26"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
+      <c r="AM22" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN22" s="27"/>
       <c r="AO22" s="27"/>
       <c r="AP22" s="27"/>
@@ -5111,7 +5167,9 @@
       <c r="AJ23" s="25"/>
       <c r="AK23" s="26"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
+      <c r="AM23" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN23" s="27"/>
       <c r="AO23" s="27"/>
       <c r="AP23" s="27"/>
@@ -5182,7 +5240,9 @@
       <c r="AJ24" s="25"/>
       <c r="AK24" s="26"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
+      <c r="AM24" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN24" s="27"/>
       <c r="AO24" s="27"/>
       <c r="AP24" s="27"/>
@@ -5253,7 +5313,9 @@
       <c r="AJ25" s="25"/>
       <c r="AK25" s="26"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
+      <c r="AM25" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN25" s="27"/>
       <c r="AO25" s="27"/>
       <c r="AP25" s="27"/>
@@ -5324,7 +5386,9 @@
       <c r="AJ26" s="25"/>
       <c r="AK26" s="26"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
+      <c r="AM26" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
       <c r="AP26" s="27"/>
@@ -5395,7 +5459,9 @@
       <c r="AJ27" s="25"/>
       <c r="AK27" s="26"/>
       <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
+      <c r="AM27" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN27" s="27"/>
       <c r="AO27" s="27"/>
       <c r="AP27" s="27"/>
@@ -5466,7 +5532,9 @@
       <c r="AJ28" s="25"/>
       <c r="AK28" s="26"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
+      <c r="AM28" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN28" s="27"/>
       <c r="AO28" s="27"/>
       <c r="AP28" s="27"/>
@@ -5539,7 +5607,9 @@
       <c r="AJ29" s="25"/>
       <c r="AK29" s="26"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
+      <c r="AM29" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN29" s="27"/>
       <c r="AO29" s="27"/>
       <c r="AP29" s="27"/>
@@ -5612,7 +5682,9 @@
       <c r="AJ30" s="25"/>
       <c r="AK30" s="26"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
+      <c r="AM30" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN30" s="27"/>
       <c r="AO30" s="27"/>
       <c r="AP30" s="27"/>
@@ -5685,7 +5757,9 @@
       <c r="AJ31" s="25"/>
       <c r="AK31" s="26"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
+      <c r="AM31" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN31" s="27"/>
       <c r="AO31" s="27"/>
       <c r="AP31" s="27"/>
@@ -5756,7 +5830,9 @@
       <c r="AJ32" s="25"/>
       <c r="AK32" s="26"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
+      <c r="AM32" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN32" s="27"/>
       <c r="AO32" s="27"/>
       <c r="AP32" s="27"/>
@@ -5829,7 +5905,9 @@
       <c r="AJ33" s="25"/>
       <c r="AK33" s="26"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
+      <c r="AM33" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="AN33" s="32"/>
       <c r="AO33" s="33"/>
       <c r="AP33" s="34"/>
@@ -5902,7 +5980,9 @@
       <c r="AJ34" s="25"/>
       <c r="AK34" s="26"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
+      <c r="AM34" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN34" s="32"/>
       <c r="AO34" s="33"/>
       <c r="AP34" s="34"/>
@@ -5975,7 +6055,9 @@
       <c r="AJ35" s="25"/>
       <c r="AK35" s="26"/>
       <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
+      <c r="AM35" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN35" s="32"/>
       <c r="AO35" s="33"/>
       <c r="AP35" s="34"/>
@@ -6048,7 +6130,9 @@
       <c r="AJ36" s="25"/>
       <c r="AK36" s="26"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
+      <c r="AM36" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN36" s="32"/>
       <c r="AO36" s="33"/>
       <c r="AP36" s="34"/>
@@ -6121,7 +6205,9 @@
       <c r="AJ37" s="25"/>
       <c r="AK37" s="26"/>
       <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
+      <c r="AM37" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN37" s="32"/>
       <c r="AO37" s="33"/>
       <c r="AP37" s="34"/>
@@ -6194,7 +6280,9 @@
       <c r="AJ38" s="25"/>
       <c r="AK38" s="26"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
+      <c r="AM38" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN38" s="27"/>
       <c r="AO38" s="27"/>
       <c r="AP38" s="27"/>
@@ -6267,7 +6355,9 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="26"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
+      <c r="AM39" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN39" s="27"/>
       <c r="AO39" s="27"/>
       <c r="AP39" s="27"/>
@@ -6340,7 +6430,9 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="26"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
+      <c r="AM40" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN40" s="27"/>
       <c r="AO40" s="27"/>
       <c r="AP40" s="27"/>
@@ -6413,7 +6505,9 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="26"/>
       <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
+      <c r="AM41" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN41" s="27"/>
       <c r="AO41" s="27"/>
       <c r="AP41" s="27"/>
@@ -6484,7 +6578,9 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="26"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
+      <c r="AM42" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN42" s="27"/>
       <c r="AO42" s="27"/>
       <c r="AP42" s="27"/>
@@ -6555,7 +6651,9 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="26"/>
       <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
+      <c r="AM43" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN43" s="27"/>
       <c r="AO43" s="27"/>
       <c r="AP43" s="27"/>
@@ -6626,7 +6724,9 @@
       <c r="AJ44" s="25"/>
       <c r="AK44" s="26"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
+      <c r="AM44" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN44" s="27"/>
       <c r="AO44" s="27"/>
       <c r="AP44" s="27"/>
@@ -6697,7 +6797,9 @@
       <c r="AJ45" s="25"/>
       <c r="AK45" s="26"/>
       <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
+      <c r="AM45" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN45" s="27"/>
       <c r="AO45" s="27"/>
       <c r="AP45" s="27"/>
@@ -6768,7 +6870,9 @@
       <c r="AJ46" s="25"/>
       <c r="AK46" s="26"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
+      <c r="AM46" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN46" s="27"/>
       <c r="AO46" s="27"/>
       <c r="AP46" s="27"/>
@@ -6839,7 +6943,9 @@
       <c r="AJ47" s="25"/>
       <c r="AK47" s="26"/>
       <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
+      <c r="AM47" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN47" s="27"/>
       <c r="AO47" s="27"/>
       <c r="AP47" s="27"/>
@@ -6910,7 +7016,9 @@
       <c r="AJ48" s="25"/>
       <c r="AK48" s="26"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
+      <c r="AM48" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN48" s="27"/>
       <c r="AO48" s="27"/>
       <c r="AP48" s="27"/>
@@ -6981,7 +7089,9 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="26"/>
       <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
+      <c r="AM49" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN49" s="27"/>
       <c r="AO49" s="27"/>
       <c r="AP49" s="27"/>
@@ -7052,7 +7162,9 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="26"/>
       <c r="AL50" s="4"/>
-      <c r="AM50" s="4"/>
+      <c r="AM50" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN50" s="27"/>
       <c r="AO50" s="27"/>
       <c r="AP50" s="27"/>
@@ -7125,7 +7237,9 @@
       <c r="AJ51" s="25"/>
       <c r="AK51" s="26"/>
       <c r="AL51" s="4"/>
-      <c r="AM51" s="4"/>
+      <c r="AM51" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN51" s="27"/>
       <c r="AO51" s="27"/>
       <c r="AP51" s="27"/>
@@ -7198,7 +7312,9 @@
       <c r="AJ52" s="25"/>
       <c r="AK52" s="26"/>
       <c r="AL52" s="4"/>
-      <c r="AM52" s="4"/>
+      <c r="AM52" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN52" s="27"/>
       <c r="AO52" s="27"/>
       <c r="AP52" s="27"/>
@@ -7271,7 +7387,9 @@
       <c r="AJ53" s="25"/>
       <c r="AK53" s="26"/>
       <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
+      <c r="AM53" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="AN53" s="27"/>
       <c r="AO53" s="27"/>
       <c r="AP53" s="27"/>
@@ -7338,6 +7456,7 @@
     <mergeCell ref="BC36:BE36"/>
     <mergeCell ref="AA35:AF35"/>
     <mergeCell ref="K36:P36"/>
+    <mergeCell ref="C36:H36"/>
     <mergeCell ref="BC42:BE42"/>
     <mergeCell ref="AN9:AP9"/>
     <mergeCell ref="I8:J9"/>
@@ -7471,8 +7590,6 @@
     <mergeCell ref="K13:P13"/>
     <mergeCell ref="Q13:Z13"/>
     <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:J36"/>
     <mergeCell ref="C34:H34"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:H10"/>
@@ -7495,6 +7612,7 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K22:P22"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="I44:J44"/>
@@ -7595,7 +7713,6 @@
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="K49:P49"/>
     <mergeCell ref="Q49:Z49"/>
-    <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:Z22"/>
     <mergeCell ref="AA22:AF22"/>
     <mergeCell ref="AG22:AK22"/>
@@ -7614,6 +7731,7 @@
     <mergeCell ref="AA38:AF38"/>
     <mergeCell ref="Q38:Z38"/>
     <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="AG12:AK12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A40:B40"/>
@@ -7829,7 +7947,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J53">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ10:AR53 AV10:AW53 AL10:AM53 BA10:BB53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ10:AR53 AV10:AW53 BA10:BB53 AL10:AM53">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8047,8 +8165,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e2ca149d-0452-47e1-ae54-92b8879afeff"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="167">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -844,9 +844,6 @@
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
   <si>
     <t>25</t>
@@ -1212,6 +1209,156 @@
   </si>
   <si>
     <t>正常系</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>予定表の自動承諾が設定されている場合、自動承諾のメール送信時に宛先確認画面が表示されない</t>
+    <rPh sb="0" eb="3">
+      <t>ヨテイヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ジドウショウダク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="31" eb="37">
+      <t>アテサキカクニンガメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがWindows7であること
+OutlookRecipientConfirmationAddinがインストールされていること
+Outlook2016を起動していること
+予定表の設定で「出席依頼の承諾と、取り消された会議の削除を自動処理する」がチェックされている</t>
+    <rPh sb="90" eb="92">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="94" eb="98">
+      <t>シュッセキイライ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.クラウドメールから、Outlookに自分宛の会議招集メールを送る</t>
+    <rPh sb="20" eb="22">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アテ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラウドメールに、会議承諾メールが送信される
+宛先確認画面が表示されない</t>
+    <rPh sb="9" eb="11">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="23" eb="29">
+      <t>アテサキカクニンガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがWindows10であること
+OutlookRecipientConfirmationAddinがインストールされていること
+Outlook2016を起動していること
+予定表の設定で「出席依頼の承諾と、取り消された会議の削除を自動処理する」がチェックされている</t>
+    <rPh sb="91" eb="93">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="95" eb="99">
+      <t>シュッセキイライ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2062,6 +2209,9 @@
     <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2085,9 +2235,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2674,8 +2821,8 @@
   </sheetPr>
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:AB6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2840,7 +2987,7 @@
       <c r="AA4" s="11"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
@@ -2856,7 +3003,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
       <c r="G5" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2880,7 +3027,7 @@
       <c r="AA5" s="11"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
@@ -2896,7 +3043,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
       <c r="G6" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2920,20 +3067,24 @@
       <c r="AA6" s="11"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
       <c r="AF6" s="12"/>
     </row>
     <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="13">
+        <v>43129</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -2955,7 +3106,9 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="12"/>
-      <c r="AC7" s="10"/>
+      <c r="AC7" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
       <c r="AF7" s="12"/>
@@ -3604,10 +3757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE53"/>
+  <dimension ref="A1:BE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AX30" sqref="AX30:AZ30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4120,10 +4273,10 @@
       <c r="BE9" s="60"/>
     </row>
     <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="29" t="s">
         <v>52</v>
       </c>
@@ -4132,20 +4285,20 @@
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="31"/>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
       <c r="Q10" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
@@ -4156,19 +4309,19 @@
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="38"/>
-      <c r="AA10" s="24" t="s">
+      <c r="AA10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="27"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="28"/>
@@ -4176,25 +4329,25 @@
       <c r="AP10" s="28"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="27"/>
-      <c r="AU10" s="27"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
-      <c r="AX10" s="27"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="27"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
       <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
-      <c r="BC10" s="27"/>
-      <c r="BD10" s="27"/>
-      <c r="BE10" s="27"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
     </row>
     <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="29" t="s">
         <v>112</v>
       </c>
@@ -4203,20 +4356,20 @@
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
       <c r="Q11" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R11" s="40"/>
       <c r="S11" s="40"/>
@@ -4227,21 +4380,21 @@
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
       <c r="Z11" s="41"/>
-      <c r="AA11" s="24" t="s">
+      <c r="AA11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="24" t="s">
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="27"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="32"/>
@@ -4264,57 +4417,57 @@
       <c r="BE11" s="34"/>
     </row>
     <row r="12" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="19" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="24" t="s">
+      <c r="J12" s="21"/>
+      <c r="K12" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="24" t="s">
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="24" t="s">
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="27"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="32"/>
@@ -4337,10 +4490,10 @@
       <c r="BE12" s="34"/>
     </row>
     <row r="13" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="29" t="s">
         <v>93</v>
       </c>
@@ -4349,45 +4502,45 @@
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="24" t="s">
+      <c r="J13" s="21"/>
+      <c r="K13" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="24" t="s">
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="24" t="s">
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="27"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="32"/>
@@ -4410,10 +4563,10 @@
       <c r="BE13" s="34"/>
     </row>
     <row r="14" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="29" t="s">
         <v>94</v>
       </c>
@@ -4422,45 +4575,45 @@
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="24" t="s">
+      <c r="J14" s="21"/>
+      <c r="K14" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="24" t="s">
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="24" t="s">
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="27"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="32"/>
@@ -4483,10 +4636,10 @@
       <c r="BE14" s="34"/>
     </row>
     <row r="15" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="29" t="s">
         <v>95</v>
       </c>
@@ -4495,45 +4648,45 @@
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="24" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="24" t="s">
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="24" t="s">
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="27"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
       <c r="AN15" s="32"/>
@@ -4556,208 +4709,208 @@
       <c r="BE15" s="34"/>
     </row>
     <row r="16" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="19" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="24" t="s">
+      <c r="J16" s="21"/>
+      <c r="K16" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="24" t="s">
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="24" t="s">
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="27"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="27"/>
-      <c r="BE16" s="27"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="19"/>
+      <c r="BE16" s="19"/>
     </row>
     <row r="17" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="19" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="24" t="s">
+      <c r="J17" s="21"/>
+      <c r="K17" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="24" t="s">
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="24" t="s">
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="27"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="27"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
-      <c r="BC17" s="27"/>
-      <c r="BD17" s="27"/>
-      <c r="BE17" s="27"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="19"/>
     </row>
     <row r="18" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="19" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="24" t="s">
+      <c r="J18" s="21"/>
+      <c r="K18" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="24" t="s">
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="27"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="27"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
       <c r="AS18" s="28"/>
@@ -4765,1142 +4918,1140 @@
       <c r="AU18" s="28"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
-      <c r="AX18" s="27"/>
-      <c r="AY18" s="27"/>
-      <c r="AZ18" s="27"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
-      <c r="BC18" s="27"/>
-      <c r="BD18" s="27"/>
-      <c r="BE18" s="27"/>
+      <c r="BC18" s="19"/>
+      <c r="BD18" s="19"/>
+      <c r="BE18" s="19"/>
     </row>
     <row r="19" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="19" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="24" t="s">
+      <c r="J19" s="21"/>
+      <c r="K19" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="24" t="s">
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="25" t="s">
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="27"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="27"/>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="27"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
-      <c r="AS19" s="27"/>
-      <c r="AT19" s="27"/>
-      <c r="AU19" s="27"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
-      <c r="AX19" s="27"/>
-      <c r="AY19" s="27"/>
-      <c r="AZ19" s="27"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
       <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
-      <c r="BC19" s="27"/>
-      <c r="BD19" s="27"/>
-      <c r="BE19" s="27"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="19"/>
     </row>
     <row r="20" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="19" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="24" t="s">
+      <c r="J20" s="21"/>
+      <c r="K20" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="24" t="s">
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="27"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
       <c r="AQ20" s="4"/>
       <c r="AR20" s="4"/>
-      <c r="AS20" s="27"/>
-      <c r="AT20" s="27"/>
-      <c r="AU20" s="27"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
-      <c r="AX20" s="27"/>
-      <c r="AY20" s="27"/>
-      <c r="AZ20" s="27"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
       <c r="BA20" s="4"/>
       <c r="BB20" s="4"/>
-      <c r="BC20" s="27"/>
-      <c r="BD20" s="27"/>
-      <c r="BE20" s="27"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="19"/>
     </row>
     <row r="21" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="19" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="24" t="s">
+      <c r="J21" s="21"/>
+      <c r="K21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="24" t="s">
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="27"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="27"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
       <c r="AQ21" s="4"/>
       <c r="AR21" s="4"/>
-      <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
-      <c r="AX21" s="27"/>
-      <c r="AY21" s="27"/>
-      <c r="AZ21" s="27"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="19"/>
       <c r="BA21" s="4"/>
       <c r="BB21" s="4"/>
-      <c r="BC21" s="27"/>
-      <c r="BD21" s="27"/>
-      <c r="BE21" s="27"/>
+      <c r="BC21" s="19"/>
+      <c r="BD21" s="19"/>
+      <c r="BE21" s="19"/>
     </row>
     <row r="22" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="19" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="24" t="s">
+      <c r="J22" s="21"/>
+      <c r="K22" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="24" t="s">
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="27"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="27"/>
-      <c r="AP22" s="27"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
       <c r="AQ22" s="4"/>
       <c r="AR22" s="4"/>
-      <c r="AS22" s="27"/>
-      <c r="AT22" s="27"/>
-      <c r="AU22" s="27"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
-      <c r="AX22" s="27"/>
-      <c r="AY22" s="27"/>
-      <c r="AZ22" s="27"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
       <c r="BA22" s="4"/>
       <c r="BB22" s="4"/>
-      <c r="BC22" s="27"/>
-      <c r="BD22" s="27"/>
-      <c r="BE22" s="27"/>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="19"/>
     </row>
     <row r="23" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="19" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="24" t="s">
+      <c r="J23" s="21"/>
+      <c r="K23" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="24" t="s">
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="27"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
       <c r="AQ23" s="4"/>
       <c r="AR23" s="4"/>
-      <c r="AS23" s="27"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="27"/>
-      <c r="AZ23" s="27"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
       <c r="BA23" s="4"/>
       <c r="BB23" s="4"/>
-      <c r="BC23" s="27"/>
-      <c r="BD23" s="27"/>
-      <c r="BE23" s="27"/>
+      <c r="BC23" s="19"/>
+      <c r="BD23" s="19"/>
+      <c r="BE23" s="19"/>
     </row>
     <row r="24" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="19" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="24" t="s">
+      <c r="J24" s="21"/>
+      <c r="K24" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="24" t="s">
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="27"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="27"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4"/>
-      <c r="AS24" s="27"/>
-      <c r="AT24" s="27"/>
-      <c r="AU24" s="27"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
-      <c r="AX24" s="27"/>
-      <c r="AY24" s="27"/>
-      <c r="AZ24" s="27"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4"/>
-      <c r="BC24" s="27"/>
-      <c r="BD24" s="27"/>
-      <c r="BE24" s="27"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
     </row>
     <row r="25" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="19" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="24" t="s">
+      <c r="J25" s="21"/>
+      <c r="K25" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="24" t="s">
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="27"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
-      <c r="AS25" s="27"/>
-      <c r="AT25" s="27"/>
-      <c r="AU25" s="27"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
-      <c r="AX25" s="27"/>
-      <c r="AY25" s="27"/>
-      <c r="AZ25" s="27"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
       <c r="BA25" s="4"/>
       <c r="BB25" s="4"/>
-      <c r="BC25" s="27"/>
-      <c r="BD25" s="27"/>
-      <c r="BE25" s="27"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="19"/>
     </row>
     <row r="26" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="19" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="24" t="s">
+      <c r="J26" s="21"/>
+      <c r="K26" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="24" t="s">
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="27"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
-      <c r="AN26" s="27"/>
-      <c r="AO26" s="27"/>
-      <c r="AP26" s="27"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
-      <c r="AS26" s="27"/>
-      <c r="AT26" s="27"/>
-      <c r="AU26" s="27"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
-      <c r="AX26" s="27"/>
-      <c r="AY26" s="27"/>
-      <c r="AZ26" s="27"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
       <c r="BA26" s="4"/>
       <c r="BB26" s="4"/>
-      <c r="BC26" s="27"/>
-      <c r="BD26" s="27"/>
-      <c r="BE26" s="27"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19"/>
     </row>
     <row r="27" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="19" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="24" t="s">
+      <c r="J27" s="21"/>
+      <c r="K27" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="24" t="s">
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="27"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="27"/>
-      <c r="AO27" s="27"/>
-      <c r="AP27" s="27"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
-      <c r="AS27" s="27"/>
-      <c r="AT27" s="27"/>
-      <c r="AU27" s="27"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
-      <c r="AX27" s="27"/>
-      <c r="AY27" s="27"/>
-      <c r="AZ27" s="27"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
       <c r="BA27" s="4"/>
       <c r="BB27" s="4"/>
-      <c r="BC27" s="27"/>
-      <c r="BD27" s="27"/>
-      <c r="BE27" s="27"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="19"/>
     </row>
     <row r="28" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="19" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="24" t="s">
+      <c r="J28" s="21"/>
+      <c r="K28" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="24" t="s">
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="27"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="27"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
-      <c r="AS28" s="27"/>
-      <c r="AT28" s="27"/>
-      <c r="AU28" s="27"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
-      <c r="AX28" s="27"/>
-      <c r="AY28" s="27"/>
-      <c r="AZ28" s="27"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
-      <c r="BC28" s="27"/>
-      <c r="BD28" s="27"/>
-      <c r="BE28" s="27"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="19"/>
     </row>
     <row r="29" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="19" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="24" t="s">
+      <c r="J29" s="21"/>
+      <c r="K29" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="24" t="s">
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="27"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="27"/>
-      <c r="AO29" s="27"/>
-      <c r="AP29" s="27"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
-      <c r="AS29" s="27"/>
-      <c r="AT29" s="27"/>
-      <c r="AU29" s="27"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
-      <c r="AX29" s="27"/>
-      <c r="AY29" s="27"/>
-      <c r="AZ29" s="27"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
-      <c r="BC29" s="27"/>
-      <c r="BD29" s="27"/>
-      <c r="BE29" s="27"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="19"/>
+      <c r="BE29" s="19"/>
     </row>
     <row r="30" spans="1:57" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="27"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="27"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
-      <c r="AS30" s="27"/>
-      <c r="AT30" s="27"/>
-      <c r="AU30" s="27"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
-      <c r="AX30" s="27"/>
-      <c r="AY30" s="27"/>
-      <c r="AZ30" s="27"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="19"/>
+      <c r="AZ30" s="19"/>
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
-      <c r="BC30" s="27"/>
-      <c r="BD30" s="27"/>
-      <c r="BE30" s="27"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="19"/>
+      <c r="BE30" s="19"/>
     </row>
     <row r="31" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="19" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="24" t="s">
+      <c r="J31" s="21"/>
+      <c r="K31" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="24" t="s">
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="27"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
-      <c r="AN31" s="27"/>
-      <c r="AO31" s="27"/>
-      <c r="AP31" s="27"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
       <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
-      <c r="AS31" s="27"/>
-      <c r="AT31" s="27"/>
-      <c r="AU31" s="27"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
-      <c r="AX31" s="27"/>
-      <c r="AY31" s="27"/>
-      <c r="AZ31" s="27"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19"/>
       <c r="BA31" s="4"/>
       <c r="BB31" s="4"/>
-      <c r="BC31" s="27"/>
-      <c r="BD31" s="27"/>
-      <c r="BE31" s="27"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="19"/>
+      <c r="BE31" s="19"/>
     </row>
-    <row r="32" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:57" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="19" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="26"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="27"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
-      <c r="AN32" s="27"/>
-      <c r="AO32" s="27"/>
-      <c r="AP32" s="27"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
-      <c r="AS32" s="27"/>
-      <c r="AT32" s="27"/>
-      <c r="AU32" s="27"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
       <c r="AV32" s="4"/>
       <c r="AW32" s="4"/>
-      <c r="AX32" s="27"/>
-      <c r="AY32" s="27"/>
-      <c r="AZ32" s="27"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
       <c r="BA32" s="4"/>
       <c r="BB32" s="4"/>
-      <c r="BC32" s="27"/>
-      <c r="BD32" s="27"/>
-      <c r="BE32" s="27"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="19"/>
+      <c r="BE32" s="19"/>
     </row>
-    <row r="33" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="29" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31"/>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="26"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="27"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="34"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
-      <c r="AS33" s="29"/>
-      <c r="AT33" s="30"/>
-      <c r="AU33" s="31"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="4"/>
-      <c r="AX33" s="29"/>
-      <c r="AY33" s="30"/>
-      <c r="AZ33" s="31"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="19"/>
       <c r="BA33" s="4"/>
       <c r="BB33" s="4"/>
-      <c r="BC33" s="32"/>
-      <c r="BD33" s="33"/>
-      <c r="BE33" s="34"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="19"/>
+      <c r="BE33" s="19"/>
     </row>
-    <row r="34" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="19" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="26"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="27"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4"/>
       <c r="AN34" s="32"/>
@@ -5908,72 +6059,72 @@
       <c r="AP34" s="34"/>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="34"/>
+      <c r="AS34" s="29"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="31"/>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
-      <c r="AX34" s="32"/>
-      <c r="AY34" s="33"/>
-      <c r="AZ34" s="34"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="30"/>
+      <c r="AZ34" s="31"/>
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
       <c r="BC34" s="32"/>
       <c r="BD34" s="33"/>
       <c r="BE34" s="34"/>
     </row>
-    <row r="35" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="19" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="24" t="s">
+      <c r="J35" s="21"/>
+      <c r="K35" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="25"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="25"/>
-      <c r="AK35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="27"/>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
       <c r="AN35" s="32"/>
@@ -5996,57 +6147,57 @@
       <c r="BE35" s="34"/>
     </row>
     <row r="36" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
       <c r="H36" s="31"/>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="24" t="s">
+      <c r="J36" s="21"/>
+      <c r="K36" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="24" t="s">
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="27"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
       <c r="AN36" s="32"/>
@@ -6069,57 +6220,57 @@
       <c r="BE36" s="34"/>
     </row>
     <row r="37" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="31"/>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="24" t="s">
+      <c r="J37" s="21"/>
+      <c r="K37" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="24" t="s">
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="27"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
       <c r="AN37" s="32"/>
@@ -6142,1157 +6293,1301 @@
       <c r="BE37" s="34"/>
     </row>
     <row r="38" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="19" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="24" t="s">
+      <c r="J38" s="21"/>
+      <c r="K38" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="24" t="s">
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="27"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="27"/>
-      <c r="AP38" s="27"/>
+      <c r="AN38" s="32"/>
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="34"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
-      <c r="AS38" s="27"/>
-      <c r="AT38" s="27"/>
-      <c r="AU38" s="27"/>
+      <c r="AS38" s="32"/>
+      <c r="AT38" s="33"/>
+      <c r="AU38" s="34"/>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
-      <c r="AX38" s="27"/>
-      <c r="AY38" s="27"/>
-      <c r="AZ38" s="27"/>
+      <c r="AX38" s="32"/>
+      <c r="AY38" s="33"/>
+      <c r="AZ38" s="34"/>
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
-      <c r="BC38" s="27"/>
-      <c r="BD38" s="27"/>
-      <c r="BE38" s="27"/>
+      <c r="BC38" s="32"/>
+      <c r="BD38" s="33"/>
+      <c r="BE38" s="34"/>
     </row>
-    <row r="39" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="19" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="24" t="s">
+      <c r="J39" s="21"/>
+      <c r="K39" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="24" t="s">
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="27"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="27"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="19"/>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
-      <c r="AS39" s="27"/>
-      <c r="AT39" s="27"/>
-      <c r="AU39" s="27"/>
+      <c r="AS39" s="19"/>
+      <c r="AT39" s="19"/>
+      <c r="AU39" s="19"/>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
-      <c r="AX39" s="27"/>
-      <c r="AY39" s="27"/>
-      <c r="AZ39" s="27"/>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="19"/>
+      <c r="AZ39" s="19"/>
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
-      <c r="BC39" s="27"/>
-      <c r="BD39" s="27"/>
-      <c r="BE39" s="27"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="19"/>
+      <c r="BE39" s="19"/>
     </row>
-    <row r="40" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="19" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="24" t="s">
+      <c r="J40" s="21"/>
+      <c r="K40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="24" t="s">
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="27"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4"/>
-      <c r="AS40" s="28"/>
-      <c r="AT40" s="28"/>
-      <c r="AU40" s="28"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
       <c r="AV40" s="4"/>
       <c r="AW40" s="4"/>
-      <c r="AX40" s="27"/>
-      <c r="AY40" s="27"/>
-      <c r="AZ40" s="27"/>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="19"/>
+      <c r="AZ40" s="19"/>
       <c r="BA40" s="4"/>
       <c r="BB40" s="4"/>
-      <c r="BC40" s="27"/>
-      <c r="BD40" s="27"/>
-      <c r="BE40" s="27"/>
+      <c r="BC40" s="19"/>
+      <c r="BD40" s="19"/>
+      <c r="BE40" s="19"/>
     </row>
-    <row r="41" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="19" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="24" t="s">
+      <c r="J41" s="21"/>
+      <c r="K41" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="24" t="s">
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="27"/>
       <c r="AG41" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="25"/>
-      <c r="AJ41" s="25"/>
-      <c r="AK41" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="27"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="27"/>
-      <c r="AP41" s="27"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="19"/>
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4"/>
-      <c r="AS41" s="27"/>
-      <c r="AT41" s="27"/>
-      <c r="AU41" s="27"/>
+      <c r="AS41" s="28"/>
+      <c r="AT41" s="28"/>
+      <c r="AU41" s="28"/>
       <c r="AV41" s="4"/>
       <c r="AW41" s="4"/>
-      <c r="AX41" s="27"/>
-      <c r="AY41" s="27"/>
-      <c r="AZ41" s="27"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="19"/>
+      <c r="AZ41" s="19"/>
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
-      <c r="BC41" s="27"/>
-      <c r="BD41" s="27"/>
-      <c r="BE41" s="27"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="19"/>
+      <c r="BE41" s="19"/>
     </row>
-    <row r="42" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="19" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
-      <c r="AJ42" s="25"/>
-      <c r="AK42" s="26"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="27"/>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="27"/>
-      <c r="AP42" s="27"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="19"/>
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4"/>
-      <c r="AS42" s="27"/>
-      <c r="AT42" s="27"/>
-      <c r="AU42" s="27"/>
+      <c r="AS42" s="19"/>
+      <c r="AT42" s="19"/>
+      <c r="AU42" s="19"/>
       <c r="AV42" s="4"/>
       <c r="AW42" s="4"/>
-      <c r="AX42" s="27"/>
-      <c r="AY42" s="27"/>
-      <c r="AZ42" s="27"/>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="19"/>
+      <c r="AZ42" s="19"/>
       <c r="BA42" s="4"/>
       <c r="BB42" s="4"/>
-      <c r="BC42" s="27"/>
-      <c r="BD42" s="27"/>
-      <c r="BE42" s="27"/>
+      <c r="BC42" s="19"/>
+      <c r="BD42" s="19"/>
+      <c r="BE42" s="19"/>
     </row>
     <row r="43" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="19" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="24" t="s">
+      <c r="J43" s="21"/>
+      <c r="K43" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="27"/>
       <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="19"/>
       <c r="AQ43" s="4"/>
       <c r="AR43" s="4"/>
-      <c r="AS43" s="27"/>
-      <c r="AT43" s="27"/>
-      <c r="AU43" s="27"/>
+      <c r="AS43" s="19"/>
+      <c r="AT43" s="19"/>
+      <c r="AU43" s="19"/>
       <c r="AV43" s="4"/>
       <c r="AW43" s="4"/>
-      <c r="AX43" s="27"/>
-      <c r="AY43" s="27"/>
-      <c r="AZ43" s="27"/>
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="19"/>
       <c r="BA43" s="4"/>
       <c r="BB43" s="4"/>
-      <c r="BC43" s="27"/>
-      <c r="BD43" s="27"/>
-      <c r="BE43" s="27"/>
+      <c r="BC43" s="19"/>
+      <c r="BD43" s="19"/>
+      <c r="BE43" s="19"/>
     </row>
     <row r="44" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="19" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="24" t="s">
+      <c r="J44" s="21"/>
+      <c r="K44" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="25"/>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="25"/>
-      <c r="AJ44" s="25"/>
-      <c r="AK44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="27"/>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4"/>
-      <c r="AN44" s="27"/>
-      <c r="AO44" s="27"/>
-      <c r="AP44" s="27"/>
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="19"/>
       <c r="AQ44" s="4"/>
       <c r="AR44" s="4"/>
-      <c r="AS44" s="27"/>
-      <c r="AT44" s="27"/>
-      <c r="AU44" s="27"/>
+      <c r="AS44" s="19"/>
+      <c r="AT44" s="19"/>
+      <c r="AU44" s="19"/>
       <c r="AV44" s="4"/>
       <c r="AW44" s="4"/>
-      <c r="AX44" s="27"/>
-      <c r="AY44" s="27"/>
-      <c r="AZ44" s="27"/>
+      <c r="AX44" s="19"/>
+      <c r="AY44" s="19"/>
+      <c r="AZ44" s="19"/>
       <c r="BA44" s="4"/>
       <c r="BB44" s="4"/>
-      <c r="BC44" s="27"/>
-      <c r="BD44" s="27"/>
-      <c r="BE44" s="27"/>
+      <c r="BC44" s="19"/>
+      <c r="BD44" s="19"/>
+      <c r="BE44" s="19"/>
     </row>
-    <row r="45" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="19" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J45" s="20"/>
-      <c r="K45" s="24" t="s">
+      <c r="J45" s="21"/>
+      <c r="K45" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="25"/>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="25"/>
-      <c r="AK45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="27"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
-      <c r="AN45" s="27"/>
-      <c r="AO45" s="27"/>
-      <c r="AP45" s="27"/>
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="19"/>
       <c r="AQ45" s="4"/>
       <c r="AR45" s="4"/>
-      <c r="AS45" s="27"/>
-      <c r="AT45" s="27"/>
-      <c r="AU45" s="27"/>
+      <c r="AS45" s="19"/>
+      <c r="AT45" s="19"/>
+      <c r="AU45" s="19"/>
       <c r="AV45" s="4"/>
       <c r="AW45" s="4"/>
-      <c r="AX45" s="27"/>
-      <c r="AY45" s="27"/>
-      <c r="AZ45" s="27"/>
+      <c r="AX45" s="19"/>
+      <c r="AY45" s="19"/>
+      <c r="AZ45" s="19"/>
       <c r="BA45" s="4"/>
       <c r="BB45" s="4"/>
-      <c r="BC45" s="27"/>
-      <c r="BD45" s="27"/>
-      <c r="BE45" s="27"/>
+      <c r="BC45" s="19"/>
+      <c r="BD45" s="19"/>
+      <c r="BE45" s="19"/>
     </row>
     <row r="46" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="19" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="24" t="s">
+      <c r="J46" s="21"/>
+      <c r="K46" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="26"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+      <c r="AJ46" s="26"/>
+      <c r="AK46" s="27"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="27"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="19"/>
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
-      <c r="AS46" s="27"/>
-      <c r="AT46" s="27"/>
-      <c r="AU46" s="27"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="19"/>
       <c r="AV46" s="4"/>
       <c r="AW46" s="4"/>
-      <c r="AX46" s="27"/>
-      <c r="AY46" s="27"/>
-      <c r="AZ46" s="27"/>
+      <c r="AX46" s="19"/>
+      <c r="AY46" s="19"/>
+      <c r="AZ46" s="19"/>
       <c r="BA46" s="4"/>
       <c r="BB46" s="4"/>
-      <c r="BC46" s="27"/>
-      <c r="BD46" s="27"/>
-      <c r="BE46" s="27"/>
+      <c r="BC46" s="19"/>
+      <c r="BD46" s="19"/>
+      <c r="BE46" s="19"/>
     </row>
     <row r="47" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="19" t="s">
+      <c r="A47" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="24" t="s">
+      <c r="J47" s="21"/>
+      <c r="K47" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="24" t="s">
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="25"/>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="27"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="27"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19"/>
       <c r="AQ47" s="4"/>
       <c r="AR47" s="4"/>
-      <c r="AS47" s="27"/>
-      <c r="AT47" s="27"/>
-      <c r="AU47" s="27"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19"/>
+      <c r="AU47" s="19"/>
       <c r="AV47" s="4"/>
       <c r="AW47" s="4"/>
-      <c r="AX47" s="27"/>
-      <c r="AY47" s="27"/>
-      <c r="AZ47" s="27"/>
+      <c r="AX47" s="19"/>
+      <c r="AY47" s="19"/>
+      <c r="AZ47" s="19"/>
       <c r="BA47" s="4"/>
       <c r="BB47" s="4"/>
-      <c r="BC47" s="27"/>
-      <c r="BD47" s="27"/>
-      <c r="BE47" s="27"/>
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="19"/>
     </row>
     <row r="48" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="19" t="s">
+      <c r="A48" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J48" s="20"/>
-      <c r="K48" s="24" t="s">
+      <c r="J48" s="21"/>
+      <c r="K48" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="24" t="s">
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="26"/>
-      <c r="AG48" s="25"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="26"/>
+      <c r="AK48" s="27"/>
       <c r="AL48" s="4"/>
       <c r="AM48" s="4"/>
-      <c r="AN48" s="27"/>
-      <c r="AO48" s="27"/>
-      <c r="AP48" s="27"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="19"/>
+      <c r="AP48" s="19"/>
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
-      <c r="AS48" s="27"/>
-      <c r="AT48" s="27"/>
-      <c r="AU48" s="27"/>
+      <c r="AS48" s="19"/>
+      <c r="AT48" s="19"/>
+      <c r="AU48" s="19"/>
       <c r="AV48" s="4"/>
       <c r="AW48" s="4"/>
-      <c r="AX48" s="27"/>
-      <c r="AY48" s="27"/>
-      <c r="AZ48" s="27"/>
+      <c r="AX48" s="19"/>
+      <c r="AY48" s="19"/>
+      <c r="AZ48" s="19"/>
       <c r="BA48" s="4"/>
       <c r="BB48" s="4"/>
-      <c r="BC48" s="27"/>
-      <c r="BD48" s="27"/>
-      <c r="BE48" s="27"/>
+      <c r="BC48" s="19"/>
+      <c r="BD48" s="19"/>
+      <c r="BE48" s="19"/>
     </row>
     <row r="49" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="19" t="s">
+      <c r="A49" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="24" t="s">
+      <c r="J49" s="21"/>
+      <c r="K49" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="26"/>
-      <c r="AG49" s="25"/>
-      <c r="AH49" s="25"/>
-      <c r="AI49" s="25"/>
-      <c r="AJ49" s="25"/>
-      <c r="AK49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="26"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="26"/>
+      <c r="AK49" s="27"/>
       <c r="AL49" s="4"/>
       <c r="AM49" s="4"/>
-      <c r="AN49" s="27"/>
-      <c r="AO49" s="27"/>
-      <c r="AP49" s="27"/>
+      <c r="AN49" s="19"/>
+      <c r="AO49" s="19"/>
+      <c r="AP49" s="19"/>
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
-      <c r="AS49" s="27"/>
-      <c r="AT49" s="27"/>
-      <c r="AU49" s="27"/>
+      <c r="AS49" s="19"/>
+      <c r="AT49" s="19"/>
+      <c r="AU49" s="19"/>
       <c r="AV49" s="4"/>
       <c r="AW49" s="4"/>
-      <c r="AX49" s="27"/>
-      <c r="AY49" s="27"/>
-      <c r="AZ49" s="27"/>
+      <c r="AX49" s="19"/>
+      <c r="AY49" s="19"/>
+      <c r="AZ49" s="19"/>
       <c r="BA49" s="4"/>
       <c r="BB49" s="4"/>
-      <c r="BC49" s="27"/>
-      <c r="BD49" s="27"/>
-      <c r="BE49" s="27"/>
+      <c r="BC49" s="19"/>
+      <c r="BD49" s="19"/>
+      <c r="BE49" s="19"/>
     </row>
     <row r="50" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="19" t="s">
+      <c r="A50" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="20"/>
-      <c r="K50" s="24" t="s">
+      <c r="J50" s="21"/>
+      <c r="K50" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="24" t="s">
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="25"/>
-      <c r="AD50" s="25"/>
-      <c r="AE50" s="25"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="25"/>
-      <c r="AH50" s="25"/>
-      <c r="AI50" s="25"/>
-      <c r="AJ50" s="25"/>
-      <c r="AK50" s="26"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="26"/>
+      <c r="AK50" s="27"/>
       <c r="AL50" s="4"/>
       <c r="AM50" s="4"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="27"/>
-      <c r="AP50" s="27"/>
+      <c r="AN50" s="19"/>
+      <c r="AO50" s="19"/>
+      <c r="AP50" s="19"/>
       <c r="AQ50" s="4"/>
       <c r="AR50" s="4"/>
-      <c r="AS50" s="27"/>
-      <c r="AT50" s="27"/>
-      <c r="AU50" s="27"/>
+      <c r="AS50" s="19"/>
+      <c r="AT50" s="19"/>
+      <c r="AU50" s="19"/>
       <c r="AV50" s="4"/>
       <c r="AW50" s="4"/>
-      <c r="AX50" s="27"/>
-      <c r="AY50" s="27"/>
-      <c r="AZ50" s="27"/>
+      <c r="AX50" s="19"/>
+      <c r="AY50" s="19"/>
+      <c r="AZ50" s="19"/>
       <c r="BA50" s="4"/>
       <c r="BB50" s="4"/>
-      <c r="BC50" s="27"/>
-      <c r="BD50" s="27"/>
-      <c r="BE50" s="27"/>
+      <c r="BC50" s="19"/>
+      <c r="BD50" s="19"/>
+      <c r="BE50" s="19"/>
     </row>
-    <row r="51" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="19" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J51" s="20"/>
-      <c r="K51" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25"/>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH51" s="25"/>
-      <c r="AI51" s="25"/>
-      <c r="AJ51" s="25"/>
-      <c r="AK51" s="26"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="26"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="27"/>
       <c r="AL51" s="4"/>
       <c r="AM51" s="4"/>
-      <c r="AN51" s="27"/>
-      <c r="AO51" s="27"/>
-      <c r="AP51" s="27"/>
+      <c r="AN51" s="19"/>
+      <c r="AO51" s="19"/>
+      <c r="AP51" s="19"/>
       <c r="AQ51" s="4"/>
       <c r="AR51" s="4"/>
-      <c r="AS51" s="27"/>
-      <c r="AT51" s="27"/>
-      <c r="AU51" s="27"/>
+      <c r="AS51" s="19"/>
+      <c r="AT51" s="19"/>
+      <c r="AU51" s="19"/>
       <c r="AV51" s="4"/>
       <c r="AW51" s="4"/>
-      <c r="AX51" s="27"/>
-      <c r="AY51" s="27"/>
-      <c r="AZ51" s="27"/>
+      <c r="AX51" s="19"/>
+      <c r="AY51" s="19"/>
+      <c r="AZ51" s="19"/>
       <c r="BA51" s="4"/>
       <c r="BB51" s="4"/>
-      <c r="BC51" s="27"/>
-      <c r="BD51" s="27"/>
-      <c r="BE51" s="27"/>
+      <c r="BC51" s="19"/>
+      <c r="BD51" s="19"/>
+      <c r="BE51" s="19"/>
     </row>
-    <row r="52" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="J52" s="20"/>
-      <c r="K52" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="24" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="26"/>
-      <c r="AA52" s="24" t="s">
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="21"/>
+      <c r="K52" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="25"/>
-      <c r="AD52" s="25"/>
-      <c r="AE52" s="25"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH52" s="25"/>
-      <c r="AI52" s="25"/>
-      <c r="AJ52" s="25"/>
-      <c r="AK52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="26"/>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB52" s="26"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="26"/>
+      <c r="AE52" s="26"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH52" s="26"/>
+      <c r="AI52" s="26"/>
+      <c r="AJ52" s="26"/>
+      <c r="AK52" s="27"/>
       <c r="AL52" s="4"/>
       <c r="AM52" s="4"/>
-      <c r="AN52" s="27"/>
-      <c r="AO52" s="27"/>
-      <c r="AP52" s="27"/>
+      <c r="AN52" s="19"/>
+      <c r="AO52" s="19"/>
+      <c r="AP52" s="19"/>
       <c r="AQ52" s="4"/>
       <c r="AR52" s="4"/>
-      <c r="AS52" s="27"/>
-      <c r="AT52" s="27"/>
-      <c r="AU52" s="27"/>
+      <c r="AS52" s="19"/>
+      <c r="AT52" s="19"/>
+      <c r="AU52" s="19"/>
       <c r="AV52" s="4"/>
       <c r="AW52" s="4"/>
-      <c r="AX52" s="27"/>
-      <c r="AY52" s="27"/>
-      <c r="AZ52" s="27"/>
+      <c r="AX52" s="19"/>
+      <c r="AY52" s="19"/>
+      <c r="AZ52" s="19"/>
       <c r="BA52" s="4"/>
       <c r="BB52" s="4"/>
-      <c r="BC52" s="27"/>
-      <c r="BD52" s="27"/>
-      <c r="BE52" s="27"/>
+      <c r="BC52" s="19"/>
+      <c r="BD52" s="19"/>
+      <c r="BE52" s="19"/>
     </row>
     <row r="53" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J53" s="20"/>
-      <c r="K53" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="25"/>
-      <c r="AD53" s="25"/>
-      <c r="AE53" s="25"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH53" s="25"/>
-      <c r="AI53" s="25"/>
-      <c r="AJ53" s="25"/>
-      <c r="AK53" s="26"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
+      <c r="W53" s="26"/>
+      <c r="X53" s="26"/>
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB53" s="26"/>
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="26"/>
+      <c r="AE53" s="26"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH53" s="26"/>
+      <c r="AI53" s="26"/>
+      <c r="AJ53" s="26"/>
+      <c r="AK53" s="27"/>
       <c r="AL53" s="4"/>
       <c r="AM53" s="4"/>
-      <c r="AN53" s="27"/>
-      <c r="AO53" s="27"/>
-      <c r="AP53" s="27"/>
+      <c r="AN53" s="19"/>
+      <c r="AO53" s="19"/>
+      <c r="AP53" s="19"/>
       <c r="AQ53" s="4"/>
       <c r="AR53" s="4"/>
-      <c r="AS53" s="27"/>
-      <c r="AT53" s="27"/>
-      <c r="AU53" s="27"/>
+      <c r="AS53" s="19"/>
+      <c r="AT53" s="19"/>
+      <c r="AU53" s="19"/>
       <c r="AV53" s="4"/>
       <c r="AW53" s="4"/>
-      <c r="AX53" s="27"/>
-      <c r="AY53" s="27"/>
-      <c r="AZ53" s="27"/>
+      <c r="AX53" s="19"/>
+      <c r="AY53" s="19"/>
+      <c r="AZ53" s="19"/>
       <c r="BA53" s="4"/>
       <c r="BB53" s="4"/>
-      <c r="BC53" s="27"/>
-      <c r="BD53" s="27"/>
-      <c r="BE53" s="27"/>
+      <c r="BC53" s="19"/>
+      <c r="BD53" s="19"/>
+      <c r="BE53" s="19"/>
+    </row>
+    <row r="54" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="21"/>
+      <c r="K54" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="26"/>
+      <c r="W54" s="26"/>
+      <c r="X54" s="26"/>
+      <c r="Y54" s="26"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB54" s="26"/>
+      <c r="AC54" s="26"/>
+      <c r="AD54" s="26"/>
+      <c r="AE54" s="26"/>
+      <c r="AF54" s="27"/>
+      <c r="AG54" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH54" s="26"/>
+      <c r="AI54" s="26"/>
+      <c r="AJ54" s="26"/>
+      <c r="AK54" s="27"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="19"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="19"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="19"/>
+      <c r="AU54" s="19"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="19"/>
+      <c r="AY54" s="19"/>
+      <c r="AZ54" s="19"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="19"/>
+      <c r="BD54" s="19"/>
+      <c r="BE54" s="19"/>
+    </row>
+    <row r="55" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J55" s="21"/>
+      <c r="K55" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="26"/>
+      <c r="X55" s="26"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="26"/>
+      <c r="AE55" s="26"/>
+      <c r="AF55" s="27"/>
+      <c r="AG55" s="25"/>
+      <c r="AH55" s="26"/>
+      <c r="AI55" s="26"/>
+      <c r="AJ55" s="26"/>
+      <c r="AK55" s="27"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="19"/>
+      <c r="AO55" s="19"/>
+      <c r="AP55" s="19"/>
+      <c r="AQ55" s="4"/>
+      <c r="AR55" s="4"/>
+      <c r="AS55" s="19"/>
+      <c r="AT55" s="19"/>
+      <c r="AU55" s="19"/>
+      <c r="AV55" s="4"/>
+      <c r="AW55" s="4"/>
+      <c r="AX55" s="19"/>
+      <c r="AY55" s="19"/>
+      <c r="AZ55" s="19"/>
+      <c r="BA55" s="4"/>
+      <c r="BB55" s="4"/>
+      <c r="BC55" s="19"/>
+      <c r="BD55" s="19"/>
+      <c r="BE55" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="530">
+  <mergeCells count="552">
     <mergeCell ref="AS29:AU29"/>
     <mergeCell ref="AX29:AZ29"/>
     <mergeCell ref="BC29:BE29"/>
@@ -7304,41 +7599,42 @@
     <mergeCell ref="AS31:AU31"/>
     <mergeCell ref="AX31:AZ31"/>
     <mergeCell ref="BC31:BE31"/>
-    <mergeCell ref="AX53:AZ53"/>
-    <mergeCell ref="BC53:BE53"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:P53"/>
-    <mergeCell ref="Q53:Z53"/>
-    <mergeCell ref="AA53:AF53"/>
-    <mergeCell ref="AG53:AK53"/>
-    <mergeCell ref="AN53:AP53"/>
-    <mergeCell ref="AS53:AU53"/>
-    <mergeCell ref="AS39:AU39"/>
-    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="AX54:AZ54"/>
+    <mergeCell ref="BC54:BE54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:P54"/>
+    <mergeCell ref="Q54:Z54"/>
+    <mergeCell ref="AA54:AF54"/>
+    <mergeCell ref="AG54:AK54"/>
+    <mergeCell ref="AN54:AP54"/>
+    <mergeCell ref="AS54:AU54"/>
+    <mergeCell ref="AS40:AU40"/>
+    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="BC41:BE41"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="Q41:Z41"/>
+    <mergeCell ref="AA41:AF41"/>
+    <mergeCell ref="AN41:AP41"/>
     <mergeCell ref="BC40:BE40"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="AA40:AF40"/>
-    <mergeCell ref="AN40:AP40"/>
-    <mergeCell ref="BC39:BE39"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="AA37:AF37"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AN37:AP37"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="BC36:BE36"/>
-    <mergeCell ref="AA35:AF35"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="AA38:AF38"/>
+    <mergeCell ref="AG38:AK38"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AS38:AU38"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="K36:P36"/>
-    <mergeCell ref="BC42:BE42"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BC37:BE37"/>
+    <mergeCell ref="AA36:AF36"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="BC43:BE43"/>
     <mergeCell ref="AN9:AP9"/>
     <mergeCell ref="I8:J9"/>
     <mergeCell ref="AS9:AU9"/>
@@ -7347,21 +7643,21 @@
     <mergeCell ref="AQ8:AU8"/>
     <mergeCell ref="AV8:AZ8"/>
     <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AN42:AP42"/>
-    <mergeCell ref="AS42:AU42"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="BC35:BE35"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BC37:BE37"/>
+    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="AS43:AU43"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="BC36:BE36"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="AX43:AZ43"/>
+    <mergeCell ref="BC42:BE42"/>
+    <mergeCell ref="BC39:BE39"/>
+    <mergeCell ref="AS37:AU37"/>
     <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="BC41:BE41"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AX41:AZ41"/>
     <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AG36:AK36"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AS38:AU38"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="AS39:AU39"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT3:AU3"/>
     <mergeCell ref="A1:C1"/>
@@ -7392,17 +7688,17 @@
     <mergeCell ref="BC5:BE5"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX35:AZ35"/>
     <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AN41:AP41"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="AG38:AK38"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AG35:AK35"/>
-    <mergeCell ref="AN35:AP35"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="AN42:AP42"/>
+    <mergeCell ref="AS42:AU42"/>
+    <mergeCell ref="AG39:AK39"/>
+    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="AG36:AK36"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AS36:AU36"/>
     <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="AX41:AZ41"/>
     <mergeCell ref="AS27:AU27"/>
     <mergeCell ref="AX27:AZ27"/>
     <mergeCell ref="AS13:AU13"/>
@@ -7412,36 +7708,36 @@
     <mergeCell ref="AX25:AZ25"/>
     <mergeCell ref="AX19:AZ19"/>
     <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG34:AK34"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="AA40:AF40"/>
+    <mergeCell ref="AG40:AK40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="AG42:AK42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="Q42:Z42"/>
+    <mergeCell ref="BC10:BE10"/>
     <mergeCell ref="AG33:AK33"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="AA39:AF39"/>
-    <mergeCell ref="AG39:AK39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="AG41:AK41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:P41"/>
-    <mergeCell ref="Q41:Z41"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="AG32:AK32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BC32:BE32"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="BC34:BE34"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="AN33:AP33"/>
     <mergeCell ref="AS33:AU33"/>
     <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="BC35:BE35"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BC34:BE34"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AN35:AP35"/>
+    <mergeCell ref="AG35:AK35"/>
+    <mergeCell ref="AA35:AF35"/>
+    <mergeCell ref="AA34:AF34"/>
     <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AG34:AK34"/>
-    <mergeCell ref="AA34:AF34"/>
-    <mergeCell ref="AA33:AF33"/>
-    <mergeCell ref="AN33:AP33"/>
     <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AS35:AU35"/>
     <mergeCell ref="BC28:BE28"/>
     <mergeCell ref="AN12:AP12"/>
     <mergeCell ref="AS12:AU12"/>
@@ -7453,7 +7749,7 @@
     <mergeCell ref="AA9:AF9"/>
     <mergeCell ref="AG9:AK9"/>
     <mergeCell ref="K8:P9"/>
-    <mergeCell ref="AA32:AF32"/>
+    <mergeCell ref="AA33:AF33"/>
     <mergeCell ref="C8:H9"/>
     <mergeCell ref="Q8:Z9"/>
     <mergeCell ref="AA11:AF11"/>
@@ -7471,161 +7767,160 @@
     <mergeCell ref="K13:P13"/>
     <mergeCell ref="Q13:Z13"/>
     <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="Q10:Z10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:P10"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="C33:H33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="K33:P33"/>
-    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
     <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="Q34:Z34"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:P11"/>
     <mergeCell ref="Q11:Z11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:P45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="Q43:Z43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:P44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="Q35:Z35"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q44:Z44"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="C39:H39"/>
     <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="Q42:Z42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:P43"/>
-    <mergeCell ref="Q43:Z43"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BC45:BE45"/>
+    <mergeCell ref="AG44:AK44"/>
+    <mergeCell ref="AN44:AP44"/>
     <mergeCell ref="AS44:AU44"/>
     <mergeCell ref="AX44:AZ44"/>
     <mergeCell ref="BC44:BE44"/>
-    <mergeCell ref="AG43:AK43"/>
-    <mergeCell ref="AN43:AP43"/>
-    <mergeCell ref="AS43:AU43"/>
-    <mergeCell ref="AX43:AZ43"/>
-    <mergeCell ref="BC43:BE43"/>
-    <mergeCell ref="Q44:Z44"/>
-    <mergeCell ref="AA43:AF43"/>
+    <mergeCell ref="Q45:Z45"/>
     <mergeCell ref="AA44:AF44"/>
-    <mergeCell ref="AG44:AK44"/>
-    <mergeCell ref="AN44:AP44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="K45:P45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="K46:P46"/>
-    <mergeCell ref="Q45:Z45"/>
-    <mergeCell ref="BC45:BE45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AX45:AZ45"/>
     <mergeCell ref="AA45:AF45"/>
     <mergeCell ref="AG45:AK45"/>
     <mergeCell ref="AN45:AP45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="K46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="K47:P47"/>
+    <mergeCell ref="Q46:Z46"/>
+    <mergeCell ref="BC46:BE46"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="Q46:Z46"/>
-    <mergeCell ref="BC47:BE47"/>
+    <mergeCell ref="AS46:AU46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="AA46:AF46"/>
     <mergeCell ref="AG46:AK46"/>
     <mergeCell ref="AN46:AP46"/>
-    <mergeCell ref="AS46:AU46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="BC46:BE46"/>
-    <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:P47"/>
+    <mergeCell ref="Q47:Z47"/>
+    <mergeCell ref="BC48:BE48"/>
+    <mergeCell ref="AG47:AK47"/>
+    <mergeCell ref="AN47:AP47"/>
     <mergeCell ref="AS47:AU47"/>
     <mergeCell ref="AX47:AZ47"/>
-    <mergeCell ref="AA46:AF46"/>
-    <mergeCell ref="AA47:AF47"/>
-    <mergeCell ref="AG47:AK47"/>
-    <mergeCell ref="AN47:AP47"/>
+    <mergeCell ref="BC47:BE47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="K48:P48"/>
-    <mergeCell ref="Q48:Z48"/>
+    <mergeCell ref="AS48:AU48"/>
+    <mergeCell ref="AX48:AZ48"/>
+    <mergeCell ref="AA47:AF47"/>
+    <mergeCell ref="AA48:AF48"/>
     <mergeCell ref="AG48:AK48"/>
     <mergeCell ref="AN48:AP48"/>
-    <mergeCell ref="AS48:AU48"/>
-    <mergeCell ref="Q47:Z47"/>
-    <mergeCell ref="AA48:AF48"/>
-    <mergeCell ref="AA50:AF50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:P49"/>
+    <mergeCell ref="Q49:Z49"/>
+    <mergeCell ref="AG49:AK49"/>
+    <mergeCell ref="AN49:AP49"/>
+    <mergeCell ref="AS49:AU49"/>
+    <mergeCell ref="Q48:Z48"/>
+    <mergeCell ref="AA49:AF49"/>
+    <mergeCell ref="AA51:AF51"/>
+    <mergeCell ref="BC50:BE50"/>
+    <mergeCell ref="AG51:AK51"/>
+    <mergeCell ref="AN51:AP51"/>
+    <mergeCell ref="AS51:AU51"/>
+    <mergeCell ref="AX51:AZ51"/>
+    <mergeCell ref="BC51:BE51"/>
+    <mergeCell ref="AX49:AZ49"/>
     <mergeCell ref="BC49:BE49"/>
-    <mergeCell ref="AG50:AK50"/>
-    <mergeCell ref="AN50:AP50"/>
     <mergeCell ref="AS50:AU50"/>
     <mergeCell ref="AX50:AZ50"/>
-    <mergeCell ref="BC50:BE50"/>
-    <mergeCell ref="AX48:AZ48"/>
-    <mergeCell ref="BC48:BE48"/>
-    <mergeCell ref="AS49:AU49"/>
-    <mergeCell ref="AX49:AZ49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:P51"/>
+    <mergeCell ref="Q51:Z51"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:H50"/>
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="K50:P50"/>
     <mergeCell ref="Q50:Z50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:P49"/>
-    <mergeCell ref="Q49:Z49"/>
-    <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:Z22"/>
     <mergeCell ref="AA22:AF22"/>
     <mergeCell ref="AG22:AK22"/>
     <mergeCell ref="AN22:AP22"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="AA49:AF49"/>
-    <mergeCell ref="AG49:AK49"/>
-    <mergeCell ref="AN49:AP49"/>
-    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="AA50:AF50"/>
+    <mergeCell ref="AG50:AK50"/>
+    <mergeCell ref="AN50:AP50"/>
+    <mergeCell ref="K39:P39"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:P27"/>
-    <mergeCell ref="AA36:AF36"/>
+    <mergeCell ref="AA37:AF37"/>
+    <mergeCell ref="AA43:AF43"/>
+    <mergeCell ref="AG43:AK43"/>
     <mergeCell ref="AA42:AF42"/>
-    <mergeCell ref="AG42:AK42"/>
-    <mergeCell ref="AA41:AF41"/>
-    <mergeCell ref="AA38:AF38"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="AA39:AF39"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="I37:J37"/>
     <mergeCell ref="AG12:AK12"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A40:B40"/>
+    <mergeCell ref="AG41:AK41"/>
+    <mergeCell ref="AS41:AU41"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="AG40:AK40"/>
-    <mergeCell ref="AS40:AU40"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="I19:J19"/>
@@ -7780,8 +8075,19 @@
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="Q12:Z12"/>
     <mergeCell ref="AA12:AF12"/>
-    <mergeCell ref="AX51:AZ51"/>
-    <mergeCell ref="BC51:BE51"/>
+    <mergeCell ref="AX52:AZ52"/>
+    <mergeCell ref="BC52:BE52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:P53"/>
+    <mergeCell ref="Q53:Z53"/>
+    <mergeCell ref="AA53:AF53"/>
+    <mergeCell ref="AG53:AK53"/>
+    <mergeCell ref="AN53:AP53"/>
+    <mergeCell ref="AS53:AU53"/>
+    <mergeCell ref="AX53:AZ53"/>
+    <mergeCell ref="BC53:BE53"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="I52:J52"/>
@@ -7791,17 +8097,6 @@
     <mergeCell ref="AG52:AK52"/>
     <mergeCell ref="AN52:AP52"/>
     <mergeCell ref="AS52:AU52"/>
-    <mergeCell ref="AX52:AZ52"/>
-    <mergeCell ref="BC52:BE52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:P51"/>
-    <mergeCell ref="Q51:Z51"/>
-    <mergeCell ref="AA51:AF51"/>
-    <mergeCell ref="AG51:AK51"/>
-    <mergeCell ref="AN51:AP51"/>
-    <mergeCell ref="AS51:AU51"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="I31:J31"/>
@@ -7823,13 +8118,35 @@
     <mergeCell ref="Q30:Z30"/>
     <mergeCell ref="AA30:AF30"/>
     <mergeCell ref="AG30:AK30"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BC32:BE32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="AA32:AF32"/>
+    <mergeCell ref="AG32:AK32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="AX55:AZ55"/>
+    <mergeCell ref="BC55:BE55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:P55"/>
+    <mergeCell ref="Q55:Z55"/>
+    <mergeCell ref="AA55:AF55"/>
+    <mergeCell ref="AG55:AK55"/>
+    <mergeCell ref="AN55:AP55"/>
+    <mergeCell ref="AS55:AU55"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J55">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ10:AR53 AV10:AW53 AL10:AM53 BA10:BB53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BB55 AL10:AM55 AV10:AW55 AQ10:AR55">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="174">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -1358,6 +1358,70 @@
     </rPh>
     <rPh sb="118" eb="120">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>中西悠菜</t>
+    <rPh sb="0" eb="2">
+      <t>ナカニシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>25, 27-47</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動承諾されない(会議招集メールが受信トレイに入ったまま、自動で返信されない)</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カイギショウシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Virtual boxで新しく起動したら、成功した</t>
+    <rPh sb="12" eb="13">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2170,6 +2234,33 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2182,33 +2273,6 @@
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2236,200 +2300,200 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2821,7 +2885,7 @@
   </sheetPr>
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:AB6"/>
     </sheetView>
   </sheetViews>
@@ -2832,40 +2896,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -2873,38 +2937,38 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -2912,753 +2976,830 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="6" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="8"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="17"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18">
+      <c r="A4" s="9">
         <v>43097</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="10" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="12"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43111</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="10" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="10" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="12"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43116</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="10" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="10" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="12"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>43129</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="10" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="10" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="12"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
     </row>
     <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
     </row>
     <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="12"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
     </row>
     <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="12"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
     </row>
     <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="12"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="12"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="G3:AB3"/>
+    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:AB4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:AB19"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:AB21"/>
     <mergeCell ref="AC23:AF23"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:F22"/>
@@ -3667,83 +3808,6 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:AB23"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:AB21"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:AB19"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:AB4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="G3:AB3"/>
-    <mergeCell ref="A1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3759,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AQ53" sqref="AQ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3783,508 +3847,514 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="90" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="60" t="s">
+      <c r="AP1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60" t="s">
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60" t="s">
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="49" t="s">
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="60" t="s">
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="81" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="70" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="63"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="43">
+        <v>43130</v>
+      </c>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="70" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="64"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="85"/>
-      <c r="AK4" s="85"/>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="70" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="70"/>
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="70"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="89"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="70" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="65"/>
+      <c r="AK5" s="65"/>
+      <c r="AL5" s="65"/>
+      <c r="AM5" s="65"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="70"/>
-      <c r="AT5" s="65"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="66"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="63"/>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="70"/>
+      <c r="BD5" s="70"/>
+      <c r="BE5" s="70"/>
     </row>
     <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="60" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="46" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="46" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="46" t="s">
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="46" t="s">
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="60" t="s">
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60" t="s">
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="60"/>
-      <c r="AU8" s="60"/>
-      <c r="AV8" s="60" t="s">
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="60"/>
-      <c r="AZ8" s="60"/>
-      <c r="BA8" s="60" t="s">
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="60"/>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
+      <c r="BB8" s="34"/>
+      <c r="BC8" s="34"/>
+      <c r="BD8" s="34"/>
+      <c r="BE8" s="34"/>
     </row>
     <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="49" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="52" t="s">
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="54"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="83"/>
       <c r="AL9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AM9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="60" t="s">
+      <c r="AN9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
       <c r="AQ9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="60" t="s">
+      <c r="AS9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
       <c r="AV9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX9" s="60" t="s">
+      <c r="AX9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
       <c r="BA9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC9" s="60" t="s">
+      <c r="BC9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
     </row>
     <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="20" t="s">
         <v>49</v>
       </c>
@@ -4297,18 +4367,18 @@
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="27"/>
-      <c r="Q10" s="36" t="s">
+      <c r="Q10" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="88"/>
       <c r="AA10" s="25" t="s">
         <v>51</v>
       </c>
@@ -4323,10 +4393,12 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="27"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
+      <c r="AM10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="19"/>
@@ -4348,14 +4420,14 @@
         <v>114</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="20" t="s">
         <v>49</v>
       </c>
@@ -4368,18 +4440,18 @@
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="27"/>
-      <c r="Q11" s="39" t="s">
+      <c r="Q11" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="41"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
       <c r="AA11" s="25" t="s">
         <v>55</v>
       </c>
@@ -4396,25 +4468,27 @@
       <c r="AJ11" s="26"/>
       <c r="AK11" s="27"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="34"/>
+      <c r="AM11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="33"/>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="34"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="33"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="32"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="34"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="33"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="34"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="33"/>
     </row>
     <row r="12" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
@@ -4469,39 +4543,41 @@
       <c r="AJ12" s="26"/>
       <c r="AK12" s="27"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="34"/>
+      <c r="AM12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="33"/>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="34"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="33"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="32"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="34"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="33"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="32"/>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="34"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="32"/>
+      <c r="BE12" s="33"/>
     </row>
     <row r="13" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="20" t="s">
         <v>49</v>
       </c>
@@ -4542,39 +4618,41 @@
       <c r="AJ13" s="26"/>
       <c r="AK13" s="27"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="34"/>
+      <c r="AM13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="33"/>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="34"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="33"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
-      <c r="AX13" s="32"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="34"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="33"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
-      <c r="BC13" s="32"/>
-      <c r="BD13" s="33"/>
-      <c r="BE13" s="34"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="33"/>
     </row>
     <row r="14" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="20" t="s">
         <v>49</v>
       </c>
@@ -4615,39 +4693,41 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="27"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="34"/>
+      <c r="AM14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="33"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="31"/>
+      <c r="AS14" s="92"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="30"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
-      <c r="AX14" s="32"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="34"/>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="33"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
-      <c r="BC14" s="32"/>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="34"/>
+      <c r="BC14" s="31"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="33"/>
     </row>
     <row r="15" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="20" t="s">
         <v>49</v>
       </c>
@@ -4688,25 +4768,27 @@
       <c r="AJ15" s="26"/>
       <c r="AK15" s="27"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="34"/>
+      <c r="AM15" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="33"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="34"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="33"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="34"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="33"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
-      <c r="BC15" s="32"/>
-      <c r="BD15" s="33"/>
-      <c r="BE15" s="34"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="33"/>
     </row>
     <row r="16" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
@@ -4761,7 +4843,9 @@
       <c r="AJ16" s="26"/>
       <c r="AK16" s="27"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
+      <c r="AM16" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN16" s="19"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="19"/>
@@ -4834,7 +4918,9 @@
       <c r="AJ17" s="26"/>
       <c r="AK17" s="27"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
+      <c r="AM17" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN17" s="19"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
@@ -4907,15 +4993,17 @@
       <c r="AJ18" s="26"/>
       <c r="AK18" s="27"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
+      <c r="AM18" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="19"/>
@@ -4980,7 +5068,9 @@
       <c r="AJ19" s="26"/>
       <c r="AK19" s="27"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
+      <c r="AM19" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
@@ -5051,7 +5141,9 @@
       <c r="AJ20" s="26"/>
       <c r="AK20" s="27"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
+      <c r="AM20" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
@@ -5122,7 +5214,9 @@
       <c r="AJ21" s="26"/>
       <c r="AK21" s="27"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
+      <c r="AM21" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
@@ -5193,7 +5287,9 @@
       <c r="AJ22" s="26"/>
       <c r="AK22" s="27"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
+      <c r="AM22" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN22" s="19"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
@@ -5264,7 +5360,9 @@
       <c r="AJ23" s="26"/>
       <c r="AK23" s="27"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
+      <c r="AM23" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN23" s="19"/>
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
@@ -5335,7 +5433,9 @@
       <c r="AJ24" s="26"/>
       <c r="AK24" s="27"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
+      <c r="AM24" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN24" s="19"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
@@ -5406,7 +5506,9 @@
       <c r="AJ25" s="26"/>
       <c r="AK25" s="27"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
+      <c r="AM25" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN25" s="19"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
@@ -5477,7 +5579,9 @@
       <c r="AJ26" s="26"/>
       <c r="AK26" s="27"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
+      <c r="AM26" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN26" s="19"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
@@ -5548,7 +5652,9 @@
       <c r="AJ27" s="26"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
+      <c r="AM27" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
@@ -5619,7 +5725,9 @@
       <c r="AJ28" s="26"/>
       <c r="AK28" s="27"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
+      <c r="AM28" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN28" s="19"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
@@ -5692,7 +5800,9 @@
       <c r="AJ29" s="26"/>
       <c r="AK29" s="27"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
+      <c r="AM29" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN29" s="19"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="19"/>
@@ -5765,7 +5875,9 @@
       <c r="AJ30" s="26"/>
       <c r="AK30" s="27"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
+      <c r="AM30" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN30" s="19"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
@@ -5838,7 +5950,9 @@
       <c r="AJ31" s="26"/>
       <c r="AK31" s="27"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
+      <c r="AM31" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN31" s="19"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
@@ -5909,7 +6023,9 @@
       <c r="AJ32" s="26"/>
       <c r="AK32" s="27"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
+      <c r="AM32" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="AN32" s="19"/>
       <c r="AO32" s="19"/>
       <c r="AP32" s="19"/>
@@ -5934,14 +6050,14 @@
         <v>118</v>
       </c>
       <c r="B33" s="21"/>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="20" t="s">
         <v>49</v>
       </c>
@@ -5954,18 +6070,18 @@
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
       <c r="P33" s="27"/>
-      <c r="Q33" s="36" t="s">
+      <c r="Q33" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="38"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="88"/>
       <c r="AA33" s="25" t="s">
         <v>51</v>
       </c>
@@ -5980,7 +6096,9 @@
       <c r="AJ33" s="26"/>
       <c r="AK33" s="27"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
+      <c r="AM33" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN33" s="19"/>
       <c r="AO33" s="19"/>
       <c r="AP33" s="19"/>
@@ -6005,14 +6123,14 @@
         <v>119</v>
       </c>
       <c r="B34" s="21"/>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="20" t="s">
         <v>49</v>
       </c>
@@ -6025,18 +6143,18 @@
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
       <c r="P34" s="27"/>
-      <c r="Q34" s="39" t="s">
+      <c r="Q34" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="41"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="91"/>
       <c r="AA34" s="25" t="s">
         <v>55</v>
       </c>
@@ -6053,25 +6171,27 @@
       <c r="AJ34" s="26"/>
       <c r="AK34" s="27"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="34"/>
+      <c r="AM34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="33"/>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
-      <c r="AS34" s="29"/>
-      <c r="AT34" s="30"/>
-      <c r="AU34" s="31"/>
+      <c r="AS34" s="28"/>
+      <c r="AT34" s="29"/>
+      <c r="AU34" s="30"/>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
-      <c r="AX34" s="29"/>
-      <c r="AY34" s="30"/>
-      <c r="AZ34" s="31"/>
+      <c r="AX34" s="28"/>
+      <c r="AY34" s="29"/>
+      <c r="AZ34" s="30"/>
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
-      <c r="BC34" s="32"/>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="34"/>
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="32"/>
+      <c r="BE34" s="33"/>
     </row>
     <row r="35" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="20" t="s">
@@ -6126,39 +6246,41 @@
       <c r="AJ35" s="26"/>
       <c r="AK35" s="27"/>
       <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="33"/>
-      <c r="AP35" s="34"/>
+      <c r="AM35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="33"/>
       <c r="AQ35" s="4"/>
       <c r="AR35" s="4"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="34"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="32"/>
+      <c r="AU35" s="33"/>
       <c r="AV35" s="4"/>
       <c r="AW35" s="4"/>
-      <c r="AX35" s="32"/>
-      <c r="AY35" s="33"/>
-      <c r="AZ35" s="34"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="32"/>
+      <c r="AZ35" s="33"/>
       <c r="BA35" s="4"/>
       <c r="BB35" s="4"/>
-      <c r="BC35" s="32"/>
-      <c r="BD35" s="33"/>
-      <c r="BE35" s="34"/>
+      <c r="BC35" s="31"/>
+      <c r="BD35" s="32"/>
+      <c r="BE35" s="33"/>
     </row>
     <row r="36" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B36" s="21"/>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="20" t="s">
         <v>49</v>
       </c>
@@ -6199,39 +6321,41 @@
       <c r="AJ36" s="26"/>
       <c r="AK36" s="27"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="34"/>
+      <c r="AM36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="33"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="34"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="33"/>
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
-      <c r="AX36" s="32"/>
-      <c r="AY36" s="33"/>
-      <c r="AZ36" s="34"/>
+      <c r="AX36" s="31"/>
+      <c r="AY36" s="32"/>
+      <c r="AZ36" s="33"/>
       <c r="BA36" s="4"/>
       <c r="BB36" s="4"/>
-      <c r="BC36" s="32"/>
-      <c r="BD36" s="33"/>
-      <c r="BE36" s="34"/>
+      <c r="BC36" s="31"/>
+      <c r="BD36" s="32"/>
+      <c r="BE36" s="33"/>
     </row>
     <row r="37" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="20" t="s">
         <v>122</v>
       </c>
       <c r="B37" s="21"/>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="20" t="s">
         <v>49</v>
       </c>
@@ -6272,39 +6396,41 @@
       <c r="AJ37" s="26"/>
       <c r="AK37" s="27"/>
       <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="34"/>
+      <c r="AM37" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="32"/>
+      <c r="AP37" s="33"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="33"/>
-      <c r="AU37" s="34"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="32"/>
+      <c r="AU37" s="33"/>
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
-      <c r="AX37" s="32"/>
-      <c r="AY37" s="33"/>
-      <c r="AZ37" s="34"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="32"/>
+      <c r="AZ37" s="33"/>
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
-      <c r="BC37" s="32"/>
-      <c r="BD37" s="33"/>
-      <c r="BE37" s="34"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="32"/>
+      <c r="BE37" s="33"/>
     </row>
     <row r="38" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B38" s="21"/>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="20" t="s">
         <v>49</v>
       </c>
@@ -6345,25 +6471,27 @@
       <c r="AJ38" s="26"/>
       <c r="AK38" s="27"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="34"/>
+      <c r="AM38" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="32"/>
+      <c r="AP38" s="33"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="33"/>
-      <c r="AU38" s="34"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="32"/>
+      <c r="AU38" s="33"/>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
-      <c r="AX38" s="32"/>
-      <c r="AY38" s="33"/>
-      <c r="AZ38" s="34"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="32"/>
+      <c r="AZ38" s="33"/>
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
-      <c r="BC38" s="32"/>
-      <c r="BD38" s="33"/>
-      <c r="BE38" s="34"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="32"/>
+      <c r="BE38" s="33"/>
     </row>
     <row r="39" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="20" t="s">
@@ -6418,7 +6546,9 @@
       <c r="AJ39" s="26"/>
       <c r="AK39" s="27"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
+      <c r="AM39" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN39" s="19"/>
       <c r="AO39" s="19"/>
       <c r="AP39" s="19"/>
@@ -6491,7 +6621,9 @@
       <c r="AJ40" s="26"/>
       <c r="AK40" s="27"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
+      <c r="AM40" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN40" s="19"/>
       <c r="AO40" s="19"/>
       <c r="AP40" s="19"/>
@@ -6564,15 +6696,17 @@
       <c r="AJ41" s="26"/>
       <c r="AK41" s="27"/>
       <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
+      <c r="AM41" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN41" s="19"/>
       <c r="AO41" s="19"/>
       <c r="AP41" s="19"/>
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4"/>
-      <c r="AS41" s="28"/>
-      <c r="AT41" s="28"/>
-      <c r="AU41" s="28"/>
+      <c r="AS41" s="74"/>
+      <c r="AT41" s="74"/>
+      <c r="AU41" s="74"/>
       <c r="AV41" s="4"/>
       <c r="AW41" s="4"/>
       <c r="AX41" s="19"/>
@@ -6637,7 +6771,9 @@
       <c r="AJ42" s="26"/>
       <c r="AK42" s="27"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
+      <c r="AM42" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN42" s="19"/>
       <c r="AO42" s="19"/>
       <c r="AP42" s="19"/>
@@ -6708,7 +6844,9 @@
       <c r="AJ43" s="26"/>
       <c r="AK43" s="27"/>
       <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
+      <c r="AM43" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN43" s="19"/>
       <c r="AO43" s="19"/>
       <c r="AP43" s="19"/>
@@ -6779,7 +6917,9 @@
       <c r="AJ44" s="26"/>
       <c r="AK44" s="27"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
+      <c r="AM44" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN44" s="19"/>
       <c r="AO44" s="19"/>
       <c r="AP44" s="19"/>
@@ -6850,7 +6990,9 @@
       <c r="AJ45" s="26"/>
       <c r="AK45" s="27"/>
       <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
+      <c r="AM45" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN45" s="19"/>
       <c r="AO45" s="19"/>
       <c r="AP45" s="19"/>
@@ -6921,7 +7063,9 @@
       <c r="AJ46" s="26"/>
       <c r="AK46" s="27"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
+      <c r="AM46" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN46" s="19"/>
       <c r="AO46" s="19"/>
       <c r="AP46" s="19"/>
@@ -6992,7 +7136,9 @@
       <c r="AJ47" s="26"/>
       <c r="AK47" s="27"/>
       <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
+      <c r="AM47" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN47" s="19"/>
       <c r="AO47" s="19"/>
       <c r="AP47" s="19"/>
@@ -7063,7 +7209,9 @@
       <c r="AJ48" s="26"/>
       <c r="AK48" s="27"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
+      <c r="AM48" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN48" s="19"/>
       <c r="AO48" s="19"/>
       <c r="AP48" s="19"/>
@@ -7134,7 +7282,9 @@
       <c r="AJ49" s="26"/>
       <c r="AK49" s="27"/>
       <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
+      <c r="AM49" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN49" s="19"/>
       <c r="AO49" s="19"/>
       <c r="AP49" s="19"/>
@@ -7205,7 +7355,9 @@
       <c r="AJ50" s="26"/>
       <c r="AK50" s="27"/>
       <c r="AL50" s="4"/>
-      <c r="AM50" s="4"/>
+      <c r="AM50" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN50" s="19"/>
       <c r="AO50" s="19"/>
       <c r="AP50" s="19"/>
@@ -7276,7 +7428,9 @@
       <c r="AJ51" s="26"/>
       <c r="AK51" s="27"/>
       <c r="AL51" s="4"/>
-      <c r="AM51" s="4"/>
+      <c r="AM51" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN51" s="19"/>
       <c r="AO51" s="19"/>
       <c r="AP51" s="19"/>
@@ -7349,7 +7503,9 @@
       <c r="AJ52" s="26"/>
       <c r="AK52" s="27"/>
       <c r="AL52" s="4"/>
-      <c r="AM52" s="4"/>
+      <c r="AM52" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN52" s="19"/>
       <c r="AO52" s="19"/>
       <c r="AP52" s="19"/>
@@ -7422,7 +7578,9 @@
       <c r="AJ53" s="26"/>
       <c r="AK53" s="27"/>
       <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
+      <c r="AM53" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN53" s="19"/>
       <c r="AO53" s="19"/>
       <c r="AP53" s="19"/>
@@ -7495,7 +7653,9 @@
       <c r="AJ54" s="26"/>
       <c r="AK54" s="27"/>
       <c r="AL54" s="4"/>
-      <c r="AM54" s="4"/>
+      <c r="AM54" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="AN54" s="19"/>
       <c r="AO54" s="19"/>
       <c r="AP54" s="19"/>
@@ -7566,15 +7726,23 @@
       <c r="AJ55" s="26"/>
       <c r="AK55" s="27"/>
       <c r="AL55" s="4"/>
-      <c r="AM55" s="4"/>
-      <c r="AN55" s="19"/>
-      <c r="AO55" s="19"/>
-      <c r="AP55" s="19"/>
+      <c r="AM55" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN55" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO55" s="74"/>
+      <c r="AP55" s="74"/>
       <c r="AQ55" s="4"/>
-      <c r="AR55" s="4"/>
-      <c r="AS55" s="19"/>
-      <c r="AT55" s="19"/>
-      <c r="AU55" s="19"/>
+      <c r="AR55" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS55" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT55" s="74"/>
+      <c r="AU55" s="74"/>
       <c r="AV55" s="4"/>
       <c r="AW55" s="4"/>
       <c r="AX55" s="19"/>
@@ -7588,28 +7756,512 @@
     </row>
   </sheetData>
   <mergeCells count="552">
-    <mergeCell ref="AS29:AU29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BC29:BE29"/>
-    <mergeCell ref="AN30:AP30"/>
-    <mergeCell ref="AS30:AU30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AN31:AP31"/>
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="BC31:BE31"/>
-    <mergeCell ref="AX54:AZ54"/>
-    <mergeCell ref="BC54:BE54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:P54"/>
-    <mergeCell ref="Q54:Z54"/>
-    <mergeCell ref="AA54:AF54"/>
-    <mergeCell ref="AG54:AK54"/>
-    <mergeCell ref="AN54:AP54"/>
-    <mergeCell ref="AS54:AU54"/>
+    <mergeCell ref="AX55:AZ55"/>
+    <mergeCell ref="BC55:BE55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:P55"/>
+    <mergeCell ref="Q55:Z55"/>
+    <mergeCell ref="AA55:AF55"/>
+    <mergeCell ref="AG55:AK55"/>
+    <mergeCell ref="AN55:AP55"/>
+    <mergeCell ref="AS55:AU55"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BC32:BE32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="AA32:AF32"/>
+    <mergeCell ref="AG32:AK32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="Q31:Z31"/>
+    <mergeCell ref="AA31:AF31"/>
+    <mergeCell ref="AG31:AK31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="Q29:Z29"/>
+    <mergeCell ref="AA29:AF29"/>
+    <mergeCell ref="AG29:AK29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="AA30:AF30"/>
+    <mergeCell ref="AG30:AK30"/>
+    <mergeCell ref="AX52:AZ52"/>
+    <mergeCell ref="BC52:BE52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:P53"/>
+    <mergeCell ref="Q53:Z53"/>
+    <mergeCell ref="AA53:AF53"/>
+    <mergeCell ref="AG53:AK53"/>
+    <mergeCell ref="AN53:AP53"/>
+    <mergeCell ref="AS53:AU53"/>
+    <mergeCell ref="AX53:AZ53"/>
+    <mergeCell ref="BC53:BE53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:P52"/>
+    <mergeCell ref="Q52:Z52"/>
+    <mergeCell ref="AA52:AF52"/>
+    <mergeCell ref="AG52:AK52"/>
+    <mergeCell ref="AN52:AP52"/>
+    <mergeCell ref="AS52:AU52"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="AA17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AS18:AU18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="AA12:AF12"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="AA15:AF15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="AA26:AF26"/>
+    <mergeCell ref="AG26:AK26"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="BC26:BE26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="AA25:AF25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AN25:AP25"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="AA24:AF24"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="BC16:BE16"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="BC20:BE20"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AN13:AP13"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="Q28:Z28"/>
+    <mergeCell ref="AA28:AF28"/>
+    <mergeCell ref="AG28:AK28"/>
+    <mergeCell ref="AN28:AP28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="AG41:AK41"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="AA50:AF50"/>
+    <mergeCell ref="AG50:AK50"/>
+    <mergeCell ref="AN50:AP50"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="AA37:AF37"/>
+    <mergeCell ref="AA43:AF43"/>
+    <mergeCell ref="AG43:AK43"/>
+    <mergeCell ref="AA42:AF42"/>
+    <mergeCell ref="AA39:AF39"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:P51"/>
+    <mergeCell ref="Q51:Z51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:P50"/>
+    <mergeCell ref="Q50:Z50"/>
+    <mergeCell ref="AA51:AF51"/>
+    <mergeCell ref="BC50:BE50"/>
+    <mergeCell ref="AG51:AK51"/>
+    <mergeCell ref="AN51:AP51"/>
+    <mergeCell ref="AS51:AU51"/>
+    <mergeCell ref="AX51:AZ51"/>
+    <mergeCell ref="BC51:BE51"/>
+    <mergeCell ref="AX49:AZ49"/>
+    <mergeCell ref="BC49:BE49"/>
+    <mergeCell ref="AS50:AU50"/>
+    <mergeCell ref="AX50:AZ50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:P49"/>
+    <mergeCell ref="Q49:Z49"/>
+    <mergeCell ref="AG49:AK49"/>
+    <mergeCell ref="AN49:AP49"/>
+    <mergeCell ref="AS49:AU49"/>
+    <mergeCell ref="Q48:Z48"/>
+    <mergeCell ref="AA49:AF49"/>
+    <mergeCell ref="BC48:BE48"/>
+    <mergeCell ref="AG47:AK47"/>
+    <mergeCell ref="AN47:AP47"/>
+    <mergeCell ref="AS47:AU47"/>
+    <mergeCell ref="AX47:AZ47"/>
+    <mergeCell ref="BC47:BE47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:P48"/>
+    <mergeCell ref="AS48:AU48"/>
+    <mergeCell ref="AX48:AZ48"/>
+    <mergeCell ref="AA47:AF47"/>
+    <mergeCell ref="AA48:AF48"/>
+    <mergeCell ref="AG48:AK48"/>
+    <mergeCell ref="AN48:AP48"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="K46:P46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="K47:P47"/>
+    <mergeCell ref="Q46:Z46"/>
+    <mergeCell ref="BC46:BE46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="AS46:AU46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="AA46:AF46"/>
+    <mergeCell ref="AG46:AK46"/>
+    <mergeCell ref="AN46:AP46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="Q47:Z47"/>
+    <mergeCell ref="AS45:AU45"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BC45:BE45"/>
+    <mergeCell ref="AG44:AK44"/>
+    <mergeCell ref="AN44:AP44"/>
+    <mergeCell ref="AS44:AU44"/>
+    <mergeCell ref="AX44:AZ44"/>
+    <mergeCell ref="BC44:BE44"/>
+    <mergeCell ref="Q45:Z45"/>
+    <mergeCell ref="AA44:AF44"/>
+    <mergeCell ref="AA45:AF45"/>
+    <mergeCell ref="AG45:AK45"/>
+    <mergeCell ref="AN45:AP45"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:P45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="Q43:Z43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:P44"/>
+    <mergeCell ref="Q44:Z44"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="Q34:Z34"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="AA8:AK8"/>
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="AA33:AF33"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="Q8:Z9"/>
+    <mergeCell ref="AA11:AF11"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="Q27:Z27"/>
+    <mergeCell ref="AA27:AF27"/>
+    <mergeCell ref="AG27:AK27"/>
+    <mergeCell ref="AN27:AP27"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="AA13:AF13"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="AG33:AK33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="BC35:BE35"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BC34:BE34"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AN35:AP35"/>
+    <mergeCell ref="AG35:AK35"/>
+    <mergeCell ref="AA35:AF35"/>
+    <mergeCell ref="AA34:AF34"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AS35:AU35"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AN29:AP29"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="AA40:AF40"/>
+    <mergeCell ref="AG40:AK40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="AG42:AK42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="Q42:Z42"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AN42:AP42"/>
+    <mergeCell ref="AS42:AU42"/>
+    <mergeCell ref="AG39:AK39"/>
+    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="AG36:AK36"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG34:AK34"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="D1:AN1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:AN5"/>
+    <mergeCell ref="AO1:AO5"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="BC43:BE43"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="AS43:AU43"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="BC36:BE36"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="AX43:AZ43"/>
+    <mergeCell ref="BC42:BE42"/>
+    <mergeCell ref="BC39:BE39"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="AX42:AZ42"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="AS39:AU39"/>
     <mergeCell ref="AS40:AU40"/>
     <mergeCell ref="AX39:AZ39"/>
     <mergeCell ref="BC41:BE41"/>
@@ -7634,519 +8286,35 @@
     <mergeCell ref="AA36:AF36"/>
     <mergeCell ref="K37:P37"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="BC43:BE43"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AN43:AP43"/>
-    <mergeCell ref="AS43:AU43"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="BC36:BE36"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="AX43:AZ43"/>
-    <mergeCell ref="BC42:BE42"/>
-    <mergeCell ref="BC39:BE39"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AN37:AP37"/>
-    <mergeCell ref="AS39:AU39"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="D1:AN1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="D2:AN5"/>
-    <mergeCell ref="AO1:AO5"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AN42:AP42"/>
-    <mergeCell ref="AS42:AU42"/>
-    <mergeCell ref="AG39:AK39"/>
-    <mergeCell ref="AN39:AP39"/>
-    <mergeCell ref="AG36:AK36"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="AX41:AZ41"/>
-    <mergeCell ref="AS27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG34:AK34"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="AA40:AF40"/>
-    <mergeCell ref="AG40:AK40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="AG42:AK42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="Q42:Z42"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="AG33:AK33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BC33:BE33"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="BC35:BE35"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BC34:BE34"/>
-    <mergeCell ref="AS34:AU34"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AN35:AP35"/>
-    <mergeCell ref="AG35:AK35"/>
-    <mergeCell ref="AA35:AF35"/>
-    <mergeCell ref="AA34:AF34"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="BC28:BE28"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="AA8:AK8"/>
-    <mergeCell ref="AA9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="AA33:AF33"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="Q8:Z9"/>
-    <mergeCell ref="AA11:AF11"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="Q27:Z27"/>
-    <mergeCell ref="AA27:AF27"/>
-    <mergeCell ref="AG27:AK27"/>
-    <mergeCell ref="AN27:AP27"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="Q35:Z35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:P45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="K43:P43"/>
-    <mergeCell ref="Q43:Z43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:P44"/>
-    <mergeCell ref="Q44:Z44"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BC45:BE45"/>
-    <mergeCell ref="AG44:AK44"/>
-    <mergeCell ref="AN44:AP44"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="AX44:AZ44"/>
-    <mergeCell ref="BC44:BE44"/>
-    <mergeCell ref="Q45:Z45"/>
-    <mergeCell ref="AA44:AF44"/>
-    <mergeCell ref="AA45:AF45"/>
-    <mergeCell ref="AG45:AK45"/>
-    <mergeCell ref="AN45:AP45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="K46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="K47:P47"/>
-    <mergeCell ref="Q46:Z46"/>
-    <mergeCell ref="BC46:BE46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="AS46:AU46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="AA46:AF46"/>
-    <mergeCell ref="AG46:AK46"/>
-    <mergeCell ref="AN46:AP46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="Q47:Z47"/>
-    <mergeCell ref="BC48:BE48"/>
-    <mergeCell ref="AG47:AK47"/>
-    <mergeCell ref="AN47:AP47"/>
-    <mergeCell ref="AS47:AU47"/>
-    <mergeCell ref="AX47:AZ47"/>
-    <mergeCell ref="BC47:BE47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:P48"/>
-    <mergeCell ref="AS48:AU48"/>
-    <mergeCell ref="AX48:AZ48"/>
-    <mergeCell ref="AA47:AF47"/>
-    <mergeCell ref="AA48:AF48"/>
-    <mergeCell ref="AG48:AK48"/>
-    <mergeCell ref="AN48:AP48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:P49"/>
-    <mergeCell ref="Q49:Z49"/>
-    <mergeCell ref="AG49:AK49"/>
-    <mergeCell ref="AN49:AP49"/>
-    <mergeCell ref="AS49:AU49"/>
-    <mergeCell ref="Q48:Z48"/>
-    <mergeCell ref="AA49:AF49"/>
-    <mergeCell ref="AA51:AF51"/>
-    <mergeCell ref="BC50:BE50"/>
-    <mergeCell ref="AG51:AK51"/>
-    <mergeCell ref="AN51:AP51"/>
-    <mergeCell ref="AS51:AU51"/>
-    <mergeCell ref="AX51:AZ51"/>
-    <mergeCell ref="BC51:BE51"/>
-    <mergeCell ref="AX49:AZ49"/>
-    <mergeCell ref="BC49:BE49"/>
-    <mergeCell ref="AS50:AU50"/>
-    <mergeCell ref="AX50:AZ50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:P51"/>
-    <mergeCell ref="Q51:Z51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:P50"/>
-    <mergeCell ref="Q50:Z50"/>
-    <mergeCell ref="Q22:Z22"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="AA50:AF50"/>
-    <mergeCell ref="AG50:AK50"/>
-    <mergeCell ref="AN50:AP50"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="AA37:AF37"/>
-    <mergeCell ref="AA43:AF43"/>
-    <mergeCell ref="AG43:AK43"/>
-    <mergeCell ref="AA42:AF42"/>
-    <mergeCell ref="AA39:AF39"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="AN40:AP40"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="AG41:AK41"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="BC27:BE27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="Q28:Z28"/>
-    <mergeCell ref="AA28:AF28"/>
-    <mergeCell ref="AG28:AK28"/>
-    <mergeCell ref="AN28:AP28"/>
-    <mergeCell ref="AS28:AU28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AN13:AP13"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="BC20:BE20"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="AA24:AF24"/>
-    <mergeCell ref="AG24:AK24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:Z23"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="BC25:BE25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:Z26"/>
-    <mergeCell ref="AA26:AF26"/>
-    <mergeCell ref="AG26:AK26"/>
-    <mergeCell ref="AN26:AP26"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="BC26:BE26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:Z25"/>
-    <mergeCell ref="AA25:AF25"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="AN25:AP25"/>
-    <mergeCell ref="AS25:AU25"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="AA15:AF15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="AA16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="AA17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="AA12:AF12"/>
-    <mergeCell ref="AX52:AZ52"/>
-    <mergeCell ref="BC52:BE52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:P53"/>
-    <mergeCell ref="Q53:Z53"/>
-    <mergeCell ref="AA53:AF53"/>
-    <mergeCell ref="AG53:AK53"/>
-    <mergeCell ref="AN53:AP53"/>
-    <mergeCell ref="AS53:AU53"/>
-    <mergeCell ref="AX53:AZ53"/>
-    <mergeCell ref="BC53:BE53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:P52"/>
-    <mergeCell ref="Q52:Z52"/>
-    <mergeCell ref="AA52:AF52"/>
-    <mergeCell ref="AG52:AK52"/>
-    <mergeCell ref="AN52:AP52"/>
-    <mergeCell ref="AS52:AU52"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="Q31:Z31"/>
-    <mergeCell ref="AA31:AF31"/>
-    <mergeCell ref="AG31:AK31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="Q29:Z29"/>
-    <mergeCell ref="AA29:AF29"/>
-    <mergeCell ref="AG29:AK29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="Q30:Z30"/>
-    <mergeCell ref="AA30:AF30"/>
-    <mergeCell ref="AG30:AK30"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BC32:BE32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="AA32:AF32"/>
-    <mergeCell ref="AG32:AK32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AX55:AZ55"/>
-    <mergeCell ref="BC55:BE55"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:P55"/>
-    <mergeCell ref="Q55:Z55"/>
-    <mergeCell ref="AA55:AF55"/>
-    <mergeCell ref="AG55:AK55"/>
-    <mergeCell ref="AN55:AP55"/>
-    <mergeCell ref="AS55:AU55"/>
+    <mergeCell ref="AX54:AZ54"/>
+    <mergeCell ref="BC54:BE54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:P54"/>
+    <mergeCell ref="Q54:Z54"/>
+    <mergeCell ref="AA54:AF54"/>
+    <mergeCell ref="AG54:AK54"/>
+    <mergeCell ref="AN54:AP54"/>
+    <mergeCell ref="AS54:AU54"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="AN30:AP30"/>
+    <mergeCell ref="AS30:AU30"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AN31:AP31"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="BC31:BE31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J55">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BB55 AL10:AM55 AV10:AW55 AQ10:AR55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BB55 AQ10:AR55 AV10:AW55 AL10:AM55">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8160,21 +8328,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AE6B82DD32ED2D43B562EE23B8899C37" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="96d9b8f1e00177e6841ec08fe2851044">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9" xmlns:ns3="e2ca149d-0452-47e1-ae54-92b8879afeff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfcb4037085589394c396acba2ce8ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9"/>
@@ -8353,24 +8506,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F9013C-A683-4E5F-8E94-E7E8E3CDBEA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8387,4 +8538,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -11,7 +11,7 @@
     <sheet name="テスト一覧" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト一覧!$A$1:$BE$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト一覧!$A$1:$BE$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$AF$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">テスト一覧!#REF!</definedName>
   </definedNames>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="162">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -748,30 +748,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OSがWindows10であること
-OutlookRecipientConfirmationAddinがインストールされていること
-Outlook2016を起動していること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OSがWindows10であること
-OutlookRecipientConfirmationAddinがインストールされていること
-Outlook2016を起動していること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OSがWindows10であること
-OutlookRecipientConfirmationAddinがインストールされていること
-宛先確認画面が表示されていること</t>
-    <rPh sb="66" eb="72">
-      <t>アテサキカクニンガメン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. グローバルアドレス帳で、宛先に「RITS ビジネスソリューションズ事業部 システム開発センター 第１開発部 第１グループ」を選択する
 2. 送信ボタンを押下する</t>
     <rPh sb="12" eb="13">
@@ -867,44 +843,6 @@
     <t>31</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>OSがWindows7であること
-OutlookRecipientConfirmationAddinがインストールされていること
-Outlook2016を起動していること</t>
-  </si>
-  <si>
-    <t>OSがWindows7であること
-OutlookRecipientConfirmationAddinがインストールされていること
-宛先確認画面が表示されていること</t>
-    <rPh sb="65" eb="71">
-      <t>アテサキカクニンガメン</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. GitHub上に、新しいバージョンのアドインを発行する
 2. Outlook 2016を起動する</t>
     <rPh sb="9" eb="10">
@@ -941,9 +879,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>必須出席者、任意出席者、リソースが表示される</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -1001,16 +936,6 @@
   <si>
     <t>1. 宛先に「アドレス帳から連絡先を追加」した連絡先を指定する
 2. 送信ボタンを押下する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OSがWindows10であること
-OutlookRecipientConfirmationAddinがインストールされていること
-Outlook2016を起動していること
-連絡先に「アドレス帳から連絡先を追加」した連絡先があること</t>
-    <rPh sb="87" eb="90">
-      <t>レンラクサキ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1131,22 +1056,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>送信者がNotes/クラウドのメールに返信する場合、送信者の所属情報が表示される</t>
     <rPh sb="23" eb="25">
       <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OSがWindows10であること
-OutlookRecipientConfirmationAddinがインストールされていること
-Outlook2016を起動していること
-Notesから受信したメールがある</t>
-    <rPh sb="94" eb="96">
-      <t>ジュシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1176,49 +1088,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OSがWindows7であること
-OutlookRecipientConfirmationAddinがインストールされていること
-Outlook2016を起動していること
-連絡先に「アドレス帳から連絡先を追加」した連絡先があること</t>
-    <rPh sb="86" eb="89">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OSがWindows7であること
-OutlookRecipientConfirmationAddinがインストールされていること
-Outlook2016を起動していること
-Notesから受信したメールがある</t>
-    <rPh sb="93" eb="95">
-      <t>ジュシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>正常系</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
   </si>
   <si>
     <t>予定表の自動承諾が設定されている場合、自動承諾のメール送信時に宛先確認画面が表示されない</t>
@@ -1251,40 +1122,6 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OSがWindows7であること
-OutlookRecipientConfirmationAddinがインストールされていること
-Outlook2016を起動していること
-予定表の設定で「出席依頼の承諾と、取り消された会議の削除を自動処理する」がチェックされている</t>
-    <rPh sb="90" eb="92">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="94" eb="98">
-      <t>シュッセキイライ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ショウダク</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1328,100 +1165,265 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OSがWindows10であること
-OutlookRecipientConfirmationAddinがインストールされていること
+    <t>24</t>
+  </si>
+  <si>
+    <t>OutlookRecipientConfirmationAddinがインストールされていること
+Outlook2016を起動していること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutlookRecipientConfirmationAddinがインストールされていること
+Outlook2016を起動していること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutlookRecipientConfirmationAddinがインストールされていること
+Outlook2016を起動していること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutlookRecipientConfirmationAddinがインストールされていること
+宛先確認画面が表示されていること</t>
+    <rPh sb="48" eb="54">
+      <t>アテサキカクニンガメン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutlookRecipientConfirmationAddinがインストールされていること
+Outlook2016を起動していること
+連絡先に「アドレス帳から連絡先を追加」した連絡先があること</t>
+    <rPh sb="69" eb="72">
+      <t>レンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutlookRecipientConfirmationAddinがインストールされていること
+Outlook2016を起動していること
+Notesから受信したメールがある</t>
+    <rPh sb="76" eb="78">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OutlookRecipientConfirmationAddinがインストールされていること
 Outlook2016を起動していること
 予定表の設定で「出席依頼の承諾と、取り消された会議の削除を自動処理する」がチェックされている</t>
-    <rPh sb="91" eb="93">
+    <rPh sb="73" eb="75">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="95" eb="99">
+    <rPh sb="77" eb="81">
       <t>シュッセキイライ</t>
     </rPh>
+    <rPh sb="82" eb="84">
+      <t>ショウダク</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジドウ</t>
+    </rPh>
     <rPh sb="100" eb="102">
-      <t>ショウダク</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
       <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>中西悠菜</t>
-    <rPh sb="0" eb="2">
-      <t>ナカニシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>25, 27-47</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自動承諾されない(会議招集メールが受信トレイに入ったまま、自動で返信されない)</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウダク</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>カイギショウシュウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Virtual boxで新しく起動したら、成功した</t>
-    <rPh sb="12" eb="13">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
+    <t>インストール時に、レジストリで「アドイン無効化しない」キーのOutlookRecipientConfirmationAddinが存在しない場合、値を作成し、データに1（ON）を入れる</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インストール時に、レジストリで「アドイン無効化しない」キーが存在しない場合、キー及び値を作成し、データに1（ON）を入れる</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インストール時に、レジストリで「アドイン無効化しない」キーのOutlookRecipientConfirmationAddinの値が0の場合、1（ON）に変更する</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outlook起動時に、レジストリで「アドイン無効化しない」キーが存在しない場合、キー及び値を作成し、データに1（ON）を入れる</t>
+    <rPh sb="33" eb="35">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outlook起動時に、レジストリで「アドイン無効化しない」キーのOutlookRecipientConfirmationAddinが存在しない場合、値を作成し、データに1（ON）を入れる</t>
+    <rPh sb="67" eb="69">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outlook起動時に、レジストリで「アドイン無効化しない」キーのOutlookRecipientConfirmationAddinの値が0の場合、1（ON）に変更する</t>
+    <rPh sb="67" eb="68">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レジストリの確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OutlookRecipientConfirmationAddinがインストールされていること
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがWindows10であること
+レジストリで以下のキーが存在しない
+HKEY_CURRENT_USER\Software\Microsoft\Office\16.0\Outlook\Resiliency\DoNotDisableAddinList</t>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがWindows10であること
+レジストリで以下のキーに「OutlookRecipientConfirmationAddin」の値が存在しない
+HKEY_CURRENT_USER\Software\Microsoft\Office\16.0\Outlook\Resiliency\DoNotDisableAddinList</t>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがWindows10であること
+レジストリで以下のキーのOutlookRecipientConfimationAddinの値が0である
+HKEY_CURRENT_USER\Software\Microsoft\Office\16.0\Outlook\Resiliency\DoNotDisableAddinList</t>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DoNotDisableAddinListキーのOutlookRecipientConfirmationAddinの値が1</t>
+    <rPh sb="58" eb="59">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.setup.zipのsetup.cmdをダブルクリックし、インストールを完了する</t>
+    <rPh sb="38" eb="40">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.Outlookを起動する</t>
+    <rPh sb="10" eb="12">
       <t>キドウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1635,15 +1637,14 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1775,6 +1776,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2073,7 +2080,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2211,11 +2218,8 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2234,6 +2238,18 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2243,36 +2259,24 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2300,6 +2304,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2318,24 +2325,99 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2345,21 +2427,9 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2426,77 +2496,17 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="27" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="47">
     <cellStyle name="20% - アクセント 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -2525,7 +2535,6 @@
     <cellStyle name="タイトル" xfId="26" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="27" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="28" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8"/>
     <cellStyle name="メモ" xfId="29" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="30" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="31" builtinId="27" customBuiltin="1"/>
@@ -2886,7 +2895,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:AB6"/>
+      <selection activeCell="G9" sqref="G9:AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2896,40 +2905,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -2937,38 +2946,38 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -2976,758 +2985,831 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="15" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="A4" s="18">
         <v>43097</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="6" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>43111</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="8"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>43116</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="12"/>
     </row>
     <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>43129</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="12"/>
     </row>
     <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="8"/>
+      <c r="A8" s="13">
+        <v>43139</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="8"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="8"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="8"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="8"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="8"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="8"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="8"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="8"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="8"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="8"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="8"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="12"/>
     </row>
     <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="8"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="8"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="8"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="8"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="G3:AB3"/>
-    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:AB23"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:AB21"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:AB19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -3736,78 +3818,11 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:AB4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:AB19"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:AB21"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:AB23"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="G3:AB3"/>
+    <mergeCell ref="A1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3821,15 +3836,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE55"/>
+  <dimension ref="A1:BE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ53" sqref="AQ53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="3.625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="3.625" style="2" customWidth="1"/>
+    <col min="3" max="8" width="5.625" style="2" customWidth="1"/>
+    <col min="9" max="15" width="3.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="28.375" style="2" customWidth="1"/>
     <col min="17" max="25" width="3.625" style="2" customWidth="1"/>
     <col min="26" max="26" width="12.875" style="2" customWidth="1"/>
@@ -3847,514 +3864,508 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="67" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AP1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34" t="s">
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="71" t="s">
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="72"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="34" t="s">
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="44" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="43">
-        <v>43130</v>
-      </c>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="44" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="70"/>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="70"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="44" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="62"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="65"/>
-      <c r="AM5" s="65"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="44" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="70"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="62"/>
+      <c r="BB5" s="63"/>
+      <c r="BC5" s="60"/>
+      <c r="BD5" s="60"/>
+      <c r="BE5" s="60"/>
     </row>
     <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="55"/>
+      <c r="K8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="35" t="s">
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="35" t="s">
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="80"/>
-      <c r="AL8" s="34" t="s">
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34" t="s">
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34" t="s">
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34" t="s">
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="34"/>
-      <c r="BC8" s="34"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="34"/>
+      <c r="BB8" s="59"/>
+      <c r="BC8" s="59"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
     </row>
     <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="71" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="81" t="s">
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="83"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="53"/>
       <c r="AL9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AM9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="34" t="s">
+      <c r="AN9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
       <c r="AQ9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="34" t="s">
+      <c r="AS9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
       <c r="AV9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX9" s="34" t="s">
+      <c r="AX9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="59"/>
       <c r="BA9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC9" s="34" t="s">
+      <c r="BC9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
     </row>
     <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="20" t="s">
         <v>49</v>
       </c>
@@ -4367,18 +4378,18 @@
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="27"/>
-      <c r="Q10" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="88"/>
+      <c r="Q10" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="37"/>
       <c r="AA10" s="25" t="s">
         <v>51</v>
       </c>
@@ -4393,12 +4404,10 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="27"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="19"/>
@@ -4417,41 +4426,41 @@
     </row>
     <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+      <c r="C11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="27"/>
-      <c r="Q11" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="91"/>
+      <c r="Q11" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="40"/>
       <c r="AA11" s="25" t="s">
         <v>55</v>
       </c>
@@ -4468,142 +4477,136 @@
       <c r="AJ11" s="26"/>
       <c r="AK11" s="27"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="33"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="34"/>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="33"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="34"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="32"/>
-      <c r="AZ11" s="33"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="34"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="33"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="34"/>
     </row>
-    <row r="12" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="25" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="27"/>
-      <c r="Q12" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
+      <c r="Q12" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="37"/>
       <c r="AA12" s="25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AB12" s="26"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="26"/>
       <c r="AF12" s="27"/>
-      <c r="AG12" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="AG12" s="25"/>
       <c r="AH12" s="26"/>
       <c r="AI12" s="26"/>
       <c r="AJ12" s="26"/>
       <c r="AK12" s="27"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="33"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="33"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="32"/>
-      <c r="AZ12" s="33"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="32"/>
-      <c r="BE12" s="33"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="19"/>
     </row>
-    <row r="13" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
+      <c r="C13" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="25" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="27"/>
-      <c r="Q13" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
+      <c r="Q13" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
@@ -4611,54 +4614,52 @@
       <c r="AE13" s="26"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="25" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="AH13" s="26"/>
       <c r="AI13" s="26"/>
       <c r="AJ13" s="26"/>
       <c r="AK13" s="27"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="33"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="34"/>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="33"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="31"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="33"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="31"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="33"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="33"/>
+      <c r="BE13" s="34"/>
     </row>
-    <row r="14" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="C14" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="25" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
@@ -4666,7 +4667,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
@@ -4693,47 +4694,45 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="27"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="33"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="34"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
-      <c r="AS14" s="92"/>
-      <c r="AT14" s="29"/>
-      <c r="AU14" s="30"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="34"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="32"/>
-      <c r="AZ14" s="33"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="33"/>
+      <c r="AZ14" s="34"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="32"/>
-      <c r="BE14" s="33"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="33"/>
+      <c r="BE14" s="34"/>
     </row>
-    <row r="15" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
+      <c r="C15" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="25" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
@@ -4741,7 +4740,7 @@
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
@@ -4768,47 +4767,45 @@
       <c r="AJ15" s="26"/>
       <c r="AK15" s="27"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="34"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="33"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="34"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="33"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="34"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="33"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="33"/>
+      <c r="BE15" s="34"/>
     </row>
-    <row r="16" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="25" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
@@ -4816,7 +4813,7 @@
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
@@ -4836,54 +4833,52 @@
       <c r="AE16" s="26"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="25" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="AH16" s="26"/>
       <c r="AI16" s="26"/>
       <c r="AJ16" s="26"/>
       <c r="AK16" s="27"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="34"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="34"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="34"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="19"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="33"/>
+      <c r="BE16" s="34"/>
     </row>
-    <row r="17" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="C17" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="25" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
@@ -4891,7 +4886,7 @@
       <c r="O17" s="26"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="25" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -4911,42 +4906,40 @@
       <c r="AE17" s="26"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="25" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="AH17" s="26"/>
       <c r="AI17" s="26"/>
       <c r="AJ17" s="26"/>
       <c r="AK17" s="27"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="34"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="34"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="34"/>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="19"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="33"/>
+      <c r="BE17" s="34"/>
     </row>
-    <row r="18" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -4958,7 +4951,7 @@
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="25" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
@@ -4966,7 +4959,7 @@
       <c r="O18" s="26"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="25" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
@@ -4986,24 +4979,22 @@
       <c r="AE18" s="26"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="25" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
       <c r="AJ18" s="26"/>
       <c r="AK18" s="27"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM18" s="4"/>
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
-      <c r="AS18" s="74"/>
-      <c r="AT18" s="74"/>
-      <c r="AU18" s="74"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
       <c r="AX18" s="19"/>
@@ -5015,13 +5006,13 @@
       <c r="BD18" s="19"/>
       <c r="BE18" s="19"/>
     </row>
-    <row r="19" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -5033,7 +5024,7 @@
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="25" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
@@ -5041,7 +5032,7 @@
       <c r="O19" s="26"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="25" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
@@ -5060,17 +5051,15 @@
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
       <c r="AF19" s="27"/>
-      <c r="AG19" s="26" t="s">
-        <v>68</v>
+      <c r="AG19" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="AH19" s="26"/>
       <c r="AI19" s="26"/>
       <c r="AJ19" s="26"/>
       <c r="AK19" s="27"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM19" s="4"/>
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
@@ -5090,13 +5079,13 @@
       <c r="BD19" s="19"/>
       <c r="BE19" s="19"/>
     </row>
-    <row r="20" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -5108,7 +5097,7 @@
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="25" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
@@ -5116,7 +5105,7 @@
       <c r="O20" s="26"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="25" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
@@ -5128,30 +5117,30 @@
       <c r="Y20" s="26"/>
       <c r="Z20" s="27"/>
       <c r="AA20" s="25" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="AB20" s="26"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="26"/>
       <c r="AE20" s="26"/>
       <c r="AF20" s="27"/>
-      <c r="AG20" s="26"/>
+      <c r="AG20" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="AH20" s="26"/>
       <c r="AI20" s="26"/>
       <c r="AJ20" s="26"/>
       <c r="AK20" s="27"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM20" s="4"/>
       <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
       <c r="AQ20" s="4"/>
       <c r="AR20" s="4"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
       <c r="AX20" s="19"/>
@@ -5163,13 +5152,13 @@
       <c r="BD20" s="19"/>
       <c r="BE20" s="19"/>
     </row>
-    <row r="21" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -5181,7 +5170,7 @@
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="25" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
@@ -5189,7 +5178,7 @@
       <c r="O21" s="26"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
@@ -5201,22 +5190,22 @@
       <c r="Y21" s="26"/>
       <c r="Z21" s="27"/>
       <c r="AA21" s="25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AB21" s="26"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="26"/>
       <c r="AE21" s="26"/>
       <c r="AF21" s="27"/>
-      <c r="AG21" s="26"/>
+      <c r="AG21" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="AH21" s="26"/>
       <c r="AI21" s="26"/>
       <c r="AJ21" s="26"/>
       <c r="AK21" s="27"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM21" s="4"/>
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
@@ -5236,13 +5225,13 @@
       <c r="BD21" s="19"/>
       <c r="BE21" s="19"/>
     </row>
-    <row r="22" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -5254,7 +5243,7 @@
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
@@ -5262,7 +5251,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R22" s="26"/>
       <c r="S22" s="26"/>
@@ -5274,7 +5263,7 @@
       <c r="Y22" s="26"/>
       <c r="Z22" s="27"/>
       <c r="AA22" s="25" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
@@ -5287,9 +5276,7 @@
       <c r="AJ22" s="26"/>
       <c r="AK22" s="27"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM22" s="4"/>
       <c r="AN22" s="19"/>
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
@@ -5309,13 +5296,13 @@
       <c r="BD22" s="19"/>
       <c r="BE22" s="19"/>
     </row>
-    <row r="23" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -5327,7 +5314,7 @@
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
@@ -5335,7 +5322,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="25" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
@@ -5347,7 +5334,7 @@
       <c r="Y23" s="26"/>
       <c r="Z23" s="27"/>
       <c r="AA23" s="25" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AB23" s="26"/>
       <c r="AC23" s="26"/>
@@ -5360,9 +5347,7 @@
       <c r="AJ23" s="26"/>
       <c r="AK23" s="27"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM23" s="4"/>
       <c r="AN23" s="19"/>
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
@@ -5382,13 +5367,13 @@
       <c r="BD23" s="19"/>
       <c r="BE23" s="19"/>
     </row>
-    <row r="24" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="22" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -5400,7 +5385,7 @@
       </c>
       <c r="J24" s="21"/>
       <c r="K24" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
@@ -5408,7 +5393,7 @@
       <c r="O24" s="26"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R24" s="26"/>
       <c r="S24" s="26"/>
@@ -5420,7 +5405,7 @@
       <c r="Y24" s="26"/>
       <c r="Z24" s="27"/>
       <c r="AA24" s="25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
@@ -5433,9 +5418,7 @@
       <c r="AJ24" s="26"/>
       <c r="AK24" s="27"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM24" s="4"/>
       <c r="AN24" s="19"/>
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
@@ -5455,13 +5438,13 @@
       <c r="BD24" s="19"/>
       <c r="BE24" s="19"/>
     </row>
-    <row r="25" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -5473,7 +5456,7 @@
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
@@ -5481,7 +5464,7 @@
       <c r="O25" s="26"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R25" s="26"/>
       <c r="S25" s="26"/>
@@ -5493,7 +5476,7 @@
       <c r="Y25" s="26"/>
       <c r="Z25" s="27"/>
       <c r="AA25" s="25" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AB25" s="26"/>
       <c r="AC25" s="26"/>
@@ -5506,9 +5489,7 @@
       <c r="AJ25" s="26"/>
       <c r="AK25" s="27"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM25" s="4"/>
       <c r="AN25" s="19"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
@@ -5528,13 +5509,13 @@
       <c r="BD25" s="19"/>
       <c r="BE25" s="19"/>
     </row>
-    <row r="26" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -5546,7 +5527,7 @@
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
@@ -5554,7 +5535,7 @@
       <c r="O26" s="26"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R26" s="26"/>
       <c r="S26" s="26"/>
@@ -5579,9 +5560,7 @@
       <c r="AJ26" s="26"/>
       <c r="AK26" s="27"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM26" s="4"/>
       <c r="AN26" s="19"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
@@ -5601,13 +5580,13 @@
       <c r="BD26" s="19"/>
       <c r="BE26" s="19"/>
     </row>
-    <row r="27" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -5619,7 +5598,7 @@
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
@@ -5627,7 +5606,7 @@
       <c r="O27" s="26"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
@@ -5639,7 +5618,7 @@
       <c r="Y27" s="26"/>
       <c r="Z27" s="27"/>
       <c r="AA27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB27" s="26"/>
       <c r="AC27" s="26"/>
@@ -5652,9 +5631,7 @@
       <c r="AJ27" s="26"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="4"/>
-      <c r="AM27" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM27" s="4"/>
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
@@ -5674,13 +5651,13 @@
       <c r="BD27" s="19"/>
       <c r="BE27" s="19"/>
     </row>
-    <row r="28" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -5692,7 +5669,7 @@
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="25" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
@@ -5700,7 +5677,7 @@
       <c r="O28" s="26"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
@@ -5712,7 +5689,7 @@
       <c r="Y28" s="26"/>
       <c r="Z28" s="27"/>
       <c r="AA28" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
@@ -5725,9 +5702,7 @@
       <c r="AJ28" s="26"/>
       <c r="AK28" s="27"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM28" s="4"/>
       <c r="AN28" s="19"/>
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
@@ -5747,13 +5722,13 @@
       <c r="BD28" s="19"/>
       <c r="BE28" s="19"/>
     </row>
-    <row r="29" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -5765,7 +5740,7 @@
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
@@ -5773,7 +5748,7 @@
       <c r="O29" s="26"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="25" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
@@ -5785,24 +5760,20 @@
       <c r="Y29" s="26"/>
       <c r="Z29" s="27"/>
       <c r="AA29" s="25" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="26"/>
       <c r="AE29" s="26"/>
       <c r="AF29" s="27"/>
-      <c r="AG29" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="AG29" s="26"/>
       <c r="AH29" s="26"/>
       <c r="AI29" s="26"/>
       <c r="AJ29" s="26"/>
       <c r="AK29" s="27"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM29" s="4"/>
       <c r="AN29" s="19"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="19"/>
@@ -5822,13 +5793,13 @@
       <c r="BD29" s="19"/>
       <c r="BE29" s="19"/>
     </row>
-    <row r="30" spans="1:57" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -5840,7 +5811,7 @@
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="25" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
@@ -5848,7 +5819,7 @@
       <c r="O30" s="26"/>
       <c r="P30" s="27"/>
       <c r="Q30" s="25" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="26"/>
@@ -5860,24 +5831,20 @@
       <c r="Y30" s="26"/>
       <c r="Z30" s="27"/>
       <c r="AA30" s="25" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="26"/>
       <c r="AE30" s="26"/>
       <c r="AF30" s="27"/>
-      <c r="AG30" s="25" t="s">
-        <v>139</v>
-      </c>
+      <c r="AG30" s="26"/>
       <c r="AH30" s="26"/>
       <c r="AI30" s="26"/>
       <c r="AJ30" s="26"/>
       <c r="AK30" s="27"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM30" s="4"/>
       <c r="AN30" s="19"/>
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
@@ -5897,13 +5864,13 @@
       <c r="BD30" s="19"/>
       <c r="BE30" s="19"/>
     </row>
-    <row r="31" spans="1:57" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -5915,7 +5882,7 @@
       </c>
       <c r="J31" s="21"/>
       <c r="K31" s="25" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L31" s="26"/>
       <c r="M31" s="26"/>
@@ -5923,7 +5890,7 @@
       <c r="O31" s="26"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="25" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
@@ -5950,9 +5917,7 @@
       <c r="AJ31" s="26"/>
       <c r="AK31" s="27"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM31" s="4"/>
       <c r="AN31" s="19"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
@@ -5972,13 +5937,13 @@
       <c r="BD31" s="19"/>
       <c r="BE31" s="19"/>
     </row>
-    <row r="32" spans="1:57" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -5986,11 +5951,11 @@
       <c r="G32" s="23"/>
       <c r="H32" s="24"/>
       <c r="I32" s="20" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="J32" s="21"/>
       <c r="K32" s="25" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="L32" s="26"/>
       <c r="M32" s="26"/>
@@ -5998,7 +5963,7 @@
       <c r="O32" s="26"/>
       <c r="P32" s="27"/>
       <c r="Q32" s="25" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
@@ -6010,22 +5975,22 @@
       <c r="Y32" s="26"/>
       <c r="Z32" s="27"/>
       <c r="AA32" s="25" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="AB32" s="26"/>
       <c r="AC32" s="26"/>
       <c r="AD32" s="26"/>
       <c r="AE32" s="26"/>
       <c r="AF32" s="27"/>
-      <c r="AG32" s="25"/>
+      <c r="AG32" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="AH32" s="26"/>
       <c r="AI32" s="26"/>
       <c r="AJ32" s="26"/>
       <c r="AK32" s="27"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AM32" s="4"/>
       <c r="AN32" s="19"/>
       <c r="AO32" s="19"/>
       <c r="AP32" s="19"/>
@@ -6045,60 +6010,60 @@
       <c r="BD32" s="19"/>
       <c r="BE32" s="19"/>
     </row>
-    <row r="33" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B33" s="21"/>
-      <c r="C33" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
+      <c r="C33" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="25" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="L33" s="26"/>
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
       <c r="P33" s="27"/>
-      <c r="Q33" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="88"/>
+      <c r="Q33" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="27"/>
       <c r="AA33" s="25" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AB33" s="26"/>
       <c r="AC33" s="26"/>
       <c r="AD33" s="26"/>
       <c r="AE33" s="26"/>
       <c r="AF33" s="27"/>
-      <c r="AG33" s="25"/>
+      <c r="AG33" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="AH33" s="26"/>
       <c r="AI33" s="26"/>
       <c r="AJ33" s="26"/>
       <c r="AK33" s="27"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="AM33" s="4"/>
       <c r="AN33" s="19"/>
       <c r="AO33" s="19"/>
       <c r="AP33" s="19"/>
@@ -6118,175 +6083,157 @@
       <c r="BD33" s="19"/>
       <c r="BE33" s="19"/>
     </row>
-    <row r="34" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B34" s="21"/>
-      <c r="C34" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30"/>
+      <c r="C34" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="25" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
       <c r="P34" s="27"/>
-      <c r="Q34" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="91"/>
+      <c r="Q34" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="27"/>
       <c r="AA34" s="25" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="AB34" s="26"/>
       <c r="AC34" s="26"/>
       <c r="AD34" s="26"/>
       <c r="AE34" s="26"/>
       <c r="AF34" s="27"/>
-      <c r="AG34" s="25" t="s">
-        <v>56</v>
-      </c>
+      <c r="AG34" s="25"/>
       <c r="AH34" s="26"/>
       <c r="AI34" s="26"/>
       <c r="AJ34" s="26"/>
       <c r="AK34" s="27"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="33"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
       <c r="AS34" s="28"/>
-      <c r="AT34" s="29"/>
-      <c r="AU34" s="30"/>
+      <c r="AT34" s="28"/>
+      <c r="AU34" s="28"/>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="29"/>
-      <c r="AZ34" s="30"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
-      <c r="BC34" s="31"/>
-      <c r="BD34" s="32"/>
-      <c r="BE34" s="33"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="19"/>
+      <c r="BE34" s="19"/>
     </row>
-    <row r="35" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="33"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="31"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="33"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="31"/>
-      <c r="AY35" s="32"/>
-      <c r="AZ35" s="33"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="31"/>
-      <c r="BD35" s="32"/>
-      <c r="BE35" s="33"/>
+    <row r="35" spans="1:57" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="93"/>
+      <c r="AK35" s="93"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="93"/>
+      <c r="AN35" s="93"/>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="93"/>
+      <c r="AQ35" s="93"/>
+      <c r="AR35" s="93"/>
+      <c r="AS35" s="93"/>
+      <c r="AT35" s="93"/>
+      <c r="AU35" s="93"/>
+      <c r="AV35" s="93"/>
+      <c r="AW35" s="93"/>
+      <c r="AX35" s="93"/>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="93"/>
+      <c r="BA35" s="93"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="94"/>
     </row>
-    <row r="36" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B36" s="21"/>
-      <c r="C36" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
+      <c r="C36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="25" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
@@ -6294,7 +6241,7 @@
       <c r="O36" s="26"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="25" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
@@ -6306,62 +6253,58 @@
       <c r="Y36" s="26"/>
       <c r="Z36" s="27"/>
       <c r="AA36" s="25" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="AB36" s="26"/>
       <c r="AC36" s="26"/>
       <c r="AD36" s="26"/>
       <c r="AE36" s="26"/>
       <c r="AF36" s="27"/>
-      <c r="AG36" s="25" t="s">
-        <v>90</v>
-      </c>
+      <c r="AG36" s="25"/>
       <c r="AH36" s="26"/>
       <c r="AI36" s="26"/>
       <c r="AJ36" s="26"/>
       <c r="AK36" s="27"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN36" s="31"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="33"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="28"/>
+      <c r="AO36" s="28"/>
+      <c r="AP36" s="28"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
-      <c r="AS36" s="31"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="33"/>
+      <c r="AS36" s="28"/>
+      <c r="AT36" s="28"/>
+      <c r="AU36" s="28"/>
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
-      <c r="AX36" s="31"/>
-      <c r="AY36" s="32"/>
-      <c r="AZ36" s="33"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="19"/>
+      <c r="AZ36" s="19"/>
       <c r="BA36" s="4"/>
       <c r="BB36" s="4"/>
-      <c r="BC36" s="31"/>
-      <c r="BD36" s="32"/>
-      <c r="BE36" s="33"/>
+      <c r="BC36" s="19"/>
+      <c r="BD36" s="19"/>
+      <c r="BE36" s="19"/>
     </row>
-    <row r="37" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B37" s="21"/>
-      <c r="C37" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
+      <c r="C37" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="25" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
@@ -6369,7 +6312,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="25" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
@@ -6381,62 +6324,58 @@
       <c r="Y37" s="26"/>
       <c r="Z37" s="27"/>
       <c r="AA37" s="25" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="AB37" s="26"/>
       <c r="AC37" s="26"/>
       <c r="AD37" s="26"/>
       <c r="AE37" s="26"/>
       <c r="AF37" s="27"/>
-      <c r="AG37" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="AG37" s="25"/>
       <c r="AH37" s="26"/>
       <c r="AI37" s="26"/>
       <c r="AJ37" s="26"/>
       <c r="AK37" s="27"/>
       <c r="AL37" s="4"/>
-      <c r="AM37" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="33"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="28"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="28"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
-      <c r="AS37" s="31"/>
-      <c r="AT37" s="32"/>
-      <c r="AU37" s="33"/>
+      <c r="AS37" s="28"/>
+      <c r="AT37" s="28"/>
+      <c r="AU37" s="28"/>
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
-      <c r="AX37" s="31"/>
-      <c r="AY37" s="32"/>
-      <c r="AZ37" s="33"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
-      <c r="BC37" s="31"/>
-      <c r="BD37" s="32"/>
-      <c r="BE37" s="33"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="19"/>
     </row>
-    <row r="38" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B38" s="21"/>
-      <c r="C38" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
+      <c r="C38" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="25" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -6444,7 +6383,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="25" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
@@ -6456,50 +6395,46 @@
       <c r="Y38" s="26"/>
       <c r="Z38" s="27"/>
       <c r="AA38" s="25" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="AB38" s="26"/>
       <c r="AC38" s="26"/>
       <c r="AD38" s="26"/>
       <c r="AE38" s="26"/>
       <c r="AF38" s="27"/>
-      <c r="AG38" s="25" t="s">
-        <v>90</v>
-      </c>
+      <c r="AG38" s="25"/>
       <c r="AH38" s="26"/>
       <c r="AI38" s="26"/>
       <c r="AJ38" s="26"/>
       <c r="AK38" s="27"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="33"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="32"/>
-      <c r="AU38" s="33"/>
+      <c r="AS38" s="28"/>
+      <c r="AT38" s="28"/>
+      <c r="AU38" s="28"/>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="32"/>
-      <c r="AZ38" s="33"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="19"/>
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="32"/>
-      <c r="BE38" s="33"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
     </row>
-    <row r="39" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="22" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -6511,7 +6446,7 @@
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="25" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
@@ -6519,7 +6454,7 @@
       <c r="O39" s="26"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="25" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="R39" s="26"/>
       <c r="S39" s="26"/>
@@ -6531,32 +6466,28 @@
       <c r="Y39" s="26"/>
       <c r="Z39" s="27"/>
       <c r="AA39" s="25" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="AB39" s="26"/>
       <c r="AC39" s="26"/>
       <c r="AD39" s="26"/>
       <c r="AE39" s="26"/>
       <c r="AF39" s="27"/>
-      <c r="AG39" s="25" t="s">
-        <v>88</v>
-      </c>
+      <c r="AG39" s="25"/>
       <c r="AH39" s="26"/>
       <c r="AI39" s="26"/>
       <c r="AJ39" s="26"/>
       <c r="AK39" s="27"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="19"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
+      <c r="AS39" s="28"/>
+      <c r="AT39" s="28"/>
+      <c r="AU39" s="28"/>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
       <c r="AX39" s="19"/>
@@ -6568,13 +6499,13 @@
       <c r="BD39" s="19"/>
       <c r="BE39" s="19"/>
     </row>
-    <row r="40" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="22" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -6586,7 +6517,7 @@
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="25" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
@@ -6594,7 +6525,7 @@
       <c r="O40" s="26"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="25" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="R40" s="26"/>
       <c r="S40" s="26"/>
@@ -6606,32 +6537,28 @@
       <c r="Y40" s="26"/>
       <c r="Z40" s="27"/>
       <c r="AA40" s="25" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="AB40" s="26"/>
       <c r="AC40" s="26"/>
       <c r="AD40" s="26"/>
       <c r="AE40" s="26"/>
       <c r="AF40" s="27"/>
-      <c r="AG40" s="25" t="s">
-        <v>106</v>
-      </c>
+      <c r="AG40" s="25"/>
       <c r="AH40" s="26"/>
       <c r="AI40" s="26"/>
       <c r="AJ40" s="26"/>
       <c r="AK40" s="27"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="19"/>
-      <c r="AP40" s="19"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4"/>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
+      <c r="AS40" s="28"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="28"/>
       <c r="AV40" s="4"/>
       <c r="AW40" s="4"/>
       <c r="AX40" s="19"/>
@@ -6643,13 +6570,13 @@
       <c r="BD40" s="19"/>
       <c r="BE40" s="19"/>
     </row>
-    <row r="41" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
@@ -6661,7 +6588,7 @@
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="25" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
@@ -6669,7 +6596,7 @@
       <c r="O41" s="26"/>
       <c r="P41" s="27"/>
       <c r="Q41" s="25" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="R41" s="26"/>
       <c r="S41" s="26"/>
@@ -6681,32 +6608,28 @@
       <c r="Y41" s="26"/>
       <c r="Z41" s="27"/>
       <c r="AA41" s="25" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="AB41" s="26"/>
       <c r="AC41" s="26"/>
       <c r="AD41" s="26"/>
       <c r="AE41" s="26"/>
       <c r="AF41" s="27"/>
-      <c r="AG41" s="25" t="s">
-        <v>136</v>
-      </c>
+      <c r="AG41" s="25"/>
       <c r="AH41" s="26"/>
       <c r="AI41" s="26"/>
       <c r="AJ41" s="26"/>
       <c r="AK41" s="27"/>
       <c r="AL41" s="4"/>
-      <c r="AM41" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="19"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4"/>
-      <c r="AS41" s="74"/>
-      <c r="AT41" s="74"/>
-      <c r="AU41" s="74"/>
+      <c r="AS41" s="28"/>
+      <c r="AT41" s="28"/>
+      <c r="AU41" s="28"/>
       <c r="AV41" s="4"/>
       <c r="AW41" s="4"/>
       <c r="AX41" s="19"/>
@@ -6718,1508 +6641,133 @@
       <c r="BD41" s="19"/>
       <c r="BE41" s="19"/>
     </row>
-    <row r="42" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="19"/>
-      <c r="AP42" s="19"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="19"/>
-      <c r="AT42" s="19"/>
-      <c r="AU42" s="19"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="19"/>
-      <c r="AY42" s="19"/>
-      <c r="AZ42" s="19"/>
-      <c r="BA42" s="4"/>
-      <c r="BB42" s="4"/>
-      <c r="BC42" s="19"/>
-      <c r="BD42" s="19"/>
-      <c r="BE42" s="19"/>
-    </row>
-    <row r="43" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="27"/>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN43" s="19"/>
-      <c r="AO43" s="19"/>
-      <c r="AP43" s="19"/>
-      <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="19"/>
-      <c r="AT43" s="19"/>
-      <c r="AU43" s="19"/>
-      <c r="AV43" s="4"/>
-      <c r="AW43" s="4"/>
-      <c r="AX43" s="19"/>
-      <c r="AY43" s="19"/>
-      <c r="AZ43" s="19"/>
-      <c r="BA43" s="4"/>
-      <c r="BB43" s="4"/>
-      <c r="BC43" s="19"/>
-      <c r="BD43" s="19"/>
-      <c r="BE43" s="19"/>
-    </row>
-    <row r="44" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="27"/>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN44" s="19"/>
-      <c r="AO44" s="19"/>
-      <c r="AP44" s="19"/>
-      <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
-      <c r="AS44" s="19"/>
-      <c r="AT44" s="19"/>
-      <c r="AU44" s="19"/>
-      <c r="AV44" s="4"/>
-      <c r="AW44" s="4"/>
-      <c r="AX44" s="19"/>
-      <c r="AY44" s="19"/>
-      <c r="AZ44" s="19"/>
-      <c r="BA44" s="4"/>
-      <c r="BB44" s="4"/>
-      <c r="BC44" s="19"/>
-      <c r="BD44" s="19"/>
-      <c r="BE44" s="19"/>
-    </row>
-    <row r="45" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="27"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="27"/>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN45" s="19"/>
-      <c r="AO45" s="19"/>
-      <c r="AP45" s="19"/>
-      <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
-      <c r="AS45" s="19"/>
-      <c r="AT45" s="19"/>
-      <c r="AU45" s="19"/>
-      <c r="AV45" s="4"/>
-      <c r="AW45" s="4"/>
-      <c r="AX45" s="19"/>
-      <c r="AY45" s="19"/>
-      <c r="AZ45" s="19"/>
-      <c r="BA45" s="4"/>
-      <c r="BB45" s="4"/>
-      <c r="BC45" s="19"/>
-      <c r="BD45" s="19"/>
-      <c r="BE45" s="19"/>
-    </row>
-    <row r="46" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="27"/>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN46" s="19"/>
-      <c r="AO46" s="19"/>
-      <c r="AP46" s="19"/>
-      <c r="AQ46" s="4"/>
-      <c r="AR46" s="4"/>
-      <c r="AS46" s="19"/>
-      <c r="AT46" s="19"/>
-      <c r="AU46" s="19"/>
-      <c r="AV46" s="4"/>
-      <c r="AW46" s="4"/>
-      <c r="AX46" s="19"/>
-      <c r="AY46" s="19"/>
-      <c r="AZ46" s="19"/>
-      <c r="BA46" s="4"/>
-      <c r="BB46" s="4"/>
-      <c r="BC46" s="19"/>
-      <c r="BD46" s="19"/>
-      <c r="BE46" s="19"/>
-    </row>
-    <row r="47" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="4"/>
-      <c r="AM47" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="19"/>
-      <c r="AP47" s="19"/>
-      <c r="AQ47" s="4"/>
-      <c r="AR47" s="4"/>
-      <c r="AS47" s="19"/>
-      <c r="AT47" s="19"/>
-      <c r="AU47" s="19"/>
-      <c r="AV47" s="4"/>
-      <c r="AW47" s="4"/>
-      <c r="AX47" s="19"/>
-      <c r="AY47" s="19"/>
-      <c r="AZ47" s="19"/>
-      <c r="BA47" s="4"/>
-      <c r="BB47" s="4"/>
-      <c r="BC47" s="19"/>
-      <c r="BD47" s="19"/>
-      <c r="BE47" s="19"/>
-    </row>
-    <row r="48" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="27"/>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN48" s="19"/>
-      <c r="AO48" s="19"/>
-      <c r="AP48" s="19"/>
-      <c r="AQ48" s="4"/>
-      <c r="AR48" s="4"/>
-      <c r="AS48" s="19"/>
-      <c r="AT48" s="19"/>
-      <c r="AU48" s="19"/>
-      <c r="AV48" s="4"/>
-      <c r="AW48" s="4"/>
-      <c r="AX48" s="19"/>
-      <c r="AY48" s="19"/>
-      <c r="AZ48" s="19"/>
-      <c r="BA48" s="4"/>
-      <c r="BB48" s="4"/>
-      <c r="BC48" s="19"/>
-      <c r="BD48" s="19"/>
-      <c r="BE48" s="19"/>
-    </row>
-    <row r="49" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="27"/>
-      <c r="AL49" s="4"/>
-      <c r="AM49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN49" s="19"/>
-      <c r="AO49" s="19"/>
-      <c r="AP49" s="19"/>
-      <c r="AQ49" s="4"/>
-      <c r="AR49" s="4"/>
-      <c r="AS49" s="19"/>
-      <c r="AT49" s="19"/>
-      <c r="AU49" s="19"/>
-      <c r="AV49" s="4"/>
-      <c r="AW49" s="4"/>
-      <c r="AX49" s="19"/>
-      <c r="AY49" s="19"/>
-      <c r="AZ49" s="19"/>
-      <c r="BA49" s="4"/>
-      <c r="BB49" s="4"/>
-      <c r="BC49" s="19"/>
-      <c r="BD49" s="19"/>
-      <c r="BE49" s="19"/>
-    </row>
-    <row r="50" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="27"/>
-      <c r="AL50" s="4"/>
-      <c r="AM50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN50" s="19"/>
-      <c r="AO50" s="19"/>
-      <c r="AP50" s="19"/>
-      <c r="AQ50" s="4"/>
-      <c r="AR50" s="4"/>
-      <c r="AS50" s="19"/>
-      <c r="AT50" s="19"/>
-      <c r="AU50" s="19"/>
-      <c r="AV50" s="4"/>
-      <c r="AW50" s="4"/>
-      <c r="AX50" s="19"/>
-      <c r="AY50" s="19"/>
-      <c r="AZ50" s="19"/>
-      <c r="BA50" s="4"/>
-      <c r="BB50" s="4"/>
-      <c r="BC50" s="19"/>
-      <c r="BD50" s="19"/>
-      <c r="BE50" s="19"/>
-    </row>
-    <row r="51" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J51" s="21"/>
-      <c r="K51" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="27"/>
-      <c r="AL51" s="4"/>
-      <c r="AM51" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN51" s="19"/>
-      <c r="AO51" s="19"/>
-      <c r="AP51" s="19"/>
-      <c r="AQ51" s="4"/>
-      <c r="AR51" s="4"/>
-      <c r="AS51" s="19"/>
-      <c r="AT51" s="19"/>
-      <c r="AU51" s="19"/>
-      <c r="AV51" s="4"/>
-      <c r="AW51" s="4"/>
-      <c r="AX51" s="19"/>
-      <c r="AY51" s="19"/>
-      <c r="AZ51" s="19"/>
-      <c r="BA51" s="4"/>
-      <c r="BB51" s="4"/>
-      <c r="BC51" s="19"/>
-      <c r="BD51" s="19"/>
-      <c r="BE51" s="19"/>
-    </row>
-    <row r="52" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J52" s="21"/>
-      <c r="K52" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB52" s="26"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="26"/>
-      <c r="AE52" s="26"/>
-      <c r="AF52" s="27"/>
-      <c r="AG52" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH52" s="26"/>
-      <c r="AI52" s="26"/>
-      <c r="AJ52" s="26"/>
-      <c r="AK52" s="27"/>
-      <c r="AL52" s="4"/>
-      <c r="AM52" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN52" s="19"/>
-      <c r="AO52" s="19"/>
-      <c r="AP52" s="19"/>
-      <c r="AQ52" s="4"/>
-      <c r="AR52" s="4"/>
-      <c r="AS52" s="19"/>
-      <c r="AT52" s="19"/>
-      <c r="AU52" s="19"/>
-      <c r="AV52" s="4"/>
-      <c r="AW52" s="4"/>
-      <c r="AX52" s="19"/>
-      <c r="AY52" s="19"/>
-      <c r="AZ52" s="19"/>
-      <c r="BA52" s="4"/>
-      <c r="BB52" s="4"/>
-      <c r="BC52" s="19"/>
-      <c r="BD52" s="19"/>
-      <c r="BE52" s="19"/>
-    </row>
-    <row r="53" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="27"/>
-      <c r="AG53" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
-      <c r="AJ53" s="26"/>
-      <c r="AK53" s="27"/>
-      <c r="AL53" s="4"/>
-      <c r="AM53" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN53" s="19"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="19"/>
-      <c r="AQ53" s="4"/>
-      <c r="AR53" s="4"/>
-      <c r="AS53" s="19"/>
-      <c r="AT53" s="19"/>
-      <c r="AU53" s="19"/>
-      <c r="AV53" s="4"/>
-      <c r="AW53" s="4"/>
-      <c r="AX53" s="19"/>
-      <c r="AY53" s="19"/>
-      <c r="AZ53" s="19"/>
-      <c r="BA53" s="4"/>
-      <c r="BB53" s="4"/>
-      <c r="BC53" s="19"/>
-      <c r="BD53" s="19"/>
-      <c r="BE53" s="19"/>
-    </row>
-    <row r="54" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="26"/>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="26"/>
-      <c r="AJ54" s="26"/>
-      <c r="AK54" s="27"/>
-      <c r="AL54" s="4"/>
-      <c r="AM54" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN54" s="19"/>
-      <c r="AO54" s="19"/>
-      <c r="AP54" s="19"/>
-      <c r="AQ54" s="4"/>
-      <c r="AR54" s="4"/>
-      <c r="AS54" s="19"/>
-      <c r="AT54" s="19"/>
-      <c r="AU54" s="19"/>
-      <c r="AV54" s="4"/>
-      <c r="AW54" s="4"/>
-      <c r="AX54" s="19"/>
-      <c r="AY54" s="19"/>
-      <c r="AZ54" s="19"/>
-      <c r="BA54" s="4"/>
-      <c r="BB54" s="4"/>
-      <c r="BC54" s="19"/>
-      <c r="BD54" s="19"/>
-      <c r="BE54" s="19"/>
-    </row>
-    <row r="55" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J55" s="21"/>
-      <c r="K55" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="26"/>
-      <c r="AD55" s="26"/>
-      <c r="AE55" s="26"/>
-      <c r="AF55" s="27"/>
-      <c r="AG55" s="25"/>
-      <c r="AH55" s="26"/>
-      <c r="AI55" s="26"/>
-      <c r="AJ55" s="26"/>
-      <c r="AK55" s="27"/>
-      <c r="AL55" s="4"/>
-      <c r="AM55" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN55" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO55" s="74"/>
-      <c r="AP55" s="74"/>
-      <c r="AQ55" s="4"/>
-      <c r="AR55" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS55" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT55" s="74"/>
-      <c r="AU55" s="74"/>
-      <c r="AV55" s="4"/>
-      <c r="AW55" s="4"/>
-      <c r="AX55" s="19"/>
-      <c r="AY55" s="19"/>
-      <c r="AZ55" s="19"/>
-      <c r="BA55" s="4"/>
-      <c r="BB55" s="4"/>
-      <c r="BC55" s="19"/>
-      <c r="BD55" s="19"/>
-      <c r="BE55" s="19"/>
-    </row>
   </sheetData>
-  <mergeCells count="552">
-    <mergeCell ref="AX55:AZ55"/>
-    <mergeCell ref="BC55:BE55"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:P55"/>
-    <mergeCell ref="Q55:Z55"/>
-    <mergeCell ref="AA55:AF55"/>
-    <mergeCell ref="AG55:AK55"/>
-    <mergeCell ref="AN55:AP55"/>
-    <mergeCell ref="AS55:AU55"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BC32:BE32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="AA32:AF32"/>
-    <mergeCell ref="AG32:AK32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="Q31:Z31"/>
-    <mergeCell ref="AA31:AF31"/>
-    <mergeCell ref="AG31:AK31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="Q29:Z29"/>
-    <mergeCell ref="AA29:AF29"/>
-    <mergeCell ref="AG29:AK29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="Q30:Z30"/>
-    <mergeCell ref="AA30:AF30"/>
-    <mergeCell ref="AG30:AK30"/>
-    <mergeCell ref="AX52:AZ52"/>
-    <mergeCell ref="BC52:BE52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:P53"/>
-    <mergeCell ref="Q53:Z53"/>
-    <mergeCell ref="AA53:AF53"/>
-    <mergeCell ref="AG53:AK53"/>
-    <mergeCell ref="AN53:AP53"/>
-    <mergeCell ref="AS53:AU53"/>
-    <mergeCell ref="AX53:AZ53"/>
-    <mergeCell ref="BC53:BE53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:P52"/>
-    <mergeCell ref="Q52:Z52"/>
-    <mergeCell ref="AA52:AF52"/>
-    <mergeCell ref="AG52:AK52"/>
-    <mergeCell ref="AN52:AP52"/>
-    <mergeCell ref="AS52:AU52"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="K17:P17"/>
+  <mergeCells count="388">
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="BC40:BE40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="Q41:Z41"/>
+    <mergeCell ref="AA41:AF41"/>
+    <mergeCell ref="AG41:AK41"/>
+    <mergeCell ref="AN41:AP41"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="BC41:BE41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="AA40:AF40"/>
+    <mergeCell ref="AG40:AK40"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="AS40:AU40"/>
+    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="BC39:BE39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="AA36:AF36"/>
+    <mergeCell ref="AG36:AK36"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="BC36:BE36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="AA39:AF39"/>
+    <mergeCell ref="AG39:AK39"/>
+    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="AS39:AU39"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BC37:BE37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="AA38:AF38"/>
+    <mergeCell ref="AG38:AK38"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AS38:AU38"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="AA37:AF37"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="AA33:AF33"/>
+    <mergeCell ref="AG33:AK33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="BC20:BE20"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="BC19:BE19"/>
     <mergeCell ref="Q17:Z17"/>
     <mergeCell ref="AA17:AF17"/>
     <mergeCell ref="AG17:AK17"/>
     <mergeCell ref="AN17:AP17"/>
     <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="AA12:AF12"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="BC16:BE16"/>
     <mergeCell ref="AA15:AF15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="AS22:AU22"/>
     <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AS10:AU10"/>
     <mergeCell ref="AG16:AK16"/>
     <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="BC25:BE25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q26:Z26"/>
-    <mergeCell ref="AA26:AF26"/>
-    <mergeCell ref="AG26:AK26"/>
-    <mergeCell ref="AN26:AP26"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="BC26:BE26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="Q25:Z25"/>
-    <mergeCell ref="AA25:AF25"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="AN25:AP25"/>
-    <mergeCell ref="AS25:AU25"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="AA24:AF24"/>
-    <mergeCell ref="AG24:AK24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:Z23"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="BC20:BE20"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AN13:AP13"/>
-    <mergeCell ref="BC27:BE27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="Q28:Z28"/>
-    <mergeCell ref="AA28:AF28"/>
-    <mergeCell ref="AG28:AK28"/>
-    <mergeCell ref="AN28:AP28"/>
-    <mergeCell ref="AS28:AU28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="AG41:AK41"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="AA50:AF50"/>
-    <mergeCell ref="AG50:AK50"/>
-    <mergeCell ref="AN50:AP50"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="AA37:AF37"/>
-    <mergeCell ref="AA43:AF43"/>
-    <mergeCell ref="AG43:AK43"/>
-    <mergeCell ref="AA42:AF42"/>
-    <mergeCell ref="AA39:AF39"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="AN40:AP40"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:P51"/>
-    <mergeCell ref="Q51:Z51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:P50"/>
-    <mergeCell ref="Q50:Z50"/>
-    <mergeCell ref="AA51:AF51"/>
-    <mergeCell ref="BC50:BE50"/>
-    <mergeCell ref="AG51:AK51"/>
-    <mergeCell ref="AN51:AP51"/>
-    <mergeCell ref="AS51:AU51"/>
-    <mergeCell ref="AX51:AZ51"/>
-    <mergeCell ref="BC51:BE51"/>
-    <mergeCell ref="AX49:AZ49"/>
-    <mergeCell ref="BC49:BE49"/>
-    <mergeCell ref="AS50:AU50"/>
-    <mergeCell ref="AX50:AZ50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:P49"/>
-    <mergeCell ref="Q49:Z49"/>
-    <mergeCell ref="AG49:AK49"/>
-    <mergeCell ref="AN49:AP49"/>
-    <mergeCell ref="AS49:AU49"/>
-    <mergeCell ref="Q48:Z48"/>
-    <mergeCell ref="AA49:AF49"/>
-    <mergeCell ref="BC48:BE48"/>
-    <mergeCell ref="AG47:AK47"/>
-    <mergeCell ref="AN47:AP47"/>
-    <mergeCell ref="AS47:AU47"/>
-    <mergeCell ref="AX47:AZ47"/>
-    <mergeCell ref="BC47:BE47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:P48"/>
-    <mergeCell ref="AS48:AU48"/>
-    <mergeCell ref="AX48:AZ48"/>
-    <mergeCell ref="AA47:AF47"/>
-    <mergeCell ref="AA48:AF48"/>
-    <mergeCell ref="AG48:AK48"/>
-    <mergeCell ref="AN48:AP48"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="K46:P46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="K47:P47"/>
-    <mergeCell ref="Q46:Z46"/>
-    <mergeCell ref="BC46:BE46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="AS46:AU46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="AA46:AF46"/>
-    <mergeCell ref="AG46:AK46"/>
-    <mergeCell ref="AN46:AP46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="Q47:Z47"/>
-    <mergeCell ref="AS45:AU45"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BC45:BE45"/>
-    <mergeCell ref="AG44:AK44"/>
-    <mergeCell ref="AN44:AP44"/>
-    <mergeCell ref="AS44:AU44"/>
-    <mergeCell ref="AX44:AZ44"/>
-    <mergeCell ref="BC44:BE44"/>
-    <mergeCell ref="Q45:Z45"/>
-    <mergeCell ref="AA44:AF44"/>
-    <mergeCell ref="AA45:AF45"/>
-    <mergeCell ref="AG45:AK45"/>
-    <mergeCell ref="AN45:AP45"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:P45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="K43:P43"/>
-    <mergeCell ref="Q43:Z43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:P44"/>
-    <mergeCell ref="Q44:Z44"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="Q35:Z35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:Z22"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="AA8:AK8"/>
-    <mergeCell ref="AA9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="AA33:AF33"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="Q8:Z9"/>
-    <mergeCell ref="AA11:AF11"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="Q27:Z27"/>
-    <mergeCell ref="AA27:AF27"/>
-    <mergeCell ref="AG27:AK27"/>
-    <mergeCell ref="AN27:AP27"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="AG33:AK33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BC33:BE33"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="BC35:BE35"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BC34:BE34"/>
-    <mergeCell ref="AS34:AU34"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AN35:AP35"/>
-    <mergeCell ref="AG35:AK35"/>
-    <mergeCell ref="AA35:AF35"/>
-    <mergeCell ref="AA34:AF34"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AS35:AU35"/>
-    <mergeCell ref="BC28:BE28"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="AA40:AF40"/>
-    <mergeCell ref="AG40:AK40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="AG42:AK42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="Q42:Z42"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AN42:AP42"/>
-    <mergeCell ref="AS42:AU42"/>
-    <mergeCell ref="AG39:AK39"/>
-    <mergeCell ref="AN39:AP39"/>
-    <mergeCell ref="AG36:AK36"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="AX41:AZ41"/>
-    <mergeCell ref="AS27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG34:AK34"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="AS18:AU18"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AT3:AU3"/>
     <mergeCell ref="A1:C1"/>
@@ -8238,83 +6786,258 @@
     <mergeCell ref="D2:AN5"/>
     <mergeCell ref="AO1:AO5"/>
     <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="BC43:BE43"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AN43:AP43"/>
-    <mergeCell ref="AS43:AU43"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="BC36:BE36"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="AX43:AZ43"/>
-    <mergeCell ref="BC42:BE42"/>
-    <mergeCell ref="BC39:BE39"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AN37:AP37"/>
-    <mergeCell ref="AS39:AU39"/>
-    <mergeCell ref="AS40:AU40"/>
-    <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="BC41:BE41"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:P41"/>
-    <mergeCell ref="Q41:Z41"/>
-    <mergeCell ref="AA41:AF41"/>
-    <mergeCell ref="AN41:AP41"/>
-    <mergeCell ref="BC40:BE40"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="AA38:AF38"/>
-    <mergeCell ref="AG38:AK38"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AS38:AU38"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BC37:BE37"/>
-    <mergeCell ref="AA36:AF36"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="AX54:AZ54"/>
-    <mergeCell ref="BC54:BE54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:P54"/>
-    <mergeCell ref="Q54:Z54"/>
-    <mergeCell ref="AA54:AF54"/>
-    <mergeCell ref="AG54:AK54"/>
-    <mergeCell ref="AN54:AP54"/>
-    <mergeCell ref="AS54:AU54"/>
-    <mergeCell ref="AS29:AU29"/>
-    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AA13:AF13"/>
+    <mergeCell ref="AN13:AP13"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="AA8:AK8"/>
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="AA12:AF12"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="Q8:Z9"/>
+    <mergeCell ref="AA11:AF11"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="AA24:AF24"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AA25:AF25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AN25:AP25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="AG26:AK26"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="BC26:BE26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AA26:AF26"/>
+    <mergeCell ref="AA27:AF27"/>
+    <mergeCell ref="AG27:AK27"/>
+    <mergeCell ref="AN27:AP27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="Q28:Z28"/>
+    <mergeCell ref="AG28:AK28"/>
+    <mergeCell ref="AN28:AP28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="Q27:Z27"/>
+    <mergeCell ref="AA28:AF28"/>
+    <mergeCell ref="AA30:AF30"/>
     <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="AG30:AK30"/>
     <mergeCell ref="AN30:AP30"/>
     <mergeCell ref="AS30:AU30"/>
     <mergeCell ref="AX30:AZ30"/>
     <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="Q29:Z29"/>
+    <mergeCell ref="AA29:AF29"/>
+    <mergeCell ref="AG29:AK29"/>
+    <mergeCell ref="AN29:AP29"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A35:BE35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="BC31:BE31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="AA32:AF32"/>
+    <mergeCell ref="AG32:AK32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BC32:BE32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="Q31:Z31"/>
+    <mergeCell ref="AA31:AF31"/>
+    <mergeCell ref="AG31:AK31"/>
     <mergeCell ref="AN31:AP31"/>
     <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="BC31:BE31"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="BC34:BE34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="Q34:Z34"/>
+    <mergeCell ref="AA34:AF34"/>
+    <mergeCell ref="AG34:AK34"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AS34:AU34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J34 I36:J41">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BB55 AQ10:AR55 AV10:AW55 AL10:AM55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV36:AW41 AL36:AM41 BA36:BB41 BA10:BB34 AL10:AM34 AV10:AW34 AQ10:AR34 AQ36:AR41">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8328,6 +7051,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AE6B82DD32ED2D43B562EE23B8899C37" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="96d9b8f1e00177e6841ec08fe2851044">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9" xmlns:ns3="e2ca149d-0452-47e1-ae54-92b8879afeff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfcb4037085589394c396acba2ce8ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9"/>
@@ -8506,22 +7244,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F9013C-A683-4E5F-8E94-E7E8E3CDBEA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8538,21 +7278,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="166">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -1424,6 +1424,41 @@
     <t>1.Outlookを起動する</t>
     <rPh sb="10" eb="12">
       <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outlook起動時に、レジストリで「Notesリンクを開くときの警告ポップアップを表示しない」キーを作る</t>
+    <rPh sb="28" eb="29">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「HKEY_CURRENT_USER\Software\Policies\Microsoft\Office\16.0\Common\Security\Trusted Protocols\All Applications\notes:」が存在しないこと
+</t>
+    <rPh sb="118" eb="120">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「HKEY_CURRENT_USER\Software\Policies\Microsoft\Office\16.0\Common\Security\Trusted Protocols\All Applications\notes:」が作成される</t>
+    <rPh sb="118" eb="120">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2238,6 +2273,33 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2250,33 +2312,6 @@
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2325,6 +2360,159 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2342,159 +2530,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="27" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2905,40 +2940,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -2946,38 +2981,38 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -2985,759 +3020,836 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="6" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="8"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="17"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18">
+      <c r="A4" s="9">
         <v>43097</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="10" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="12"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43111</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="10" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="10" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="12"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43116</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="10" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="10" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="12"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>43129</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="10" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="10" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="12"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>43139</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="10" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="10" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="12"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
     </row>
     <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
     </row>
     <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="12"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
     </row>
     <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="12"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
     </row>
     <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="12"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="12"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="G3:AB3"/>
+    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:AB4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:AB19"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:AB21"/>
     <mergeCell ref="AC23:AF23"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:F22"/>
@@ -3746,83 +3858,6 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:AB23"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:AB21"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:AB19"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:AB4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="G3:AB3"/>
-    <mergeCell ref="A1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3836,10 +3871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE41"/>
+  <dimension ref="A1:BE42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:H41"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3864,494 +3899,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="70" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="89" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59" t="s">
+      <c r="AP1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59" t="s">
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59" t="s">
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="48" t="s">
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="59" t="s">
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="80" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="69" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="69" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65"/>
-      <c r="AX3" s="65"/>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="69" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="91"/>
-      <c r="AP5" s="69" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="63"/>
-      <c r="BC5" s="60"/>
-      <c r="BD5" s="60"/>
-      <c r="BE5" s="60"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="71"/>
+      <c r="BD5" s="71"/>
+      <c r="BE5" s="71"/>
     </row>
     <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="45" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="45" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="45" t="s">
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="45" t="s">
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="59" t="s">
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59" t="s">
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="59"/>
-      <c r="AV8" s="59" t="s">
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="59"/>
-      <c r="AX8" s="59"/>
-      <c r="AY8" s="59"/>
-      <c r="AZ8" s="59"/>
-      <c r="BA8" s="59" t="s">
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="59"/>
-      <c r="BC8" s="59"/>
-      <c r="BD8" s="59"/>
-      <c r="BE8" s="59"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
     </row>
     <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="48" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51" t="s">
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="53"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="83"/>
       <c r="AL9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AM9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="59" t="s">
+      <c r="AN9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
       <c r="AQ9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="59" t="s">
+      <c r="AS9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="59"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
       <c r="AV9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX9" s="59" t="s">
+      <c r="AX9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="59"/>
-      <c r="AZ9" s="59"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
       <c r="BA9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC9" s="59" t="s">
+      <c r="BC9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BD9" s="59"/>
-      <c r="BE9" s="59"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
     </row>
     <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
@@ -4378,18 +4413,18 @@
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="27"/>
-      <c r="Q10" s="35" t="s">
+      <c r="Q10" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="37"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="88"/>
       <c r="AA10" s="25" t="s">
         <v>51</v>
       </c>
@@ -4449,18 +4484,18 @@
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="27"/>
-      <c r="Q11" s="38" t="s">
+      <c r="Q11" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="40"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
       <c r="AA11" s="25" t="s">
         <v>55</v>
       </c>
@@ -4522,18 +4557,18 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="27"/>
-      <c r="Q12" s="35" t="s">
+      <c r="Q12" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="37"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="88"/>
       <c r="AA12" s="25" t="s">
         <v>51</v>
       </c>
@@ -4593,18 +4628,18 @@
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="27"/>
-      <c r="Q13" s="38" t="s">
+      <c r="Q13" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="40"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="91"/>
       <c r="AA13" s="25" t="s">
         <v>55</v>
       </c>
@@ -6641,30 +6676,432 @@
       <c r="BD41" s="19"/>
       <c r="BE41" s="19"/>
     </row>
+    <row r="42" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="27"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="28"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="28"/>
+      <c r="AT42" s="28"/>
+      <c r="AU42" s="28"/>
+      <c r="AV42" s="4"/>
+      <c r="AW42" s="4"/>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="19"/>
+      <c r="AZ42" s="19"/>
+      <c r="BA42" s="4"/>
+      <c r="BB42" s="4"/>
+      <c r="BC42" s="19"/>
+      <c r="BD42" s="19"/>
+      <c r="BE42" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="388">
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="BC40:BE40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:P41"/>
-    <mergeCell ref="Q41:Z41"/>
-    <mergeCell ref="AA41:AF41"/>
-    <mergeCell ref="AG41:AK41"/>
-    <mergeCell ref="AN41:AP41"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="AX41:AZ41"/>
-    <mergeCell ref="BC41:BE41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="AA40:AF40"/>
-    <mergeCell ref="AG40:AK40"/>
-    <mergeCell ref="AN40:AP40"/>
-    <mergeCell ref="AS40:AU40"/>
+  <mergeCells count="399">
+    <mergeCell ref="AX42:AZ42"/>
+    <mergeCell ref="BC42:BE42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:P42"/>
+    <mergeCell ref="Q42:Z42"/>
+    <mergeCell ref="AA42:AF42"/>
+    <mergeCell ref="AG42:AK42"/>
+    <mergeCell ref="AN42:AP42"/>
+    <mergeCell ref="AS42:AU42"/>
+    <mergeCell ref="BC34:BE34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="Q34:Z34"/>
+    <mergeCell ref="AA34:AF34"/>
+    <mergeCell ref="AG34:AK34"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="Q31:Z31"/>
+    <mergeCell ref="AA31:AF31"/>
+    <mergeCell ref="AG31:AK31"/>
+    <mergeCell ref="AN31:AP31"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="A35:BE35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="BC31:BE31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="AA32:AF32"/>
+    <mergeCell ref="AG32:AK32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BC32:BE32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="Q29:Z29"/>
+    <mergeCell ref="AA30:AF30"/>
+    <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="AG30:AK30"/>
+    <mergeCell ref="AN30:AP30"/>
+    <mergeCell ref="AS30:AU30"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AA29:AF29"/>
+    <mergeCell ref="AG29:AK29"/>
+    <mergeCell ref="AN29:AP29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="Q28:Z28"/>
+    <mergeCell ref="AG28:AK28"/>
+    <mergeCell ref="AN28:AP28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="Q27:Z27"/>
+    <mergeCell ref="AA28:AF28"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="AG26:AK26"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="BC26:BE26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AA26:AF26"/>
+    <mergeCell ref="AA27:AF27"/>
+    <mergeCell ref="AG27:AK27"/>
+    <mergeCell ref="AN27:AP27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AA25:AF25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AN25:AP25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="AA24:AF24"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="AA8:AK8"/>
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="AA12:AF12"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="Q8:Z9"/>
+    <mergeCell ref="AA11:AF11"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AA13:AF13"/>
+    <mergeCell ref="AN13:AP13"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="D1:AN1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:AN5"/>
+    <mergeCell ref="AO1:AO5"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AS18:AU18"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="BC20:BE20"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="AA17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="BC16:BE16"/>
+    <mergeCell ref="AA15:AF15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="AA33:AF33"/>
+    <mergeCell ref="AG33:AK33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="AA37:AF37"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="AA38:AF38"/>
+    <mergeCell ref="AG38:AK38"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AS38:AU38"/>
     <mergeCell ref="AX39:AZ39"/>
     <mergeCell ref="BC39:BE39"/>
     <mergeCell ref="A36:B36"/>
@@ -6689,355 +7126,35 @@
     <mergeCell ref="AS39:AU39"/>
     <mergeCell ref="AX37:AZ37"/>
     <mergeCell ref="BC37:BE37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="AA38:AF38"/>
-    <mergeCell ref="AG38:AK38"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AS38:AU38"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="AA37:AF37"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AN37:AP37"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BC33:BE33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="AA33:AF33"/>
-    <mergeCell ref="AG33:AK33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="BC20:BE20"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="AA17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="AA15:AF15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="D1:AN1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="D2:AN5"/>
-    <mergeCell ref="AO1:AO5"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="AN13:AP13"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="AA8:AK8"/>
-    <mergeCell ref="AA9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="AA12:AF12"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="Q8:Z9"/>
-    <mergeCell ref="AA11:AF11"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:Z22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:Z23"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="AA24:AF24"/>
-    <mergeCell ref="AG24:AK24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q25:Z25"/>
-    <mergeCell ref="BC25:BE25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="AS25:AU25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AA25:AF25"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="AN25:AP25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="Q26:Z26"/>
-    <mergeCell ref="BC27:BE27"/>
-    <mergeCell ref="AG26:AK26"/>
-    <mergeCell ref="AN26:AP26"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="BC26:BE26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="AS27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AA26:AF26"/>
-    <mergeCell ref="AA27:AF27"/>
-    <mergeCell ref="AG27:AK27"/>
-    <mergeCell ref="AN27:AP27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="Q28:Z28"/>
-    <mergeCell ref="AG28:AK28"/>
-    <mergeCell ref="AN28:AP28"/>
-    <mergeCell ref="AS28:AU28"/>
-    <mergeCell ref="Q27:Z27"/>
-    <mergeCell ref="AA28:AF28"/>
-    <mergeCell ref="AA30:AF30"/>
-    <mergeCell ref="BC29:BE29"/>
-    <mergeCell ref="AG30:AK30"/>
-    <mergeCell ref="AN30:AP30"/>
-    <mergeCell ref="AS30:AU30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="BC28:BE28"/>
-    <mergeCell ref="AS29:AU29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="Q30:Z30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="Q29:Z29"/>
-    <mergeCell ref="AA29:AF29"/>
-    <mergeCell ref="AG29:AK29"/>
-    <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="AA16:AF16"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A35:BE35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="BC31:BE31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="AA32:AF32"/>
-    <mergeCell ref="AG32:AK32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BC32:BE32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="Q31:Z31"/>
-    <mergeCell ref="AA31:AF31"/>
-    <mergeCell ref="AG31:AK31"/>
-    <mergeCell ref="AN31:AP31"/>
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="BC34:BE34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="AA34:AF34"/>
-    <mergeCell ref="AG34:AK34"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="BC40:BE40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="Q41:Z41"/>
+    <mergeCell ref="AA41:AF41"/>
+    <mergeCell ref="AG41:AK41"/>
+    <mergeCell ref="AN41:AP41"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="BC41:BE41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="AA40:AF40"/>
+    <mergeCell ref="AG40:AK40"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="AS40:AU40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J34 I36:J41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J34 I36:J42">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV36:AW41 AL36:AM41 BA36:BB41 BA10:BB34 AL10:AM34 AV10:AW34 AQ10:AR34 AQ36:AR41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV36:AW42 AL36:AM42 BA36:BB42 BA10:BB34 AL10:AM34 AV10:AW34 AQ10:AR34 AQ36:AR42">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7060,12 +7177,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AE6B82DD32ED2D43B562EE23B8899C37" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="96d9b8f1e00177e6841ec08fe2851044">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9" xmlns:ns3="e2ca149d-0452-47e1-ae54-92b8879afeff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfcb4037085589394c396acba2ce8ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9"/>
@@ -7244,6 +7355,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
   <ds:schemaRefs>
@@ -7253,15 +7370,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F9013C-A683-4E5F-8E94-E7E8E3CDBEA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7278,4 +7386,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="3195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16640" windowHeight="3200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="5" r:id="rId1"/>
     <sheet name="テスト一覧" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト一覧!$A$1:$BE$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト一覧!$A$1:$BE$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$AF$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">テスト一覧!#REF!</definedName>
   </definedNames>
@@ -832,9 +832,6 @@
   </si>
   <si>
     <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
   </si>
   <si>
     <t>30</t>
@@ -1267,31 +1264,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>インストール時に、レジストリで「アドイン無効化しない」キーが存在しない場合、キー及び値を作成し、データに1（ON）を入れる</t>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>インストール時に、レジストリで「アドイン無効化しない」キーのOutlookRecipientConfirmationAddinの値が0の場合、1（ON）に変更する</t>
     <rPh sb="6" eb="7">
       <t>ジ</t>
@@ -1304,28 +1276,6 @@
     </rPh>
     <rPh sb="77" eb="79">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outlook起動時に、レジストリで「アドイン無効化しない」キーが存在しない場合、キー及び値を作成し、データに1（ON）を入れる</t>
-    <rPh sb="33" eb="35">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>イ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1426,6 +1376,32 @@
       <t>キドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インストール時に、レジストリで「アドイン無効化しない」キーが存在しない場合、レジストリ更新されない</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DoNotDisableAddinListキーのOutlookRecipientConfirmationAddinが存在しない</t>
+    <rPh sb="58" eb="60">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -2238,6 +2214,33 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2250,33 +2253,6 @@
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2325,6 +2301,159 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2342,159 +2471,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="27" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2898,846 +2874,923 @@
       <selection activeCell="G9" sqref="G9:AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="32" width="4.125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="4.125" style="1"/>
+    <col min="1" max="32" width="4.08984375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="4.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
-    <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+    <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
     </row>
-    <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="6" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="8"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="17"/>
     </row>
-    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18">
+    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>43097</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="12"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>43111</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+    <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>43116</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
+    <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>43129</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+    <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>43139</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="12"/>
+    <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="12"/>
+    <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="12"/>
+    <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="12"/>
+    <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="12"/>
+    <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="12"/>
+    <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="12"/>
+    <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="12"/>
+    <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="12"/>
+    <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="12"/>
+    <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="12"/>
+    <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
     </row>
-    <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="12"/>
+    <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
     </row>
-    <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="12"/>
+    <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="12"/>
+    <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
     </row>
-    <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="12"/>
+    <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="G3:AB3"/>
+    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:AB4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:AB19"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:AB21"/>
     <mergeCell ref="AC23:AF23"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:F22"/>
@@ -3746,83 +3799,6 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:AB23"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:AB21"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:AB19"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:AB4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="G3:AB3"/>
-    <mergeCell ref="A1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3838,522 +3814,522 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:H41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="5.625" style="2" customWidth="1"/>
-    <col min="9" max="15" width="3.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="28.375" style="2" customWidth="1"/>
-    <col min="17" max="25" width="3.625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.875" style="2" customWidth="1"/>
-    <col min="27" max="37" width="3.625" style="2" customWidth="1"/>
-    <col min="38" max="39" width="3.875" style="2" customWidth="1"/>
-    <col min="40" max="41" width="3.625" style="2" customWidth="1"/>
-    <col min="42" max="42" width="14.125" style="2" customWidth="1"/>
-    <col min="43" max="44" width="3.875" style="2" customWidth="1"/>
-    <col min="45" max="46" width="3.625" style="2" customWidth="1"/>
-    <col min="47" max="47" width="10.625" style="2" customWidth="1"/>
-    <col min="48" max="49" width="3.875" style="2" customWidth="1"/>
-    <col min="50" max="52" width="3.625" style="2" customWidth="1"/>
-    <col min="53" max="54" width="3.875" style="2" customWidth="1"/>
-    <col min="55" max="16384" width="3.625" style="2"/>
+    <col min="1" max="2" width="3.6328125" style="2" customWidth="1"/>
+    <col min="3" max="8" width="5.6328125" style="2" customWidth="1"/>
+    <col min="9" max="15" width="3.6328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="28.36328125" style="2" customWidth="1"/>
+    <col min="17" max="25" width="3.6328125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.90625" style="2" customWidth="1"/>
+    <col min="27" max="37" width="3.6328125" style="2" customWidth="1"/>
+    <col min="38" max="39" width="3.90625" style="2" customWidth="1"/>
+    <col min="40" max="41" width="3.6328125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="14.08984375" style="2" customWidth="1"/>
+    <col min="43" max="44" width="3.90625" style="2" customWidth="1"/>
+    <col min="45" max="46" width="3.6328125" style="2" customWidth="1"/>
+    <col min="47" max="47" width="10.6328125" style="2" customWidth="1"/>
+    <col min="48" max="49" width="3.90625" style="2" customWidth="1"/>
+    <col min="50" max="52" width="3.6328125" style="2" customWidth="1"/>
+    <col min="53" max="54" width="3.90625" style="2" customWidth="1"/>
+    <col min="55" max="16384" width="3.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="70" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="89" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="59" t="s">
+      <c r="AP1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59" t="s">
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59" t="s">
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="48" t="s">
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="59" t="s">
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="80" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="69" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
     </row>
-    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="69" t="s">
+    <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65"/>
-      <c r="AX3" s="65"/>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="69" t="s">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="91"/>
-      <c r="AP5" s="69" t="s">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="63"/>
-      <c r="BC5" s="60"/>
-      <c r="BD5" s="60"/>
-      <c r="BE5" s="60"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="71"/>
+      <c r="BD5" s="71"/>
+      <c r="BE5" s="71"/>
     </row>
-    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
+    <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="45" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="45" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="45" t="s">
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="45" t="s">
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="59" t="s">
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59" t="s">
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="59"/>
-      <c r="AV8" s="59" t="s">
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="59"/>
-      <c r="AX8" s="59"/>
-      <c r="AY8" s="59"/>
-      <c r="AZ8" s="59"/>
-      <c r="BA8" s="59" t="s">
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="59"/>
-      <c r="BC8" s="59"/>
-      <c r="BD8" s="59"/>
-      <c r="BE8" s="59"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
     </row>
-    <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="48" t="s">
+    <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51" t="s">
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="53"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="83"/>
       <c r="AL9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AM9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="59" t="s">
+      <c r="AN9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
       <c r="AQ9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="59" t="s">
+      <c r="AS9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="59"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
       <c r="AV9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX9" s="59" t="s">
+      <c r="AX9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="59"/>
-      <c r="AZ9" s="59"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
       <c r="BA9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC9" s="59" t="s">
+      <c r="BC9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BD9" s="59"/>
-      <c r="BE9" s="59"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
     </row>
-    <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
@@ -4378,18 +4354,18 @@
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="27"/>
-      <c r="Q10" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="37"/>
+      <c r="Q10" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="88"/>
       <c r="AA10" s="25" t="s">
         <v>51</v>
       </c>
@@ -4424,7 +4400,7 @@
       <c r="BD10" s="19"/>
       <c r="BE10" s="19"/>
     </row>
-    <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>111</v>
       </c>
@@ -4449,18 +4425,18 @@
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="27"/>
-      <c r="Q11" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="40"/>
+      <c r="Q11" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
       <c r="AA11" s="25" t="s">
         <v>55</v>
       </c>
@@ -4497,7 +4473,7 @@
       <c r="BD11" s="33"/>
       <c r="BE11" s="34"/>
     </row>
-    <row r="12" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>26</v>
       </c>
@@ -4522,18 +4498,18 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="27"/>
-      <c r="Q12" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="37"/>
+      <c r="Q12" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="88"/>
       <c r="AA12" s="25" t="s">
         <v>51</v>
       </c>
@@ -4568,7 +4544,7 @@
       <c r="BD12" s="19"/>
       <c r="BE12" s="19"/>
     </row>
-    <row r="13" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>27</v>
       </c>
@@ -4586,25 +4562,25 @@
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="27"/>
-      <c r="Q13" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="40"/>
+      <c r="Q13" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="91"/>
       <c r="AA13" s="25" t="s">
         <v>55</v>
       </c>
@@ -4641,7 +4617,7 @@
       <c r="BD13" s="33"/>
       <c r="BE13" s="34"/>
     </row>
-    <row r="14" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>28</v>
       </c>
@@ -4659,7 +4635,7 @@
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
@@ -4714,7 +4690,7 @@
       <c r="BD14" s="33"/>
       <c r="BE14" s="34"/>
     </row>
-    <row r="15" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
@@ -4732,7 +4708,7 @@
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
@@ -4787,7 +4763,7 @@
       <c r="BD15" s="33"/>
       <c r="BE15" s="34"/>
     </row>
-    <row r="16" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>30</v>
       </c>
@@ -4805,7 +4781,7 @@
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
@@ -4860,7 +4836,7 @@
       <c r="BD16" s="33"/>
       <c r="BE16" s="34"/>
     </row>
-    <row r="17" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
@@ -4878,7 +4854,7 @@
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
@@ -4933,7 +4909,7 @@
       <c r="BD17" s="33"/>
       <c r="BE17" s="34"/>
     </row>
-    <row r="18" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>35</v>
       </c>
@@ -4951,7 +4927,7 @@
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
@@ -5006,7 +4982,7 @@
       <c r="BD18" s="19"/>
       <c r="BE18" s="19"/>
     </row>
-    <row r="19" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>36</v>
       </c>
@@ -5024,7 +5000,7 @@
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
@@ -5079,7 +5055,7 @@
       <c r="BD19" s="19"/>
       <c r="BE19" s="19"/>
     </row>
-    <row r="20" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
@@ -5097,7 +5073,7 @@
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
@@ -5125,7 +5101,7 @@
       <c r="AE20" s="26"/>
       <c r="AF20" s="27"/>
       <c r="AG20" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH20" s="26"/>
       <c r="AI20" s="26"/>
@@ -5152,7 +5128,7 @@
       <c r="BD20" s="19"/>
       <c r="BE20" s="19"/>
     </row>
-    <row r="21" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>38</v>
       </c>
@@ -5170,7 +5146,7 @@
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
@@ -5225,7 +5201,7 @@
       <c r="BD21" s="19"/>
       <c r="BE21" s="19"/>
     </row>
-    <row r="22" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>39</v>
       </c>
@@ -5243,7 +5219,7 @@
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
@@ -5296,7 +5272,7 @@
       <c r="BD22" s="19"/>
       <c r="BE22" s="19"/>
     </row>
-    <row r="23" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>40</v>
       </c>
@@ -5314,7 +5290,7 @@
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
@@ -5367,7 +5343,7 @@
       <c r="BD23" s="19"/>
       <c r="BE23" s="19"/>
     </row>
-    <row r="24" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>41</v>
       </c>
@@ -5385,7 +5361,7 @@
       </c>
       <c r="J24" s="21"/>
       <c r="K24" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
@@ -5438,7 +5414,7 @@
       <c r="BD24" s="19"/>
       <c r="BE24" s="19"/>
     </row>
-    <row r="25" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>42</v>
       </c>
@@ -5456,7 +5432,7 @@
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
@@ -5509,7 +5485,7 @@
       <c r="BD25" s="19"/>
       <c r="BE25" s="19"/>
     </row>
-    <row r="26" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>43</v>
       </c>
@@ -5527,7 +5503,7 @@
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
@@ -5580,7 +5556,7 @@
       <c r="BD26" s="19"/>
       <c r="BE26" s="19"/>
     </row>
-    <row r="27" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>44</v>
       </c>
@@ -5598,7 +5574,7 @@
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
@@ -5651,7 +5627,7 @@
       <c r="BD27" s="19"/>
       <c r="BE27" s="19"/>
     </row>
-    <row r="28" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>91</v>
       </c>
@@ -5669,7 +5645,7 @@
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
@@ -5722,7 +5698,7 @@
       <c r="BD28" s="19"/>
       <c r="BE28" s="19"/>
     </row>
-    <row r="29" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>105</v>
       </c>
@@ -5740,7 +5716,7 @@
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
@@ -5793,7 +5769,7 @@
       <c r="BD29" s="19"/>
       <c r="BE29" s="19"/>
     </row>
-    <row r="30" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>112</v>
       </c>
@@ -5811,7 +5787,7 @@
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
@@ -5864,13 +5840,13 @@
       <c r="BD30" s="19"/>
       <c r="BE30" s="19"/>
     </row>
-    <row r="31" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -5882,7 +5858,7 @@
       </c>
       <c r="J31" s="21"/>
       <c r="K31" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L31" s="26"/>
       <c r="M31" s="26"/>
@@ -5890,7 +5866,7 @@
       <c r="O31" s="26"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
@@ -5937,13 +5913,13 @@
       <c r="BD31" s="19"/>
       <c r="BE31" s="19"/>
     </row>
-    <row r="32" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -5951,11 +5927,11 @@
       <c r="G32" s="23"/>
       <c r="H32" s="24"/>
       <c r="I32" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J32" s="21"/>
       <c r="K32" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L32" s="26"/>
       <c r="M32" s="26"/>
@@ -5963,7 +5939,7 @@
       <c r="O32" s="26"/>
       <c r="P32" s="27"/>
       <c r="Q32" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
@@ -5975,7 +5951,7 @@
       <c r="Y32" s="26"/>
       <c r="Z32" s="27"/>
       <c r="AA32" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB32" s="26"/>
       <c r="AC32" s="26"/>
@@ -5983,7 +5959,7 @@
       <c r="AE32" s="26"/>
       <c r="AF32" s="27"/>
       <c r="AG32" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH32" s="26"/>
       <c r="AI32" s="26"/>
@@ -6010,13 +5986,13 @@
       <c r="BD32" s="19"/>
       <c r="BE32" s="19"/>
     </row>
-    <row r="33" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -6028,7 +6004,7 @@
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L33" s="26"/>
       <c r="M33" s="26"/>
@@ -6036,7 +6012,7 @@
       <c r="O33" s="26"/>
       <c r="P33" s="27"/>
       <c r="Q33" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
@@ -6083,13 +6059,13 @@
       <c r="BD33" s="19"/>
       <c r="BE33" s="19"/>
     </row>
-    <row r="34" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -6101,7 +6077,7 @@
       </c>
       <c r="J34" s="21"/>
       <c r="K34" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
@@ -6109,7 +6085,7 @@
       <c r="O34" s="26"/>
       <c r="P34" s="27"/>
       <c r="Q34" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R34" s="26"/>
       <c r="S34" s="26"/>
@@ -6121,7 +6097,7 @@
       <c r="Y34" s="26"/>
       <c r="Z34" s="27"/>
       <c r="AA34" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB34" s="26"/>
       <c r="AC34" s="26"/>
@@ -6154,9 +6130,9 @@
       <c r="BD34" s="19"/>
       <c r="BE34" s="19"/>
     </row>
-    <row r="35" spans="1:57" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:57" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B35" s="93"/>
       <c r="C35" s="93"/>
@@ -6215,13 +6191,13 @@
       <c r="BD35" s="93"/>
       <c r="BE35" s="94"/>
     </row>
-    <row r="36" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>116</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="22" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -6233,7 +6209,7 @@
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
@@ -6241,7 +6217,7 @@
       <c r="O36" s="26"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
@@ -6253,7 +6229,7 @@
       <c r="Y36" s="26"/>
       <c r="Z36" s="27"/>
       <c r="AA36" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB36" s="26"/>
       <c r="AC36" s="26"/>
@@ -6286,13 +6262,13 @@
       <c r="BD36" s="19"/>
       <c r="BE36" s="19"/>
     </row>
-    <row r="37" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>117</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -6304,7 +6280,7 @@
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
@@ -6312,7 +6288,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
@@ -6324,7 +6300,7 @@
       <c r="Y37" s="26"/>
       <c r="Z37" s="27"/>
       <c r="AA37" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AB37" s="26"/>
       <c r="AC37" s="26"/>
@@ -6357,13 +6333,13 @@
       <c r="BD37" s="19"/>
       <c r="BE37" s="19"/>
     </row>
-    <row r="38" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>118</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -6375,7 +6351,7 @@
       </c>
       <c r="J38" s="21"/>
       <c r="K38" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -6383,7 +6359,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
@@ -6395,7 +6371,7 @@
       <c r="Y38" s="26"/>
       <c r="Z38" s="27"/>
       <c r="AA38" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AB38" s="26"/>
       <c r="AC38" s="26"/>
@@ -6428,25 +6404,25 @@
       <c r="BD38" s="19"/>
       <c r="BE38" s="19"/>
     </row>
-    <row r="39" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B39" s="21"/>
-      <c r="C39" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
+      <c r="C39" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="20" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
@@ -6454,7 +6430,7 @@
       <c r="O39" s="26"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R39" s="26"/>
       <c r="S39" s="26"/>
@@ -6466,7 +6442,7 @@
       <c r="Y39" s="26"/>
       <c r="Z39" s="27"/>
       <c r="AA39" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AB39" s="26"/>
       <c r="AC39" s="26"/>
@@ -6480,32 +6456,32 @@
       <c r="AK39" s="27"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
-      <c r="AN39" s="28"/>
-      <c r="AO39" s="28"/>
-      <c r="AP39" s="28"/>
+      <c r="AN39" s="29"/>
+      <c r="AO39" s="30"/>
+      <c r="AP39" s="31"/>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4"/>
-      <c r="AS39" s="28"/>
-      <c r="AT39" s="28"/>
-      <c r="AU39" s="28"/>
+      <c r="AS39" s="29"/>
+      <c r="AT39" s="30"/>
+      <c r="AU39" s="31"/>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
-      <c r="AX39" s="19"/>
-      <c r="AY39" s="19"/>
-      <c r="AZ39" s="19"/>
+      <c r="AX39" s="32"/>
+      <c r="AY39" s="33"/>
+      <c r="AZ39" s="34"/>
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
-      <c r="BC39" s="19"/>
-      <c r="BD39" s="19"/>
-      <c r="BE39" s="19"/>
+      <c r="BC39" s="32"/>
+      <c r="BD39" s="33"/>
+      <c r="BE39" s="34"/>
     </row>
-    <row r="40" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>120</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -6517,7 +6493,7 @@
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
@@ -6525,7 +6501,7 @@
       <c r="O40" s="26"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R40" s="26"/>
       <c r="S40" s="26"/>
@@ -6537,7 +6513,7 @@
       <c r="Y40" s="26"/>
       <c r="Z40" s="27"/>
       <c r="AA40" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AB40" s="26"/>
       <c r="AC40" s="26"/>
@@ -6570,13 +6546,13 @@
       <c r="BD40" s="19"/>
       <c r="BE40" s="19"/>
     </row>
-    <row r="41" spans="1:57" ht="108.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
@@ -6588,7 +6564,7 @@
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
@@ -6596,7 +6572,7 @@
       <c r="O41" s="26"/>
       <c r="P41" s="27"/>
       <c r="Q41" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R41" s="26"/>
       <c r="S41" s="26"/>
@@ -6608,7 +6584,7 @@
       <c r="Y41" s="26"/>
       <c r="Z41" s="27"/>
       <c r="AA41" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AB41" s="26"/>
       <c r="AC41" s="26"/>
@@ -6643,41 +6619,8 @@
     </row>
   </sheetData>
   <mergeCells count="388">
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="BC40:BE40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:P41"/>
-    <mergeCell ref="Q41:Z41"/>
-    <mergeCell ref="AA41:AF41"/>
-    <mergeCell ref="AG41:AK41"/>
-    <mergeCell ref="AN41:AP41"/>
-    <mergeCell ref="AS41:AU41"/>
-    <mergeCell ref="AX41:AZ41"/>
-    <mergeCell ref="BC41:BE41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="AA40:AF40"/>
-    <mergeCell ref="AG40:AK40"/>
-    <mergeCell ref="AN40:AP40"/>
-    <mergeCell ref="AS40:AU40"/>
     <mergeCell ref="AX39:AZ39"/>
     <mergeCell ref="BC39:BE39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="AA36:AF36"/>
-    <mergeCell ref="AG36:AK36"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="BC36:BE36"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="I39:J39"/>
@@ -6687,39 +6630,293 @@
     <mergeCell ref="AG39:AK39"/>
     <mergeCell ref="AN39:AP39"/>
     <mergeCell ref="AS39:AU39"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BC37:BE37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="AA38:AF38"/>
-    <mergeCell ref="AG38:AK38"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AS38:AU38"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="AA37:AF37"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AN37:AP37"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BC33:BE33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="AA33:AF33"/>
-    <mergeCell ref="AG33:AK33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="BC34:BE34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="Q34:Z34"/>
+    <mergeCell ref="AA34:AF34"/>
+    <mergeCell ref="AG34:AK34"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="Q31:Z31"/>
+    <mergeCell ref="AA31:AF31"/>
+    <mergeCell ref="AG31:AK31"/>
+    <mergeCell ref="AN31:AP31"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="A35:BE35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="BC31:BE31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="AA32:AF32"/>
+    <mergeCell ref="AG32:AK32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BC32:BE32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="Q29:Z29"/>
+    <mergeCell ref="AA30:AF30"/>
+    <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="AG30:AK30"/>
+    <mergeCell ref="AN30:AP30"/>
+    <mergeCell ref="AS30:AU30"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AA29:AF29"/>
+    <mergeCell ref="AG29:AK29"/>
+    <mergeCell ref="AN29:AP29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="Q28:Z28"/>
+    <mergeCell ref="AG28:AK28"/>
+    <mergeCell ref="AN28:AP28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="Q27:Z27"/>
+    <mergeCell ref="AA28:AF28"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="AG26:AK26"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="BC26:BE26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AA26:AF26"/>
+    <mergeCell ref="AA27:AF27"/>
+    <mergeCell ref="AG27:AK27"/>
+    <mergeCell ref="AN27:AP27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AA25:AF25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AN25:AP25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="AA24:AF24"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="AA8:AK8"/>
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="AA12:AF12"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="Q8:Z9"/>
+    <mergeCell ref="AA11:AF11"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AA13:AF13"/>
+    <mergeCell ref="AN13:AP13"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="D1:AN1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:AN5"/>
+    <mergeCell ref="AO1:AO5"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AS18:AU18"/>
     <mergeCell ref="AS19:AU19"/>
     <mergeCell ref="AX18:AZ18"/>
     <mergeCell ref="BC20:BE20"/>
@@ -6744,300 +6941,79 @@
     <mergeCell ref="AA15:AF15"/>
     <mergeCell ref="K16:P16"/>
     <mergeCell ref="C16:H16"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="D1:AN1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="D2:AN5"/>
-    <mergeCell ref="AO1:AO5"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="AN13:AP13"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="AA8:AK8"/>
-    <mergeCell ref="AA9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="AA12:AF12"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="Q8:Z9"/>
-    <mergeCell ref="AA11:AF11"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:Z22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:Z23"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="AA24:AF24"/>
-    <mergeCell ref="AG24:AK24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q25:Z25"/>
-    <mergeCell ref="BC25:BE25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="AS25:AU25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AA25:AF25"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="AN25:AP25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="Q26:Z26"/>
-    <mergeCell ref="BC27:BE27"/>
-    <mergeCell ref="AG26:AK26"/>
-    <mergeCell ref="AN26:AP26"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="BC26:BE26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="AS27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AA26:AF26"/>
-    <mergeCell ref="AA27:AF27"/>
-    <mergeCell ref="AG27:AK27"/>
-    <mergeCell ref="AN27:AP27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="Q28:Z28"/>
-    <mergeCell ref="AG28:AK28"/>
-    <mergeCell ref="AN28:AP28"/>
-    <mergeCell ref="AS28:AU28"/>
-    <mergeCell ref="Q27:Z27"/>
-    <mergeCell ref="AA28:AF28"/>
-    <mergeCell ref="AA30:AF30"/>
-    <mergeCell ref="BC29:BE29"/>
-    <mergeCell ref="AG30:AK30"/>
-    <mergeCell ref="AN30:AP30"/>
-    <mergeCell ref="AS30:AU30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="BC28:BE28"/>
-    <mergeCell ref="AS29:AU29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="Q30:Z30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="Q29:Z29"/>
-    <mergeCell ref="AA29:AF29"/>
-    <mergeCell ref="AG29:AK29"/>
-    <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="AA16:AF16"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A35:BE35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="BC31:BE31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="AA32:AF32"/>
-    <mergeCell ref="AG32:AK32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BC32:BE32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="Q31:Z31"/>
-    <mergeCell ref="AA31:AF31"/>
-    <mergeCell ref="AG31:AK31"/>
-    <mergeCell ref="AN31:AP31"/>
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="BC34:BE34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="AA34:AF34"/>
-    <mergeCell ref="AG34:AK34"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="AA33:AF33"/>
+    <mergeCell ref="AG33:AK33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="AA37:AF37"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="AA38:AF38"/>
+    <mergeCell ref="AG38:AK38"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AS38:AU38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="AA36:AF36"/>
+    <mergeCell ref="AG36:AK36"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AS36:AU36"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="BC36:BE36"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BC37:BE37"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="BC40:BE40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:P41"/>
+    <mergeCell ref="Q41:Z41"/>
+    <mergeCell ref="AA41:AF41"/>
+    <mergeCell ref="AG41:AK41"/>
+    <mergeCell ref="AN41:AP41"/>
+    <mergeCell ref="AS41:AU41"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="BC41:BE41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="AA40:AF40"/>
+    <mergeCell ref="AG40:AK40"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="AS40:AU40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J34 I36:J41">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV36:AW41 AL36:AM41 BA36:BB41 BA10:BB34 AL10:AM34 AV10:AW34 AQ10:AR34 AQ36:AR41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BB34 AL10:AM34 AV10:AW34 AQ10:AR34 AV36:AW41 AL36:AM41 BA36:BB41 AQ36:AR41">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7051,21 +7027,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AE6B82DD32ED2D43B562EE23B8899C37" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="96d9b8f1e00177e6841ec08fe2851044">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9" xmlns:ns3="e2ca149d-0452-47e1-ae54-92b8879afeff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfcb4037085589394c396acba2ce8ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9"/>
@@ -7244,24 +7205,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F9013C-A683-4E5F-8E94-E7E8E3CDBEA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7278,4 +7237,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="177">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -1345,18 +1345,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OSがWindows10であること
-レジストリで以下のキーのOutlookRecipientConfimationAddinの値が0である
-HKEY_CURRENT_USER\Software\Microsoft\Office\16.0\Outlook\Resiliency\DoNotDisableAddinList</t>
-    <rPh sb="24" eb="26">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DoNotDisableAddinListキーのOutlookRecipientConfirmationAddinの値が1</t>
     <rPh sb="58" eb="59">
       <t>アタイ</t>
@@ -1436,6 +1424,116 @@
   </si>
   <si>
     <t>33</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>インストール時に、セキュリティ警告文と、dll読み込み失敗のエラーメッセージが表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中西悠菜</t>
+    <rPh sb="0" eb="2">
+      <t>ナカニシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト実施</t>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outlook起動時に、レジストリで「アドイン無効化しない」キーが存在しない場合、レジストリ更新されない</t>
+    <rPh sb="33" eb="35">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>26-33</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSがWindows10であること
+レジストリで以下のキーのOutlookRecipientConfirmationAddinの値が0である
+HKEY_CURRENT_USER\Software\Microsoft\Office\16.0\Outlook\Resiliency\DoNotDisableAddinList</t>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>アドインが無効になった（画面上部に無効になったアドインがありますと警告文）</t>
+    <rPh sb="5" eb="7">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アドインが無効になったが、レジストリのキーが作成され、1が入る</t>
+    <rPh sb="5" eb="7">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16.0以下にCommonフォルダがない</t>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2287,6 +2385,18 @@
     <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2302,15 +2412,6 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2319,9 +2420,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2905,7 +3003,7 @@
   <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:AB9"/>
+      <selection activeCell="AC10" sqref="AC10:AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3237,13 +3335,17 @@
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="18">
+        <v>43146</v>
+      </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="16"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -3265,7 +3367,9 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="12"/>
-      <c r="AC9" s="10"/>
+      <c r="AC9" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
       <c r="AF9" s="12"/>
@@ -3848,8 +3952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA41" sqref="AA41:AF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4002,14 +4106,20 @@
       <c r="AS2" s="72"/>
       <c r="AT2" s="67"/>
       <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
+      <c r="AV2" s="68">
+        <v>43146</v>
+      </c>
       <c r="AW2" s="68"/>
       <c r="AX2" s="68"/>
       <c r="AY2" s="68"/>
-      <c r="AZ2" s="64"/>
+      <c r="AZ2" s="64" t="s">
+        <v>167</v>
+      </c>
       <c r="BA2" s="65"/>
       <c r="BB2" s="66"/>
-      <c r="BC2" s="63"/>
+      <c r="BC2" s="63">
+        <v>26</v>
+      </c>
       <c r="BD2" s="63"/>
       <c r="BE2" s="63"/>
     </row>
@@ -4063,14 +4173,20 @@
       <c r="AS3" s="72"/>
       <c r="AT3" s="67"/>
       <c r="AU3" s="67"/>
-      <c r="AV3" s="68"/>
+      <c r="AV3" s="68">
+        <v>43150</v>
+      </c>
       <c r="AW3" s="68"/>
       <c r="AX3" s="68"/>
       <c r="AY3" s="68"/>
-      <c r="AZ3" s="64"/>
+      <c r="AZ3" s="64" t="s">
+        <v>132</v>
+      </c>
       <c r="BA3" s="65"/>
       <c r="BB3" s="66"/>
-      <c r="BC3" s="63"/>
+      <c r="BC3" s="63" t="s">
+        <v>171</v>
+      </c>
       <c r="BD3" s="63"/>
       <c r="BE3" s="63"/>
     </row>
@@ -4364,30 +4480,30 @@
       <c r="BE9" s="62"/>
     </row>
     <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="22" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="27" t="s">
+      <c r="J10" s="27"/>
+      <c r="K10" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="38" t="s">
         <v>131</v>
       </c>
@@ -4400,19 +4516,19 @@
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
       <c r="Z10" s="40"/>
-      <c r="AA10" s="27" t="s">
+      <c r="AA10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="30"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="34"/>
@@ -4420,45 +4536,45 @@
       <c r="AP10" s="34"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="30"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
       <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
-      <c r="BC10" s="30"/>
-      <c r="BD10" s="30"/>
-      <c r="BE10" s="30"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
     </row>
     <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="22" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="27" t="s">
+      <c r="J11" s="27"/>
+      <c r="K11" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
       <c r="Q11" s="41" t="s">
         <v>121</v>
       </c>
@@ -4471,67 +4587,67 @@
       <c r="X11" s="42"/>
       <c r="Y11" s="42"/>
       <c r="Z11" s="43"/>
-      <c r="AA11" s="27" t="s">
+      <c r="AA11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="27" t="s">
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="30"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="21"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="25"/>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="21"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="25"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="21"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="25"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="20"/>
-      <c r="BE11" s="21"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="25"/>
     </row>
     <row r="12" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="22" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="27" t="s">
+      <c r="J12" s="27"/>
+      <c r="K12" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="30"/>
       <c r="Q12" s="38" t="s">
         <v>131</v>
       </c>
@@ -4544,65 +4660,65 @@
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
       <c r="Z12" s="40"/>
-      <c r="AA12" s="27" t="s">
+      <c r="AA12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="30"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
-      <c r="AU12" s="30"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="30"/>
-      <c r="AY12" s="30"/>
-      <c r="AZ12" s="30"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="30"/>
-      <c r="BD12" s="30"/>
-      <c r="BE12" s="30"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="19"/>
     </row>
     <row r="13" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="22" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="27" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="41" t="s">
         <v>121</v>
       </c>
@@ -4615,47 +4731,47 @@
       <c r="X13" s="42"/>
       <c r="Y13" s="42"/>
       <c r="Z13" s="43"/>
-      <c r="AA13" s="27" t="s">
+      <c r="AA13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="27" t="s">
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="30"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="21"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="25"/>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="26"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="22"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="26"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="22"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="21"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="25"/>
     </row>
     <row r="14" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="31" t="s">
         <v>92</v>
       </c>
@@ -4664,290 +4780,290 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="33"/>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="27" t="s">
+      <c r="J14" s="27"/>
+      <c r="K14" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="27" t="s">
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="27" t="s">
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="27" t="s">
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="30"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="21"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="25"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="20"/>
-      <c r="AU14" s="21"/>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="25"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="20"/>
-      <c r="AZ14" s="21"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="25"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
-      <c r="BC14" s="19"/>
-      <c r="BD14" s="20"/>
-      <c r="BE14" s="21"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="25"/>
     </row>
     <row r="15" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="22" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="27" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="27" t="s">
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="27" t="s">
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="27" t="s">
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="30"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="21"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="25"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="20"/>
-      <c r="AU15" s="21"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="25"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="20"/>
-      <c r="AZ15" s="21"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="24"/>
+      <c r="AZ15" s="25"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
-      <c r="BC15" s="19"/>
-      <c r="BD15" s="20"/>
-      <c r="BE15" s="21"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="24"/>
+      <c r="BE15" s="25"/>
     </row>
     <row r="16" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="22" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="27" t="s">
+      <c r="J16" s="27"/>
+      <c r="K16" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="27" t="s">
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="27" t="s">
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="27" t="s">
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="30"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="21"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="25"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="20"/>
-      <c r="AU16" s="21"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="25"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="20"/>
-      <c r="AZ16" s="21"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="25"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="20"/>
-      <c r="BE16" s="21"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="24"/>
+      <c r="BE16" s="25"/>
     </row>
     <row r="17" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="22" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="27" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="27" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="27" t="s">
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="27" t="s">
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="30"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="21"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="25"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="21"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="25"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="21"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="25"/>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="20"/>
-      <c r="BE17" s="21"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="25"/>
     </row>
     <row r="18" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="31" t="s">
         <v>96</v>
       </c>
@@ -4956,71 +5072,71 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="33"/>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="27" t="s">
+      <c r="J18" s="27"/>
+      <c r="K18" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="27" t="s">
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="27" t="s">
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="27" t="s">
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="30"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
-      <c r="AU18" s="30"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
-      <c r="AX18" s="30"/>
-      <c r="AY18" s="30"/>
-      <c r="AZ18" s="30"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
-      <c r="BC18" s="30"/>
-      <c r="BD18" s="30"/>
-      <c r="BE18" s="30"/>
+      <c r="BC18" s="19"/>
+      <c r="BD18" s="19"/>
+      <c r="BE18" s="19"/>
     </row>
     <row r="19" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="31" t="s">
         <v>104</v>
       </c>
@@ -5029,71 +5145,71 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="33"/>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="27" t="s">
+      <c r="J19" s="27"/>
+      <c r="K19" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="27" t="s">
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="27" t="s">
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="27" t="s">
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="30"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
-      <c r="AU19" s="30"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
       <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
-      <c r="BC19" s="30"/>
-      <c r="BD19" s="30"/>
-      <c r="BE19" s="30"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="19"/>
     </row>
     <row r="20" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="31" t="s">
         <v>106</v>
       </c>
@@ -5102,50 +5218,50 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="33"/>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="27" t="s">
+      <c r="J20" s="27"/>
+      <c r="K20" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="27" t="s">
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="27" t="s">
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="27" t="s">
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="30"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
       <c r="AQ20" s="4"/>
       <c r="AR20" s="4"/>
       <c r="AS20" s="34"/>
@@ -5153,20 +5269,20 @@
       <c r="AU20" s="34"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
-      <c r="AX20" s="30"/>
-      <c r="AY20" s="30"/>
-      <c r="AZ20" s="30"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
       <c r="BA20" s="4"/>
       <c r="BB20" s="4"/>
-      <c r="BC20" s="30"/>
-      <c r="BD20" s="30"/>
-      <c r="BE20" s="30"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="19"/>
     </row>
     <row r="21" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="31" t="s">
         <v>54</v>
       </c>
@@ -5175,71 +5291,71 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="33"/>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="27" t="s">
+      <c r="J21" s="27"/>
+      <c r="K21" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="27" t="s">
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="27" t="s">
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="28" t="s">
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="30"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
       <c r="AQ21" s="4"/>
       <c r="AR21" s="4"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="30"/>
-      <c r="AU21" s="30"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
-      <c r="AX21" s="30"/>
-      <c r="AY21" s="30"/>
-      <c r="AZ21" s="30"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="19"/>
       <c r="BA21" s="4"/>
       <c r="BB21" s="4"/>
-      <c r="BC21" s="30"/>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="30"/>
+      <c r="BC21" s="19"/>
+      <c r="BD21" s="19"/>
+      <c r="BE21" s="19"/>
     </row>
     <row r="22" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="31" t="s">
         <v>98</v>
       </c>
@@ -5248,69 +5364,69 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="33"/>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="27" t="s">
+      <c r="J22" s="27"/>
+      <c r="K22" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="27" t="s">
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="27" t="s">
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="30"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
       <c r="AQ22" s="4"/>
       <c r="AR22" s="4"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
       <c r="BA22" s="4"/>
       <c r="BB22" s="4"/>
-      <c r="BC22" s="30"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="30"/>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="19"/>
     </row>
     <row r="23" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="31" t="s">
         <v>99</v>
       </c>
@@ -5319,69 +5435,69 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="33"/>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="27" t="s">
+      <c r="J23" s="27"/>
+      <c r="K23" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="27" t="s">
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="27" t="s">
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="30"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
       <c r="AQ23" s="4"/>
       <c r="AR23" s="4"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="30"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
-      <c r="AX23" s="30"/>
-      <c r="AY23" s="30"/>
-      <c r="AZ23" s="30"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
       <c r="BA23" s="4"/>
       <c r="BB23" s="4"/>
-      <c r="BC23" s="30"/>
-      <c r="BD23" s="30"/>
-      <c r="BE23" s="30"/>
+      <c r="BC23" s="19"/>
+      <c r="BD23" s="19"/>
+      <c r="BE23" s="19"/>
     </row>
     <row r="24" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="31" t="s">
         <v>100</v>
       </c>
@@ -5390,69 +5506,69 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="33"/>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="27" t="s">
+      <c r="J24" s="27"/>
+      <c r="K24" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="27" t="s">
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="27" t="s">
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="30"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
-      <c r="AZ24" s="30"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
     </row>
     <row r="25" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="31" t="s">
         <v>79</v>
       </c>
@@ -5461,69 +5577,69 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="33"/>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="27" t="s">
+      <c r="J25" s="27"/>
+      <c r="K25" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="27" t="s">
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="27" t="s">
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="30"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
-      <c r="AU25" s="30"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
-      <c r="AX25" s="30"/>
-      <c r="AY25" s="30"/>
-      <c r="AZ25" s="30"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
       <c r="BA25" s="4"/>
       <c r="BB25" s="4"/>
-      <c r="BC25" s="30"/>
-      <c r="BD25" s="30"/>
-      <c r="BE25" s="30"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="19"/>
     </row>
     <row r="26" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="31" t="s">
         <v>83</v>
       </c>
@@ -5532,69 +5648,69 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="33"/>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="27" t="s">
+      <c r="J26" s="27"/>
+      <c r="K26" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="27" t="s">
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="27" t="s">
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="30"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
-      <c r="AU26" s="30"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
-      <c r="AX26" s="30"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="30"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
       <c r="BA26" s="4"/>
       <c r="BB26" s="4"/>
-      <c r="BC26" s="30"/>
-      <c r="BD26" s="30"/>
-      <c r="BE26" s="30"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19"/>
     </row>
     <row r="27" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="31" t="s">
         <v>84</v>
       </c>
@@ -5603,69 +5719,69 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="33"/>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="27" t="s">
+      <c r="J27" s="27"/>
+      <c r="K27" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="27" t="s">
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="27" t="s">
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="30"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="30"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
-      <c r="AX27" s="30"/>
-      <c r="AY27" s="30"/>
-      <c r="AZ27" s="30"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
       <c r="BA27" s="4"/>
       <c r="BB27" s="4"/>
-      <c r="BC27" s="30"/>
-      <c r="BD27" s="30"/>
-      <c r="BE27" s="30"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="19"/>
     </row>
     <row r="28" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="31" t="s">
         <v>85</v>
       </c>
@@ -5674,69 +5790,69 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="33"/>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="27" t="s">
+      <c r="J28" s="27"/>
+      <c r="K28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="27" t="s">
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="27" t="s">
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="30"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
-      <c r="AU28" s="30"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
-      <c r="AX28" s="30"/>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="30"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
-      <c r="BC28" s="30"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="19"/>
     </row>
     <row r="29" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="31" t="s">
         <v>87</v>
       </c>
@@ -5745,69 +5861,69 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="27" t="s">
+      <c r="J29" s="27"/>
+      <c r="K29" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="27" t="s">
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="27" t="s">
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="30"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
-      <c r="AS29" s="30"/>
-      <c r="AT29" s="30"/>
-      <c r="AU29" s="30"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
-      <c r="AX29" s="30"/>
-      <c r="AY29" s="30"/>
-      <c r="AZ29" s="30"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
-      <c r="BC29" s="30"/>
-      <c r="BD29" s="30"/>
-      <c r="BE29" s="30"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="19"/>
+      <c r="BE29" s="19"/>
     </row>
     <row r="30" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="31" t="s">
         <v>86</v>
       </c>
@@ -5816,69 +5932,69 @@
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="27" t="s">
+      <c r="J30" s="27"/>
+      <c r="K30" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="27" t="s">
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="27" t="s">
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="30"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="30"/>
-      <c r="AU30" s="30"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
-      <c r="AX30" s="30"/>
-      <c r="AY30" s="30"/>
-      <c r="AZ30" s="30"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="19"/>
+      <c r="AZ30" s="19"/>
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
-      <c r="BC30" s="30"/>
-      <c r="BD30" s="30"/>
-      <c r="BE30" s="30"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="19"/>
+      <c r="BE30" s="19"/>
     </row>
     <row r="31" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="31" t="s">
         <v>130</v>
       </c>
@@ -5887,71 +6003,71 @@
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="27" t="s">
+      <c r="J31" s="27"/>
+      <c r="K31" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="27" t="s">
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="27" t="s">
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="27" t="s">
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="30"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
-      <c r="AN31" s="30"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="30"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
       <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
-      <c r="AS31" s="30"/>
-      <c r="AT31" s="30"/>
-      <c r="AU31" s="30"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
-      <c r="AX31" s="30"/>
-      <c r="AY31" s="30"/>
-      <c r="AZ31" s="30"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19"/>
       <c r="BA31" s="4"/>
       <c r="BB31" s="4"/>
-      <c r="BC31" s="30"/>
-      <c r="BD31" s="30"/>
-      <c r="BE31" s="30"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="19"/>
+      <c r="BE31" s="19"/>
     </row>
     <row r="32" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="31" t="s">
         <v>126</v>
       </c>
@@ -5960,71 +6076,71 @@
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33"/>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="27" t="s">
+      <c r="J32" s="27"/>
+      <c r="K32" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="27" t="s">
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="27" t="s">
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="27" t="s">
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="30"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="30"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
       <c r="AV32" s="4"/>
       <c r="AW32" s="4"/>
-      <c r="AX32" s="30"/>
-      <c r="AY32" s="30"/>
-      <c r="AZ32" s="30"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
       <c r="BA32" s="4"/>
       <c r="BB32" s="4"/>
-      <c r="BC32" s="30"/>
-      <c r="BD32" s="30"/>
-      <c r="BE32" s="30"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="19"/>
+      <c r="BE32" s="19"/>
     </row>
     <row r="33" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="31" t="s">
         <v>133</v>
       </c>
@@ -6033,71 +6149,71 @@
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="33"/>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="27" t="s">
+      <c r="J33" s="27"/>
+      <c r="K33" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="27" t="s">
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="27" t="s">
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="27" t="s">
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="30"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
-      <c r="AN33" s="30"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="30"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
-      <c r="AS33" s="30"/>
-      <c r="AT33" s="30"/>
-      <c r="AU33" s="30"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="4"/>
-      <c r="AX33" s="30"/>
-      <c r="AY33" s="30"/>
-      <c r="AZ33" s="30"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="19"/>
       <c r="BA33" s="4"/>
       <c r="BB33" s="4"/>
-      <c r="BC33" s="30"/>
-      <c r="BD33" s="30"/>
-      <c r="BE33" s="30"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="19"/>
+      <c r="BE33" s="19"/>
     </row>
     <row r="34" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="31" t="s">
         <v>136</v>
       </c>
@@ -6106,43 +6222,43 @@
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33"/>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="27" t="s">
+      <c r="J34" s="27"/>
+      <c r="K34" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="27" t="s">
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="27" t="s">
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="30"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4"/>
       <c r="AN34" s="34"/>
@@ -6155,14 +6271,14 @@
       <c r="AU34" s="34"/>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
-      <c r="AX34" s="30"/>
-      <c r="AY34" s="30"/>
-      <c r="AZ34" s="30"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
-      <c r="BC34" s="30"/>
-      <c r="BD34" s="30"/>
-      <c r="BE34" s="30"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="19"/>
+      <c r="BE34" s="19"/>
     </row>
     <row r="35" spans="1:57" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
@@ -6226,81 +6342,87 @@
       <c r="BE35" s="37"/>
     </row>
     <row r="36" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="27" t="s">
+      <c r="J36" s="27"/>
+      <c r="K36" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="30"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="34"/>
+      <c r="AM36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN36" s="34" t="s">
+        <v>166</v>
+      </c>
       <c r="AO36" s="34"/>
       <c r="AP36" s="34"/>
       <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="34"/>
-      <c r="AT36" s="34"/>
-      <c r="AU36" s="34"/>
+      <c r="AR36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="19"/>
+      <c r="AU36" s="19"/>
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
-      <c r="AX36" s="30"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="19"/>
+      <c r="AZ36" s="19"/>
       <c r="BA36" s="4"/>
       <c r="BB36" s="4"/>
-      <c r="BC36" s="30"/>
-      <c r="BD36" s="30"/>
-      <c r="BE36" s="30"/>
+      <c r="BC36" s="19"/>
+      <c r="BD36" s="19"/>
+      <c r="BE36" s="19"/>
     </row>
     <row r="37" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="31" t="s">
         <v>147</v>
       </c>
@@ -6309,69 +6431,71 @@
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33"/>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="27" t="s">
+      <c r="J37" s="27"/>
+      <c r="K37" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="27" t="s">
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
-      <c r="AK37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="30"/>
       <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
-      <c r="AP37" s="34"/>
+      <c r="AM37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="25"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
-      <c r="AS37" s="34"/>
-      <c r="AT37" s="34"/>
-      <c r="AU37" s="34"/>
+      <c r="AS37" s="23"/>
+      <c r="AT37" s="24"/>
+      <c r="AU37" s="25"/>
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
-      <c r="AX37" s="30"/>
-      <c r="AY37" s="30"/>
-      <c r="AZ37" s="30"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
-      <c r="BC37" s="30"/>
-      <c r="BD37" s="30"/>
-      <c r="BE37" s="30"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="19"/>
     </row>
     <row r="38" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="31" t="s">
         <v>148</v>
       </c>
@@ -6380,140 +6504,150 @@
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="27" t="s">
+      <c r="J38" s="27"/>
+      <c r="K38" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
-      <c r="AK38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="30"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="34"/>
-      <c r="AO38" s="34"/>
-      <c r="AP38" s="34"/>
+      <c r="AM38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="22"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
-      <c r="AS38" s="34"/>
-      <c r="AT38" s="34"/>
-      <c r="AU38" s="34"/>
+      <c r="AS38" s="20"/>
+      <c r="AT38" s="21"/>
+      <c r="AU38" s="22"/>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
-      <c r="AX38" s="30"/>
-      <c r="AY38" s="30"/>
-      <c r="AZ38" s="30"/>
+      <c r="AX38" s="34"/>
+      <c r="AY38" s="34"/>
+      <c r="AZ38" s="34"/>
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
-      <c r="BC38" s="30"/>
-      <c r="BD38" s="30"/>
-      <c r="BE38" s="30"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19"/>
     </row>
     <row r="39" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="22" t="s">
+      <c r="B39" s="27"/>
+      <c r="C39" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="27" t="s">
+      <c r="J39" s="27"/>
+      <c r="K39" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28"/>
-      <c r="AK39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="30"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="25"/>
-      <c r="AP39" s="26"/>
+      <c r="AM39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN39" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="22"/>
       <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="24"/>
-      <c r="AT39" s="25"/>
-      <c r="AU39" s="26"/>
+      <c r="AR39" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS39" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="22"/>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
-      <c r="AX39" s="19"/>
-      <c r="AY39" s="20"/>
-      <c r="AZ39" s="21"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="22"/>
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
-      <c r="BC39" s="19"/>
-      <c r="BD39" s="20"/>
-      <c r="BE39" s="21"/>
+      <c r="BC39" s="23"/>
+      <c r="BD39" s="24"/>
+      <c r="BE39" s="25"/>
     </row>
-    <row r="40" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:57" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="31" t="s">
         <v>149</v>
       </c>
@@ -6522,69 +6656,75 @@
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="27" t="s">
+      <c r="J40" s="27"/>
+      <c r="K40" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
-      <c r="AK40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="29"/>
+      <c r="AJ40" s="29"/>
+      <c r="AK40" s="30"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="34"/>
+      <c r="AM40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN40" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="22"/>
       <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
+      <c r="AR40" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="AS40" s="34"/>
       <c r="AT40" s="34"/>
       <c r="AU40" s="34"/>
       <c r="AV40" s="4"/>
       <c r="AW40" s="4"/>
-      <c r="AX40" s="30"/>
-      <c r="AY40" s="30"/>
-      <c r="AZ40" s="30"/>
+      <c r="AX40" s="34"/>
+      <c r="AY40" s="34"/>
+      <c r="AZ40" s="34"/>
       <c r="BA40" s="4"/>
       <c r="BB40" s="4"/>
-      <c r="BC40" s="30"/>
-      <c r="BD40" s="30"/>
-      <c r="BE40" s="30"/>
+      <c r="BC40" s="19"/>
+      <c r="BD40" s="19"/>
+      <c r="BE40" s="19"/>
     </row>
-    <row r="41" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="23"/>
+    <row r="41" spans="1:57" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="27"/>
       <c r="C41" s="31" t="s">
         <v>150</v>
       </c>
@@ -6593,134 +6733,146 @@
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="33"/>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="27" t="s">
+      <c r="J41" s="27"/>
+      <c r="K41" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
-      <c r="AK41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="30"/>
       <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="34"/>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="34"/>
+      <c r="AM41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN41" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO41" s="21"/>
+      <c r="AP41" s="22"/>
       <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="34"/>
-      <c r="AT41" s="34"/>
-      <c r="AU41" s="34"/>
+      <c r="AR41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS41" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="22"/>
       <c r="AV41" s="4"/>
       <c r="AW41" s="4"/>
-      <c r="AX41" s="30"/>
-      <c r="AY41" s="30"/>
-      <c r="AZ41" s="30"/>
+      <c r="AX41" s="20"/>
+      <c r="AY41" s="21"/>
+      <c r="AZ41" s="22"/>
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
-      <c r="BC41" s="30"/>
-      <c r="BD41" s="30"/>
-      <c r="BE41" s="30"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="19"/>
+      <c r="BE41" s="19"/>
     </row>
     <row r="42" spans="1:57" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="23"/>
+      <c r="A42" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="27"/>
       <c r="C42" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="33"/>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="27" t="s">
+      <c r="J42" s="27"/>
+      <c r="K42" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
-      <c r="AK42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="29"/>
+      <c r="AJ42" s="29"/>
+      <c r="AK42" s="30"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="34"/>
+      <c r="AM42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN42" s="34" t="s">
+        <v>176</v>
+      </c>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="4"/>
       <c r="AR42" s="4"/>
-      <c r="AS42" s="34"/>
-      <c r="AT42" s="34"/>
-      <c r="AU42" s="34"/>
+      <c r="AS42" s="19"/>
+      <c r="AT42" s="19"/>
+      <c r="AU42" s="19"/>
       <c r="AV42" s="4"/>
       <c r="AW42" s="4"/>
-      <c r="AX42" s="30"/>
-      <c r="AY42" s="30"/>
-      <c r="AZ42" s="30"/>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="19"/>
+      <c r="AZ42" s="19"/>
       <c r="BA42" s="4"/>
       <c r="BB42" s="4"/>
-      <c r="BC42" s="30"/>
-      <c r="BD42" s="30"/>
-      <c r="BE42" s="30"/>
+      <c r="BC42" s="19"/>
+      <c r="BD42" s="19"/>
+      <c r="BE42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="399">
@@ -6761,6 +6913,14 @@
     <mergeCell ref="Q40:Z40"/>
     <mergeCell ref="AA40:AF40"/>
     <mergeCell ref="AG40:AK40"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="AA38:AF38"/>
+    <mergeCell ref="AG38:AK38"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AS38:AU38"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="I36:J36"/>
@@ -6769,27 +6929,6 @@
     <mergeCell ref="AA36:AF36"/>
     <mergeCell ref="AG36:AK36"/>
     <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="AA37:AF37"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AN37:AP37"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="AA38:AF38"/>
-    <mergeCell ref="AG38:AK38"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AS38:AU38"/>
     <mergeCell ref="BC33:BE33"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:H33"/>
@@ -7112,6 +7251,7 @@
     <mergeCell ref="AG34:AK34"/>
     <mergeCell ref="AN34:AP34"/>
     <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="AS36:AU36"/>
     <mergeCell ref="AX39:AZ39"/>
     <mergeCell ref="BC39:BE39"/>
     <mergeCell ref="A39:B39"/>
@@ -7123,13 +7263,25 @@
     <mergeCell ref="AG39:AK39"/>
     <mergeCell ref="AN39:AP39"/>
     <mergeCell ref="AS39:AU39"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="AA37:AF37"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J34 I36:J42">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BB34 AL10:AM34 AV10:AW34 AQ10:AR34 AV36:AW42 AL36:AM42 BA36:BB42 AQ36:AR42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BB34 AL10:AM34 AV10:AW34 AQ10:AR34 AL36:AM42 AV36:AW42 BA36:BB42 AQ36:AR42">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -11,7 +11,7 @@
     <sheet name="テスト一覧" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト一覧!$A$1:$BE$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト一覧!$A$1:$BE$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$AF$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">テスト一覧!#REF!</definedName>
   </definedNames>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="172">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -1392,40 +1392,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>「HKEY_CURRENT_USER\Software\Policies\Microsoft\Office\16.0\Common\Security\Trusted Protocols\All Applications\notes:」が作成される</t>
-    <rPh sb="118" eb="120">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「HKEY_CURRENT_USER\Software\Policies\Microsoft\Office\16.0\Common\Security\Trusted Protocols\All Applications\notes:」が存在しないこと
-</t>
-    <rPh sb="118" eb="120">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outlook起動時に、レジストリで「Notesリンクを開くときの警告ポップアップを表示しない」キーを作る</t>
-    <rPh sb="28" eb="29">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
@@ -1525,13 +1491,6 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16.0以下にCommonフォルダがない</t>
-    <rPh sb="4" eb="6">
-      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2346,6 +2305,33 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2358,43 +2344,43 @@
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2406,31 +2392,175 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="27" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2441,177 +2571,6 @@
     </xf>
     <xf numFmtId="49" fontId="28" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="17" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="24" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -3013,40 +2972,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -3054,38 +3013,38 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -3093,765 +3052,842 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="6" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="8"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="17"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="9">
         <v>43097</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="10" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="12"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43111</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="10" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="10" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="12"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43116</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="10" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="10" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="12"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>43129</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="10" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="10" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="12"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>43139</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="10" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="10" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="12"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="9">
         <v>43146</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="12"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
     </row>
     <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="8"/>
     </row>
     <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="12"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
     </row>
     <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="8"/>
     </row>
     <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="12"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
     </row>
     <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="12"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="12"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="12"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="G3:AB3"/>
+    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:AB5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:AB4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:AB19"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:AB21"/>
     <mergeCell ref="AC23:AF23"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E22:F22"/>
@@ -3860,83 +3896,6 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:AB23"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:AB21"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:AB19"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:AB5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:AB4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="G3:AB3"/>
-    <mergeCell ref="A1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3950,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE42"/>
+  <dimension ref="A1:BE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA41" sqref="AA41:AF41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3978,2917 +3937,3191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="73" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="92" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="62" t="s">
+      <c r="AP1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62" t="s">
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="51" t="s">
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="53"/>
-      <c r="BC1" s="62" t="s">
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="83" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="93"/>
-      <c r="AP2" s="72" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68">
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="43">
         <v>43146</v>
       </c>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="63">
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="71">
         <v>26</v>
       </c>
-      <c r="BD2" s="63"/>
-      <c r="BE2" s="63"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="72" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="68">
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="43">
         <v>43150</v>
       </c>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="64" t="s">
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="72" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="63"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="91"/>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="72" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="67"/>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="68"/>
-      <c r="AY5" s="68"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="63"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="71"/>
+      <c r="BD5" s="71"/>
+      <c r="BE5" s="71"/>
     </row>
     <row r="7" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="48" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="48" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="48" t="s">
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="48" t="s">
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="62" t="s">
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62" t="s">
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62" t="s">
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62" t="s">
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="62"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
     </row>
     <row r="9" spans="1:57" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="51" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="54" t="s">
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="56"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="83"/>
       <c r="AL9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AM9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="62" t="s">
+      <c r="AN9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
       <c r="AQ9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="62" t="s">
+      <c r="AS9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
       <c r="AV9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AW9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AX9" s="62" t="s">
+      <c r="AX9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62"/>
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
       <c r="BA9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="BB9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BC9" s="62" t="s">
+      <c r="BC9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="62"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
     </row>
     <row r="10" spans="1:57" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="26" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="38" t="s">
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="28" t="s">
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="31"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="23"/>
+      <c r="AU10" s="23"/>
       <c r="AV10" s="4"/>
       <c r="AW10" s="4"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23"/>
       <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="19"/>
-      <c r="BE10" s="19"/>
+      <c r="BC10" s="23"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="23"/>
     </row>
     <row r="11" spans="1:57" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="26" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="41" t="s">
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="28" t="s">
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="28" t="s">
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="31"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="25"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="34"/>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="25"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="34"/>
       <c r="AV11" s="4"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="23"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="25"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="34"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
-      <c r="BC11" s="23"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="25"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="34"/>
     </row>
     <row r="12" spans="1:57" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="26" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="38" t="s">
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="28" t="s">
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="31"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23"/>
       <c r="AV12" s="4"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
-      <c r="BE12" s="19"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
     </row>
     <row r="13" spans="1:57" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="26" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28" t="s">
+      <c r="J13" s="25"/>
+      <c r="K13" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="41" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="28" t="s">
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="28" t="s">
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="31"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="23"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="25"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="34"/>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="22"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="21"/>
       <c r="AV13" s="4"/>
       <c r="AW13" s="4"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="22"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="21"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
-      <c r="BC13" s="23"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="25"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="33"/>
+      <c r="BE13" s="34"/>
     </row>
     <row r="14" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="26" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="28" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="28" t="s">
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="28" t="s">
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="31"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="25"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="34"/>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="25"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="34"/>
       <c r="AV14" s="4"/>
       <c r="AW14" s="4"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="25"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="33"/>
+      <c r="AZ14" s="34"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
-      <c r="BC14" s="23"/>
-      <c r="BD14" s="24"/>
-      <c r="BE14" s="25"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="33"/>
+      <c r="BE14" s="34"/>
     </row>
     <row r="15" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="26" t="s">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28" t="s">
+      <c r="J15" s="25"/>
+      <c r="K15" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="28" t="s">
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="28" t="s">
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="28" t="s">
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="31"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="25"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="34"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="25"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="34"/>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="25"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="34"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
-      <c r="BC15" s="23"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="25"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="33"/>
+      <c r="BE15" s="34"/>
     </row>
     <row r="16" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="26" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28" t="s">
+      <c r="J16" s="25"/>
+      <c r="K16" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="28" t="s">
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="28" t="s">
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="28" t="s">
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="31"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="25"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="34"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="24"/>
-      <c r="AU16" s="25"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="34"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="25"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="34"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
-      <c r="BC16" s="23"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="25"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="33"/>
+      <c r="BE16" s="34"/>
     </row>
     <row r="17" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="26" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28" t="s">
+      <c r="J17" s="25"/>
+      <c r="K17" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="28" t="s">
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="28" t="s">
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="28" t="s">
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="31"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="25"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="34"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="25"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="34"/>
       <c r="AV17" s="4"/>
       <c r="AW17" s="4"/>
-      <c r="AX17" s="23"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="25"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="34"/>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
-      <c r="BC17" s="23"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="25"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="33"/>
+      <c r="BE17" s="34"/>
     </row>
     <row r="18" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="26" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28" t="s">
+      <c r="J18" s="25"/>
+      <c r="K18" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="28" t="s">
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="28" t="s">
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="28" t="s">
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="31"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="23"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
       <c r="AV18" s="4"/>
       <c r="AW18" s="4"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
       <c r="BA18" s="4"/>
       <c r="BB18" s="4"/>
-      <c r="BC18" s="19"/>
-      <c r="BD18" s="19"/>
-      <c r="BE18" s="19"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
     </row>
     <row r="19" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="26" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28" t="s">
+      <c r="J19" s="25"/>
+      <c r="K19" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="28" t="s">
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="28" t="s">
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="28" t="s">
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="31"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="19"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
       <c r="BA19" s="4"/>
       <c r="BB19" s="4"/>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="19"/>
-      <c r="BE19" s="19"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
     </row>
     <row r="20" spans="1:57" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="26" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28" t="s">
+      <c r="J20" s="25"/>
+      <c r="K20" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="28" t="s">
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="28" t="s">
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="28" t="s">
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="31"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
+      <c r="AN20" s="23"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
       <c r="AQ20" s="4"/>
       <c r="AR20" s="4"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
       <c r="AV20" s="4"/>
       <c r="AW20" s="4"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="AZ20" s="23"/>
       <c r="BA20" s="4"/>
       <c r="BB20" s="4"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="19"/>
+      <c r="BC20" s="23"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="23"/>
     </row>
     <row r="21" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="26" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="28" t="s">
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="28" t="s">
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="29" t="s">
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="31"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="23"/>
       <c r="AQ21" s="4"/>
       <c r="AR21" s="4"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="AU21" s="19"/>
+      <c r="AS21" s="23"/>
+      <c r="AT21" s="23"/>
+      <c r="AU21" s="23"/>
       <c r="AV21" s="4"/>
       <c r="AW21" s="4"/>
-      <c r="AX21" s="19"/>
-      <c r="AY21" s="19"/>
-      <c r="AZ21" s="19"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="23"/>
       <c r="BA21" s="4"/>
       <c r="BB21" s="4"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="19"/>
-      <c r="BE21" s="19"/>
+      <c r="BC21" s="23"/>
+      <c r="BD21" s="23"/>
+      <c r="BE21" s="23"/>
     </row>
     <row r="22" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="26" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="28" t="s">
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="28" t="s">
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="31"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
       <c r="AQ22" s="4"/>
       <c r="AR22" s="4"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="23"/>
+      <c r="AU22" s="23"/>
       <c r="AV22" s="4"/>
       <c r="AW22" s="4"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
       <c r="BA22" s="4"/>
       <c r="BB22" s="4"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="19"/>
-      <c r="BE22" s="19"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="23"/>
     </row>
     <row r="23" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="26" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28" t="s">
+      <c r="J23" s="25"/>
+      <c r="K23" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="28" t="s">
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="28" t="s">
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="31"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
       <c r="AQ23" s="4"/>
       <c r="AR23" s="4"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="19"/>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="23"/>
+      <c r="AU23" s="23"/>
       <c r="AV23" s="4"/>
       <c r="AW23" s="4"/>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="19"/>
-      <c r="AZ23" s="19"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="23"/>
       <c r="BA23" s="4"/>
       <c r="BB23" s="4"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="19"/>
-      <c r="BE23" s="19"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="23"/>
+      <c r="BE23" s="23"/>
     </row>
     <row r="24" spans="1:57" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="26" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28" t="s">
+      <c r="J24" s="25"/>
+      <c r="K24" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="28" t="s">
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="28" t="s">
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="31"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="19"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4"/>
-      <c r="AS24" s="19"/>
-      <c r="AT24" s="19"/>
-      <c r="AU24" s="19"/>
+      <c r="AS24" s="23"/>
+      <c r="AT24" s="23"/>
+      <c r="AU24" s="23"/>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="19"/>
-      <c r="AZ24" s="19"/>
+      <c r="AX24" s="23"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="23"/>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4"/>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="19"/>
-      <c r="BE24" s="19"/>
+      <c r="BC24" s="23"/>
+      <c r="BD24" s="23"/>
+      <c r="BE24" s="23"/>
     </row>
     <row r="25" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="26" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28" t="s">
+      <c r="J25" s="25"/>
+      <c r="K25" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="28" t="s">
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="28" t="s">
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="31"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
+      <c r="AS25" s="23"/>
+      <c r="AT25" s="23"/>
+      <c r="AU25" s="23"/>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
       <c r="BA25" s="4"/>
       <c r="BB25" s="4"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
+      <c r="BC25" s="23"/>
+      <c r="BD25" s="23"/>
+      <c r="BE25" s="23"/>
     </row>
     <row r="26" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="26" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28" t="s">
+      <c r="J26" s="25"/>
+      <c r="K26" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="28" t="s">
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="28" t="s">
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="31"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
-      <c r="AS26" s="19"/>
-      <c r="AT26" s="19"/>
-      <c r="AU26" s="19"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="23"/>
+      <c r="AU26" s="23"/>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
       <c r="BA26" s="4"/>
       <c r="BB26" s="4"/>
-      <c r="BC26" s="19"/>
-      <c r="BD26" s="19"/>
-      <c r="BE26" s="19"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="23"/>
     </row>
     <row r="27" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="31" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="26" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28" t="s">
+      <c r="J27" s="25"/>
+      <c r="K27" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="28" t="s">
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="28" t="s">
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="31"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="19"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
-      <c r="AS27" s="19"/>
-      <c r="AT27" s="19"/>
-      <c r="AU27" s="19"/>
+      <c r="AS27" s="23"/>
+      <c r="AT27" s="23"/>
+      <c r="AU27" s="23"/>
       <c r="AV27" s="4"/>
       <c r="AW27" s="4"/>
-      <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="19"/>
+      <c r="AX27" s="23"/>
+      <c r="AY27" s="23"/>
+      <c r="AZ27" s="23"/>
       <c r="BA27" s="4"/>
       <c r="BB27" s="4"/>
-      <c r="BC27" s="19"/>
-      <c r="BD27" s="19"/>
-      <c r="BE27" s="19"/>
+      <c r="BC27" s="23"/>
+      <c r="BD27" s="23"/>
+      <c r="BE27" s="23"/>
     </row>
     <row r="28" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="26" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28" t="s">
+      <c r="J28" s="25"/>
+      <c r="K28" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="28" t="s">
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="28" t="s">
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="31"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="23"/>
+      <c r="AU28" s="23"/>
       <c r="AV28" s="4"/>
       <c r="AW28" s="4"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
+      <c r="AX28" s="23"/>
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
       <c r="BA28" s="4"/>
       <c r="BB28" s="4"/>
-      <c r="BC28" s="19"/>
-      <c r="BD28" s="19"/>
-      <c r="BE28" s="19"/>
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
     </row>
     <row r="29" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="31" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="26" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28" t="s">
+      <c r="J29" s="25"/>
+      <c r="K29" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="28" t="s">
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="28" t="s">
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="31"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
-      <c r="AN29" s="19"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="19"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
-      <c r="AS29" s="19"/>
-      <c r="AT29" s="19"/>
-      <c r="AU29" s="19"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="23"/>
+      <c r="AU29" s="23"/>
       <c r="AV29" s="4"/>
       <c r="AW29" s="4"/>
-      <c r="AX29" s="19"/>
-      <c r="AY29" s="19"/>
-      <c r="AZ29" s="19"/>
+      <c r="AX29" s="23"/>
+      <c r="AY29" s="23"/>
+      <c r="AZ29" s="23"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4"/>
-      <c r="BC29" s="19"/>
-      <c r="BD29" s="19"/>
-      <c r="BE29" s="19"/>
+      <c r="BC29" s="23"/>
+      <c r="BD29" s="23"/>
+      <c r="BE29" s="23"/>
     </row>
     <row r="30" spans="1:57" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="26" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28" t="s">
+      <c r="J30" s="25"/>
+      <c r="K30" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="28" t="s">
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="28" t="s">
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="31"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
-      <c r="AN30" s="19"/>
-      <c r="AO30" s="19"/>
-      <c r="AP30" s="19"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="23"/>
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
-      <c r="AS30" s="19"/>
-      <c r="AT30" s="19"/>
-      <c r="AU30" s="19"/>
+      <c r="AS30" s="23"/>
+      <c r="AT30" s="23"/>
+      <c r="AU30" s="23"/>
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
-      <c r="AX30" s="19"/>
-      <c r="AY30" s="19"/>
-      <c r="AZ30" s="19"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="23"/>
+      <c r="AZ30" s="23"/>
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
-      <c r="BC30" s="19"/>
-      <c r="BD30" s="19"/>
-      <c r="BE30" s="19"/>
+      <c r="BC30" s="23"/>
+      <c r="BD30" s="23"/>
+      <c r="BE30" s="23"/>
     </row>
     <row r="31" spans="1:57" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="26" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28" t="s">
+      <c r="J31" s="25"/>
+      <c r="K31" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="28" t="s">
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="28" t="s">
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="28" t="s">
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="31"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
       <c r="AQ31" s="4"/>
       <c r="AR31" s="4"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
+      <c r="AS31" s="23"/>
+      <c r="AT31" s="23"/>
+      <c r="AU31" s="23"/>
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
+      <c r="AX31" s="23"/>
+      <c r="AY31" s="23"/>
+      <c r="AZ31" s="23"/>
       <c r="BA31" s="4"/>
       <c r="BB31" s="4"/>
-      <c r="BC31" s="19"/>
-      <c r="BD31" s="19"/>
-      <c r="BE31" s="19"/>
+      <c r="BC31" s="23"/>
+      <c r="BD31" s="23"/>
+      <c r="BE31" s="23"/>
     </row>
     <row r="32" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="26" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28" t="s">
+      <c r="J32" s="25"/>
+      <c r="K32" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="28" t="s">
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="28" t="s">
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="28" t="s">
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="30"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="31"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="19"/>
-      <c r="AP32" s="19"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23"/>
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="19"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="23"/>
+      <c r="AU32" s="23"/>
       <c r="AV32" s="4"/>
       <c r="AW32" s="4"/>
-      <c r="AX32" s="19"/>
-      <c r="AY32" s="19"/>
-      <c r="AZ32" s="19"/>
+      <c r="AX32" s="23"/>
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="23"/>
       <c r="BA32" s="4"/>
       <c r="BB32" s="4"/>
-      <c r="BC32" s="19"/>
-      <c r="BD32" s="19"/>
-      <c r="BE32" s="19"/>
+      <c r="BC32" s="23"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="23"/>
     </row>
     <row r="33" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="31" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="26" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28" t="s">
+      <c r="J33" s="25"/>
+      <c r="K33" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="28" t="s">
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="28" t="s">
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="28" t="s">
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AH33" s="29"/>
-      <c r="AI33" s="29"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="31"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
-      <c r="AN33" s="19"/>
-      <c r="AO33" s="19"/>
-      <c r="AP33" s="19"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
-      <c r="AS33" s="19"/>
-      <c r="AT33" s="19"/>
-      <c r="AU33" s="19"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="4"/>
-      <c r="AX33" s="19"/>
-      <c r="AY33" s="19"/>
-      <c r="AZ33" s="19"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="23"/>
       <c r="BA33" s="4"/>
       <c r="BB33" s="4"/>
-      <c r="BC33" s="19"/>
-      <c r="BD33" s="19"/>
-      <c r="BE33" s="19"/>
+      <c r="BC33" s="23"/>
+      <c r="BD33" s="23"/>
+      <c r="BE33" s="23"/>
     </row>
     <row r="34" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="31" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="26" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28" t="s">
+      <c r="J34" s="25"/>
+      <c r="K34" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="28" t="s">
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="28" t="s">
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="29"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="31"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="22"/>
+      <c r="AP34" s="22"/>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="34"/>
+      <c r="AS34" s="22"/>
+      <c r="AT34" s="22"/>
+      <c r="AU34" s="22"/>
       <c r="AV34" s="4"/>
       <c r="AW34" s="4"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
       <c r="BA34" s="4"/>
       <c r="BB34" s="4"/>
-      <c r="BC34" s="19"/>
-      <c r="BD34" s="19"/>
-      <c r="BE34" s="19"/>
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
     </row>
     <row r="35" spans="1:57" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="36"/>
-      <c r="AU35" s="36"/>
-      <c r="AV35" s="36"/>
-      <c r="AW35" s="36"/>
-      <c r="AX35" s="36"/>
-      <c r="AY35" s="36"/>
-      <c r="AZ35" s="36"/>
-      <c r="BA35" s="36"/>
-      <c r="BB35" s="36"/>
-      <c r="BC35" s="36"/>
-      <c r="BD35" s="36"/>
-      <c r="BE35" s="37"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="93"/>
+      <c r="AK35" s="93"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="93"/>
+      <c r="AN35" s="93"/>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="93"/>
+      <c r="AQ35" s="93"/>
+      <c r="AR35" s="93"/>
+      <c r="AS35" s="93"/>
+      <c r="AT35" s="93"/>
+      <c r="AU35" s="93"/>
+      <c r="AV35" s="93"/>
+      <c r="AW35" s="93"/>
+      <c r="AX35" s="93"/>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="93"/>
+      <c r="BA35" s="93"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="94"/>
     </row>
     <row r="36" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="31" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="26" t="s">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28" t="s">
+      <c r="J36" s="25"/>
+      <c r="K36" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="28" t="s">
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="28" t="s">
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="29"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="31"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN36" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="34"/>
+        <v>161</v>
+      </c>
+      <c r="AN36" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS36" s="19"/>
-      <c r="AT36" s="19"/>
-      <c r="AU36" s="19"/>
+        <v>166</v>
+      </c>
+      <c r="AS36" s="23"/>
+      <c r="AT36" s="23"/>
+      <c r="AU36" s="23"/>
       <c r="AV36" s="4"/>
       <c r="AW36" s="4"/>
-      <c r="AX36" s="19"/>
-      <c r="AY36" s="19"/>
-      <c r="AZ36" s="19"/>
+      <c r="AX36" s="23"/>
+      <c r="AY36" s="23"/>
+      <c r="AZ36" s="23"/>
       <c r="BA36" s="4"/>
       <c r="BB36" s="4"/>
-      <c r="BC36" s="19"/>
-      <c r="BD36" s="19"/>
-      <c r="BE36" s="19"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="23"/>
+      <c r="BE36" s="23"/>
     </row>
     <row r="37" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="26" t="s">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J37" s="27"/>
-      <c r="K37" s="28" t="s">
+      <c r="J37" s="25"/>
+      <c r="K37" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="28" t="s">
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="28" t="s">
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="29"/>
-      <c r="AI37" s="29"/>
-      <c r="AJ37" s="29"/>
-      <c r="AK37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="31"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN37" s="23"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="25"/>
+        <v>166</v>
+      </c>
+      <c r="AN37" s="32"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="34"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
-      <c r="AS37" s="23"/>
-      <c r="AT37" s="24"/>
-      <c r="AU37" s="25"/>
+      <c r="AS37" s="32"/>
+      <c r="AT37" s="33"/>
+      <c r="AU37" s="34"/>
       <c r="AV37" s="4"/>
       <c r="AW37" s="4"/>
-      <c r="AX37" s="19"/>
-      <c r="AY37" s="19"/>
-      <c r="AZ37" s="19"/>
+      <c r="AX37" s="23"/>
+      <c r="AY37" s="23"/>
+      <c r="AZ37" s="23"/>
       <c r="BA37" s="4"/>
       <c r="BB37" s="4"/>
-      <c r="BC37" s="19"/>
-      <c r="BD37" s="19"/>
-      <c r="BE37" s="19"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="23"/>
+      <c r="BE37" s="23"/>
     </row>
     <row r="38" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="31" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="26" t="s">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="27"/>
-      <c r="K38" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="28" t="s">
+      <c r="J38" s="25"/>
+      <c r="K38" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="28" t="s">
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="31"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN38" s="20"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="22"/>
+        <v>166</v>
+      </c>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="21"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
-      <c r="AS38" s="20"/>
-      <c r="AT38" s="21"/>
-      <c r="AU38" s="22"/>
+      <c r="AS38" s="19"/>
+      <c r="AT38" s="20"/>
+      <c r="AU38" s="21"/>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
-      <c r="AX38" s="34"/>
-      <c r="AY38" s="34"/>
-      <c r="AZ38" s="34"/>
+      <c r="AX38" s="22"/>
+      <c r="AY38" s="22"/>
+      <c r="AZ38" s="22"/>
       <c r="BA38" s="4"/>
       <c r="BB38" s="4"/>
-      <c r="BC38" s="19"/>
-      <c r="BD38" s="19"/>
-      <c r="BE38" s="19"/>
+      <c r="BC38" s="23"/>
+      <c r="BD38" s="23"/>
+      <c r="BE38" s="23"/>
     </row>
     <row r="39" spans="1:57" ht="108.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="26" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="27"/>
-      <c r="K39" s="28" t="s">
+      <c r="J39" s="25"/>
+      <c r="K39" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="28" t="s">
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="28" t="s">
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="30"/>
+      <c r="AI39" s="30"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="31"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN39" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO39" s="21"/>
-      <c r="AP39" s="22"/>
+        <v>169</v>
+      </c>
+      <c r="AN39" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="21"/>
       <c r="AQ39" s="4"/>
       <c r="AR39" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS39" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="22"/>
+        <v>166</v>
+      </c>
+      <c r="AS39" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT39" s="20"/>
+      <c r="AU39" s="21"/>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
-      <c r="AX39" s="20"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="22"/>
+      <c r="AX39" s="19"/>
+      <c r="AY39" s="20"/>
+      <c r="AZ39" s="21"/>
       <c r="BA39" s="4"/>
       <c r="BB39" s="4"/>
-      <c r="BC39" s="23"/>
-      <c r="BD39" s="24"/>
-      <c r="BE39" s="25"/>
+      <c r="BC39" s="32"/>
+      <c r="BD39" s="33"/>
+      <c r="BE39" s="34"/>
     </row>
     <row r="40" spans="1:57" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="31" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="26" t="s">
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="27"/>
-      <c r="K40" s="28" t="s">
+      <c r="J40" s="25"/>
+      <c r="K40" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="28" t="s">
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="28" t="s">
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="29"/>
-      <c r="AJ40" s="29"/>
-      <c r="AK40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="31"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN40" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="22"/>
+        <v>169</v>
+      </c>
+      <c r="AN40" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="21"/>
       <c r="AQ40" s="4"/>
       <c r="AR40" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS40" s="34"/>
-      <c r="AT40" s="34"/>
-      <c r="AU40" s="34"/>
+        <v>166</v>
+      </c>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="22"/>
+      <c r="AU40" s="22"/>
       <c r="AV40" s="4"/>
       <c r="AW40" s="4"/>
-      <c r="AX40" s="34"/>
-      <c r="AY40" s="34"/>
-      <c r="AZ40" s="34"/>
+      <c r="AX40" s="22"/>
+      <c r="AY40" s="22"/>
+      <c r="AZ40" s="22"/>
       <c r="BA40" s="4"/>
       <c r="BB40" s="4"/>
-      <c r="BC40" s="19"/>
-      <c r="BD40" s="19"/>
-      <c r="BE40" s="19"/>
+      <c r="BC40" s="23"/>
+      <c r="BD40" s="23"/>
+      <c r="BE40" s="23"/>
     </row>
     <row r="41" spans="1:57" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="31" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="26" t="s">
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28" t="s">
+      <c r="J41" s="25"/>
+      <c r="K41" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="28" t="s">
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="28" t="s">
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29"/>
-      <c r="AJ41" s="29"/>
-      <c r="AK41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="31"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN41" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO41" s="21"/>
-      <c r="AP41" s="22"/>
+        <v>169</v>
+      </c>
+      <c r="AN41" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="21"/>
       <c r="AQ41" s="4"/>
       <c r="AR41" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS41" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT41" s="21"/>
-      <c r="AU41" s="22"/>
+        <v>166</v>
+      </c>
+      <c r="AS41" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT41" s="20"/>
+      <c r="AU41" s="21"/>
       <c r="AV41" s="4"/>
       <c r="AW41" s="4"/>
-      <c r="AX41" s="20"/>
-      <c r="AY41" s="21"/>
-      <c r="AZ41" s="22"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="20"/>
+      <c r="AZ41" s="21"/>
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
-      <c r="BC41" s="19"/>
-      <c r="BD41" s="19"/>
-      <c r="BE41" s="19"/>
-    </row>
-    <row r="42" spans="1:57" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="29"/>
-      <c r="AI42" s="29"/>
-      <c r="AJ42" s="29"/>
-      <c r="AK42" s="30"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN42" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO42" s="34"/>
-      <c r="AP42" s="34"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
-      <c r="AS42" s="19"/>
-      <c r="AT42" s="19"/>
-      <c r="AU42" s="19"/>
-      <c r="AV42" s="4"/>
-      <c r="AW42" s="4"/>
-      <c r="AX42" s="19"/>
-      <c r="AY42" s="19"/>
-      <c r="AZ42" s="19"/>
-      <c r="BA42" s="4"/>
-      <c r="BB42" s="4"/>
-      <c r="BC42" s="19"/>
-      <c r="BD42" s="19"/>
-      <c r="BE42" s="19"/>
+      <c r="BC41" s="23"/>
+      <c r="BD41" s="23"/>
+      <c r="BE41" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="399">
-    <mergeCell ref="AN40:AP40"/>
-    <mergeCell ref="AS40:AU40"/>
-    <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="BC42:BE42"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:P42"/>
-    <mergeCell ref="Q42:Z42"/>
-    <mergeCell ref="AA42:AF42"/>
-    <mergeCell ref="AG42:AK42"/>
-    <mergeCell ref="AN42:AP42"/>
-    <mergeCell ref="AS42:AU42"/>
+  <mergeCells count="388">
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="AA37:AF37"/>
+    <mergeCell ref="AG37:AK37"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="AS37:AU37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="BC39:BE39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:P39"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="AA39:AF39"/>
+    <mergeCell ref="AG39:AK39"/>
+    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="AS39:AU39"/>
+    <mergeCell ref="BC34:BE34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="Q34:Z34"/>
+    <mergeCell ref="AA34:AF34"/>
+    <mergeCell ref="AG34:AK34"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AS34:AU34"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="Q31:Z31"/>
+    <mergeCell ref="AA31:AF31"/>
+    <mergeCell ref="AG31:AK31"/>
+    <mergeCell ref="AN31:AP31"/>
+    <mergeCell ref="AS31:AU31"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="A35:BE35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="AG20:AK20"/>
+    <mergeCell ref="AS20:AU20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="BC31:BE31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="Q32:Z32"/>
+    <mergeCell ref="AA32:AF32"/>
+    <mergeCell ref="AG32:AK32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AS32:AU32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BC32:BE32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="Q30:Z30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="Q29:Z29"/>
+    <mergeCell ref="AA30:AF30"/>
+    <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="AG30:AK30"/>
+    <mergeCell ref="AN30:AP30"/>
+    <mergeCell ref="AS30:AU30"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AS29:AU29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="AA29:AF29"/>
+    <mergeCell ref="AG29:AK29"/>
+    <mergeCell ref="AN29:AP29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="Q28:Z28"/>
+    <mergeCell ref="AG28:AK28"/>
+    <mergeCell ref="AN28:AP28"/>
+    <mergeCell ref="AS28:AU28"/>
+    <mergeCell ref="Q27:Z27"/>
+    <mergeCell ref="AA28:AF28"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="AG26:AK26"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="AS26:AU26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="BC26:BE26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="AS27:AU27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="AA26:AF26"/>
+    <mergeCell ref="AA27:AF27"/>
+    <mergeCell ref="AG27:AK27"/>
+    <mergeCell ref="AN27:AP27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="AS25:AU25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="AA25:AF25"/>
+    <mergeCell ref="AG25:AK25"/>
+    <mergeCell ref="AN25:AP25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="AS24:AU24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="AG23:AK23"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="AS23:AU23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="AA24:AF24"/>
+    <mergeCell ref="AG24:AK24"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q15:Z15"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="Q16:Z16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="Q10:Z10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="Q14:Z14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:Z11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="AA8:AK8"/>
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="AA12:AF12"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="Q8:Z9"/>
+    <mergeCell ref="AA11:AF11"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="BC14:BE14"/>
+    <mergeCell ref="AN10:AP10"/>
+    <mergeCell ref="BC13:BE13"/>
+    <mergeCell ref="AS13:AU13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AA14:AF14"/>
+    <mergeCell ref="AA13:AF13"/>
+    <mergeCell ref="AN13:AP13"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="AS14:AU14"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AS11:AU11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BC11:BE11"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="AS15:AU15"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AN12:AP12"/>
+    <mergeCell ref="AS12:AU12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BC12:BE12"/>
+    <mergeCell ref="BC3:BE3"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AZ5:BB5"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="D1:AN1"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:AN5"/>
+    <mergeCell ref="AO1:AO5"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="AN9:AP9"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="AS9:AU9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="AS22:AU22"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="BC15:BE15"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="BC18:BE18"/>
+    <mergeCell ref="AS16:AU16"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="AS10:AU10"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="AS18:AU18"/>
+    <mergeCell ref="AS19:AU19"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="BC20:BE20"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="Q17:Z17"/>
+    <mergeCell ref="AA17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="AS17:AU17"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="BC16:BE16"/>
+    <mergeCell ref="AA15:AF15"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="Q33:Z33"/>
+    <mergeCell ref="AA33:AF33"/>
+    <mergeCell ref="AG33:AK33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AS33:AU33"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:P38"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="AA38:AF38"/>
+    <mergeCell ref="AG38:AK38"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AS38:AU38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:P36"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="AA36:AF36"/>
+    <mergeCell ref="AG36:AK36"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AS36:AU36"/>
     <mergeCell ref="AX36:AZ36"/>
     <mergeCell ref="BC36:BE36"/>
     <mergeCell ref="AX37:AZ37"/>
@@ -6913,375 +7146,15 @@
     <mergeCell ref="Q40:Z40"/>
     <mergeCell ref="AA40:AF40"/>
     <mergeCell ref="AG40:AK40"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:P38"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="AA38:AF38"/>
-    <mergeCell ref="AG38:AK38"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AS38:AU38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:P36"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="AA36:AF36"/>
-    <mergeCell ref="AG36:AK36"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="BC33:BE33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:P33"/>
-    <mergeCell ref="Q33:Z33"/>
-    <mergeCell ref="AA33:AF33"/>
-    <mergeCell ref="AG33:AK33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AS33:AU33"/>
-    <mergeCell ref="AS19:AU19"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="BC20:BE20"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="Q17:Z17"/>
-    <mergeCell ref="AA17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="AS17:AU17"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="BC16:BE16"/>
-    <mergeCell ref="AA15:AF15"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="AS9:AU9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BC9:BE9"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="AS22:AU22"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="BC15:BE15"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="BC18:BE18"/>
-    <mergeCell ref="AS16:AU16"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="AS10:AU10"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="AS18:AU18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AZ5:BB5"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="D1:AN1"/>
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="D2:AN5"/>
-    <mergeCell ref="AO1:AO5"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AS15:AU15"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="BC10:BE10"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AN12:AP12"/>
-    <mergeCell ref="AS12:AU12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="BC12:BE12"/>
-    <mergeCell ref="BC3:BE3"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="BC14:BE14"/>
-    <mergeCell ref="AN10:AP10"/>
-    <mergeCell ref="BC13:BE13"/>
-    <mergeCell ref="AS13:AU13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="AA13:AF13"/>
-    <mergeCell ref="AN13:AP13"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="AS14:AU14"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AS11:AU11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BC11:BE11"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="AA8:AK8"/>
-    <mergeCell ref="AA9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="AA12:AF12"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="Q8:Z9"/>
-    <mergeCell ref="AA11:AF11"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AA10:AF10"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="Q10:Z10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="Q14:Z14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q12:Z12"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:Z11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="Q15:Z15"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:Z19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:Z22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:Z23"/>
-    <mergeCell ref="Q16:Z16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="AS24:AU24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="AG23:AK23"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="Q24:Z24"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="AA24:AF24"/>
-    <mergeCell ref="AG24:AK24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="Q25:Z25"/>
-    <mergeCell ref="BC25:BE25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="AS25:AU25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="AA25:AF25"/>
-    <mergeCell ref="AG25:AK25"/>
-    <mergeCell ref="AN25:AP25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="Q26:Z26"/>
-    <mergeCell ref="BC27:BE27"/>
-    <mergeCell ref="AG26:AK26"/>
-    <mergeCell ref="AN26:AP26"/>
-    <mergeCell ref="AS26:AU26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="BC26:BE26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="AS27:AU27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="AA26:AF26"/>
-    <mergeCell ref="AA27:AF27"/>
-    <mergeCell ref="AG27:AK27"/>
-    <mergeCell ref="AN27:AP27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="Q28:Z28"/>
-    <mergeCell ref="AG28:AK28"/>
-    <mergeCell ref="AN28:AP28"/>
-    <mergeCell ref="AS28:AU28"/>
-    <mergeCell ref="Q27:Z27"/>
-    <mergeCell ref="AA28:AF28"/>
-    <mergeCell ref="AA30:AF30"/>
-    <mergeCell ref="BC29:BE29"/>
-    <mergeCell ref="AG30:AK30"/>
-    <mergeCell ref="AN30:AP30"/>
-    <mergeCell ref="AS30:AU30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="BC28:BE28"/>
-    <mergeCell ref="AS29:AU29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="AA29:AF29"/>
-    <mergeCell ref="AG29:AK29"/>
-    <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:P30"/>
-    <mergeCell ref="Q30:Z30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:P29"/>
-    <mergeCell ref="Q29:Z29"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="AA16:AF16"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="Q18:Z18"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A35:BE35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AS20:AU20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="BC31:BE31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:P32"/>
-    <mergeCell ref="Q32:Z32"/>
-    <mergeCell ref="AA32:AF32"/>
-    <mergeCell ref="AG32:AK32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AS32:AU32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BC32:BE32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:P31"/>
-    <mergeCell ref="Q31:Z31"/>
-    <mergeCell ref="AA31:AF31"/>
-    <mergeCell ref="AG31:AK31"/>
-    <mergeCell ref="AN31:AP31"/>
-    <mergeCell ref="AS31:AU31"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BC34:BE34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="AA34:AF34"/>
-    <mergeCell ref="AG34:AK34"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AS34:AU34"/>
-    <mergeCell ref="AS36:AU36"/>
-    <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="BC39:BE39"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:P39"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="AA39:AF39"/>
-    <mergeCell ref="AG39:AK39"/>
-    <mergeCell ref="AN39:AP39"/>
-    <mergeCell ref="AS39:AU39"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="AA37:AF37"/>
-    <mergeCell ref="AG37:AK37"/>
-    <mergeCell ref="AN37:AP37"/>
-    <mergeCell ref="AS37:AU37"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="AS40:AU40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J34 I36:J42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J34 I36:J41">
       <formula1>"正常系,異常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BB34 AL10:AM34 AV10:AW34 AQ10:AR34 AL36:AM42 AV36:AW42 BA36:BB42 AQ36:AR42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA10:BB34 AL10:AM34 AV10:AW34 AQ10:AR34 AL36:AM41 AV36:AW41 BA36:BB41 AQ36:AR41">
       <formula1>"OK,NG,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7295,21 +7168,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AE6B82DD32ED2D43B562EE23B8899C37" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="96d9b8f1e00177e6841ec08fe2851044">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9" xmlns:ns3="e2ca149d-0452-47e1-ae54-92b8879afeff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfcb4037085589394c396acba2ce8ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="2bfecba5-3d9f-4d28-93ba-38b00d0d50e9"/>
@@ -7488,24 +7346,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F9013C-A683-4E5F-8E94-E7E8E3CDBEA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7522,4 +7378,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F46E28C-BB7B-4F88-A0AA-310E5925BBC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFD1A7F-1ECC-4084-A903-F19520E9C7C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/document/テスト仕様書.xlsx
+++ b/document/テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16640" windowHeight="3200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16640" windowHeight="3200"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="173">
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
@@ -1491,6 +1491,16 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト実施、テストケースNo.33削除</t>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2305,6 +2315,18 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2314,35 +2336,62 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2353,59 +2402,107 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="27" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="26" fillId="25" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="14" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2416,25 +2513,10 @@
     <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2499,78 +2581,6 @@
     </xf>
     <xf numFmtId="177" fontId="26" fillId="25" borderId="25" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="15" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="13" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="25" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="27" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -2961,8 +2971,8 @@
   </sheetPr>
   <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10:AF10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.08984375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2972,40 +2982,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -3013,38 +3023,38 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -3052,770 +3062,843 @@
       <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="15" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="17"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="18">
         <v>43097</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="6" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="6" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="8"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>43111</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="6" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="6" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="8"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>43116</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="6" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="6" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="8"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="12"/>
     </row>
     <row r="7" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>43129</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="6" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="8"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="12"/>
     </row>
     <row r="8" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>43139</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="6" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="8"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="18">
         <v>43146</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="6" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="6" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="8"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="8"/>
+      <c r="A10" s="18">
+        <v>43150</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="8"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="8"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="8"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="8"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="12"/>
     </row>
     <row r="15" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="8"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="12"/>
     </row>
     <row r="16" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="8"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="8"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="8"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="8"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="12"/>
     </row>
     <row r="20" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="8"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="8"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="8"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="8"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="G3:AB3"/>
-    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:AB22"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:AB23"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:AB20"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:AB21"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:AB18"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:AB19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:AB17"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:AB15"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:AB14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:AB13"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:AB12"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:AB9"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:AB8"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:AB7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:AB6"/>
+    <mergeCell ref="AC6:AF6"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -3824,78 +3907,11 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:AB4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:AB7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:AB6"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:AB9"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:AB8"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:AB13"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:AB15"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:AB14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:AB17"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:AB16"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:AB18"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:AB19"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:AB21"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:AB22"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:AB23"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="G3:AB3"/>
+    <mergeCell ref="A1:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3911,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AX38" sqref="AX38:AZ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3937,2872 +3953,3148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="68" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="35" t="s">
+      <c r="AP1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35" t="s">
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="72" t="s">
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="5